--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="215">
   <si>
     <t>№</t>
   </si>
@@ -893,6 +893,155 @@
   </si>
   <si>
     <t>1. Отобразится дополнительный текст в цитате.</t>
+  </si>
+  <si>
+    <t>Запуск пиложения</t>
+  </si>
+  <si>
+    <t>Проверка запуска приложения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Зупустить приложение
+</t>
+  </si>
+  <si>
+    <t>Покрытие автотестами</t>
+  </si>
+  <si>
+    <t>Рузельтат теста</t>
+  </si>
+  <si>
+    <t>Приложение запускается, показывается цитата</t>
+  </si>
+  <si>
+    <t>Запуск приложения</t>
+  </si>
+  <si>
+    <t>Пройден</t>
+  </si>
+  <si>
+    <t>Приложение стартовано. Пользователь успешно авторизован.</t>
+  </si>
+  <si>
+    <t>Приложение установлено на устройство с API 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приложение стартовано. </t>
+  </si>
+  <si>
+    <t>Приложение стартовано. Пользователь успешно авторизован. Открыт раздел Claims</t>
+  </si>
+  <si>
+    <t>Приложение стартовано. Пользователь успешно авторизован. Открыт раздел News</t>
+  </si>
+  <si>
+    <t>Приложение стартовано. Пользователь успешно авторизован. Открыт раздел News - Control Panel</t>
+  </si>
+  <si>
+    <t>Входящий звонок</t>
+  </si>
+  <si>
+    <t>Свернуть развернуть приложеие</t>
+  </si>
+  <si>
+    <t>Получение СМС</t>
+  </si>
+  <si>
+    <t>Поворот экрана</t>
+  </si>
+  <si>
+    <t>Разрядка батареи</t>
+  </si>
+  <si>
+    <t>Потеря соединения</t>
+  </si>
+  <si>
+    <t>Тестирование прерываний и разных условий</t>
+  </si>
+  <si>
+    <t>Соединение  WIFi</t>
+  </si>
+  <si>
+    <t>Соединение  4g</t>
+  </si>
+  <si>
+    <t>Соединение  3g</t>
+  </si>
+  <si>
+    <t>Переключение содениения с WiFi на 4g</t>
+  </si>
+  <si>
+    <t>Удобство использования. UI/UX дизайн</t>
+  </si>
+  <si>
+    <t>Удобство и эргономичность приложения.</t>
+  </si>
+  <si>
+    <t>Предусловие</t>
+  </si>
+  <si>
+    <t>Приложение стартовано. Пользователь успешно авторизован. Открыт любой раздел</t>
+  </si>
+  <si>
+    <t>1.  Свернуть приложение
+2. Развернуть приложение</t>
+  </si>
+  <si>
+    <t>1. Приложение свернуто
+2. Приложение развернуто с сохранением состояния</t>
+  </si>
+  <si>
+    <t>1. Приложение свернуто. Экран телфонна
+2. Приложение свернуто
+3. Приложение открыто с сохранением пред. Состояния</t>
+  </si>
+  <si>
+    <t>1. Поступает вх. звонок
+2. Ответ на звонок и завершение звонка
+3. Развернуть приложение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Поступает вх. СМС
+</t>
+  </si>
+  <si>
+    <t>1. На фоне открытого приложения видно уведомление поб СМС. Приложение работает, данные сохранены.</t>
+  </si>
+  <si>
+    <t>1. Повернуть экран на 90'</t>
+  </si>
+  <si>
+    <t>1. Приложение открыто в том же состоянии. Данные сохранены</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Потеря соединения.
+</t>
+  </si>
+  <si>
+    <t>1. Приложение открыто в том же состоянии. Данные сохранены. Сообщение о потере соедиенния.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Батаре разражается. Телефон выключается
+</t>
+  </si>
+  <si>
+    <t>1. После загрузки приложения успешно отркывается. Сохранненные заявки отображаются</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Обычные действия в приложении.
+</t>
+  </si>
+  <si>
+    <t>1. Приложение работает корректно, без зависаний.</t>
+  </si>
+  <si>
+    <t>1.Субъективная оценка эксперта.</t>
+  </si>
+  <si>
+    <t>Возможно</t>
+  </si>
+  <si>
+    <t>Невозможно</t>
   </si>
 </sst>
 </file>
@@ -943,7 +1092,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -997,7 +1146,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
@@ -1015,10 +1164,25 @@
       <left style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color theme="4" tint="-0.499984740745262"/>
       </right>
       <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
@@ -1030,21 +1194,6 @@
       <left style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </left>
-      <right style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
       <right style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </right>
@@ -1060,7 +1209,7 @@
       <left style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color theme="4" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
@@ -1075,21 +1224,6 @@
       <left style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </left>
-      <right style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
       <right style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </right>
@@ -1105,41 +1239,13 @@
       <left style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color theme="4" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </top>
       <bottom style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1189,19 +1295,6 @@
       <top style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </top>
-      <bottom style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
       <bottom style="medium">
         <color theme="4" tint="-0.499984740745262"/>
       </bottom>
@@ -1228,29 +1321,168 @@
       <top style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
         <color theme="4" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
         <color theme="4" tint="-0.499984740745262"/>
       </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
       <bottom style="medium">
         <color theme="4" tint="-0.499984740745262"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1262,86 +1494,200 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1623,16 +1969,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="89.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1652,278 +1998,504 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>10</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>11</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>12</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>13</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>14</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>15</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>16</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>17</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>18</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>19</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>20</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>21</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>22</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>23</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>24</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>25</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>26</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
-        <v>27</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="18"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1933,935 +2505,1611 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="39.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="72">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="72">
+        <v>2</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="C3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E3" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23" t="s">
+      <c r="H3" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="45"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="73">
+        <v>3</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
+      <c r="H4" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="47"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="73">
+        <v>4</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="G5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="H5" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="73">
+        <v>5</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="47"/>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="73">
+        <v>6</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="74">
+        <v>7</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="72">
+        <v>8</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" s="45"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="73">
+        <v>9</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="73">
+        <v>10</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23" t="s">
+      <c r="E11" s="43"/>
+      <c r="F11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="73">
+        <v>11</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J12" s="47"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="73">
+        <v>12</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="47"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="73">
+        <v>13</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="47"/>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="73">
+        <v>14</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="73">
+        <v>15</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" s="47"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="73">
+        <v>16</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J17" s="47"/>
+    </row>
+    <row r="18" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="74">
+        <v>17</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="72">
+        <v>18</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="45"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="73">
+        <v>19</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="47"/>
+    </row>
+    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="73">
+        <v>20</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="47"/>
+    </row>
+    <row r="22" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="74">
+        <v>21</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="50"/>
+    </row>
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="72">
+        <v>22</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="45"/>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="73">
+        <v>23</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="47"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="73">
+        <v>24</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="47"/>
+    </row>
+    <row r="26" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" s="73">
+        <v>25</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" s="47"/>
+    </row>
+    <row r="27" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="73">
+        <v>26</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="47"/>
+    </row>
+    <row r="28" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A28" s="73">
+        <v>27</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" s="47"/>
+    </row>
+    <row r="29" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="73">
+        <v>28</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" s="47"/>
+    </row>
+    <row r="30" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="73">
+        <v>29</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="47"/>
+    </row>
+    <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="73">
+        <v>30</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="43"/>
+      <c r="F31" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" s="47"/>
+    </row>
+    <row r="32" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="74">
+        <v>31</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" s="50"/>
+    </row>
+    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="72">
+        <v>32</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J33" s="45"/>
+    </row>
+    <row r="34" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="73">
+        <v>33</v>
+      </c>
+      <c r="B34" s="55"/>
+      <c r="C34" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="43"/>
+      <c r="F34" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I34" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J34" s="47"/>
+    </row>
+    <row r="35" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="74">
+        <v>34</v>
+      </c>
+      <c r="B35" s="56"/>
+      <c r="C35" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="48"/>
+      <c r="F35" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="J35" s="50"/>
+    </row>
+    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="75">
+        <v>35</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" s="45"/>
+    </row>
+    <row r="37" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="73">
+        <v>36</v>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="43"/>
+      <c r="F37" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I37" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J37" s="47"/>
+    </row>
+    <row r="38" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="73">
+        <v>37</v>
+      </c>
+      <c r="B38" s="55"/>
+      <c r="C38" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="43"/>
+      <c r="F38" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J38" s="47"/>
+    </row>
+    <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="73">
+        <v>38</v>
+      </c>
+      <c r="B39" s="55"/>
+      <c r="C39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="43"/>
+      <c r="F39" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J39" s="47"/>
+    </row>
+    <row r="40" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="73">
+        <v>39</v>
+      </c>
+      <c r="B40" s="55"/>
+      <c r="C40" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D40" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="43"/>
+      <c r="F40" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I40" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J40" s="47"/>
+    </row>
+    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="73">
+        <v>40</v>
+      </c>
+      <c r="B41" s="55"/>
+      <c r="C41" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="43"/>
+      <c r="F41" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" s="47"/>
+    </row>
+    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="73">
+        <v>41</v>
+      </c>
+      <c r="B42" s="55"/>
+      <c r="C42" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="43"/>
+      <c r="F42" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J42" s="47"/>
+    </row>
+    <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="73">
+        <v>42</v>
+      </c>
+      <c r="B43" s="55"/>
+      <c r="C43" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="43"/>
+      <c r="F43" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I43" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J43" s="47"/>
+    </row>
+    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="73">
+        <v>43</v>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="43"/>
+      <c r="F44" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I44" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J44" s="47"/>
+    </row>
+    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="73">
+        <v>44</v>
+      </c>
+      <c r="B45" s="55"/>
+      <c r="C45" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="43"/>
+      <c r="F45" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I45" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J45" s="47"/>
+    </row>
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="73">
+        <v>45</v>
+      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="43"/>
+      <c r="F46" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I46" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="J46" s="47"/>
+    </row>
+    <row r="47" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="74">
+        <v>46</v>
+      </c>
+      <c r="B47" s="56"/>
+      <c r="C47" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="48"/>
+      <c r="F47" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I47" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="J47" s="50"/>
+    </row>
+    <row r="48" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="76">
+        <v>47</v>
+      </c>
+      <c r="B48" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="32"/>
+      <c r="F48" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="I48" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="75">
+        <v>48</v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="H49" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="I49" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="J49" s="53"/>
+    </row>
+    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="73">
+        <v>49</v>
+      </c>
+      <c r="B50" s="60"/>
+      <c r="C50" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="43"/>
+      <c r="F50" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="I50" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="73">
+        <v>50</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" s="43"/>
+      <c r="F51" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="I51" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="73">
+        <v>51</v>
+      </c>
+      <c r="B52" s="60"/>
+      <c r="C52" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="43"/>
+      <c r="F52" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="I52" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="73">
+        <v>52</v>
+      </c>
+      <c r="B53" s="60"/>
+      <c r="C53" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="43"/>
+      <c r="F53" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="I53" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="73">
+        <v>53</v>
+      </c>
+      <c r="B54" s="60"/>
+      <c r="C54" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="43"/>
+      <c r="F54" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="I54" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="73">
+        <v>54</v>
+      </c>
+      <c r="B55" s="60"/>
+      <c r="C55" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="43"/>
+      <c r="F55" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="I55" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="73">
         <v>55</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="B56" s="60"/>
+      <c r="C56" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" s="43"/>
+      <c r="F56" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G56" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="I56" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="73">
         <v>56</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="B57" s="60"/>
+      <c r="C57" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" s="43"/>
+      <c r="F57" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="77">
         <v>57</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="B58" s="62"/>
+      <c r="C58" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="65"/>
+      <c r="F58" s="66" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="H58" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="I58" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="J58" s="68"/>
+    </row>
+    <row r="59" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="78">
         <v>58</v>
       </c>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="38"/>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>16</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="39"/>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="39"/>
-    </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="1:7" ht="225" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="38"/>
-    </row>
-    <row r="28" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>28</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="38"/>
-    </row>
-    <row r="30" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>29</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="1:7" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
-        <v>30</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" s="38"/>
-    </row>
-    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>32</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" s="38"/>
-    </row>
-    <row r="34" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15">
-        <v>33</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" s="39"/>
-    </row>
-    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
-        <v>34</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="38"/>
-    </row>
-    <row r="36" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>35</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="38"/>
-    </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <v>36</v>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>37</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="G38" s="38"/>
-    </row>
-    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
-        <v>38</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="38"/>
-    </row>
-    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>39</v>
-      </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="G40" s="38"/>
-    </row>
-    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>40</v>
-      </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="38"/>
-    </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>41</v>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="G42" s="38"/>
-    </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>42</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="G43" s="38"/>
-    </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>43</v>
-      </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="38"/>
-    </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>44</v>
-      </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" s="38"/>
-    </row>
-    <row r="46" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15">
-        <v>45</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="39"/>
-    </row>
-    <row r="47" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15">
-        <v>46</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="G47" s="39"/>
+      <c r="B59" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="H59" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="I59" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="J59" s="71"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E36:E47"/>
+    <mergeCell ref="E49:E58"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E23:E32"/>
+    <mergeCell ref="E33:E35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="216">
   <si>
     <t>№</t>
   </si>
@@ -212,9 +212,6 @@
     <t>1. Нажать на иконку @id/our_mission_image_button</t>
   </si>
   <si>
-    <t>Переход на экран раздела "Love is All'</t>
-  </si>
-  <si>
     <t>Появляется меню Logout</t>
   </si>
   <si>
@@ -377,9 +374,6 @@
   </si>
   <si>
     <t>1. На экране Claims нажать на иконку @id/add_new_claim_material_button</t>
-  </si>
-  <si>
-    <t>"Love is all"</t>
   </si>
   <si>
     <t>Редактирование  заявки (open)</t>
@@ -1042,6 +1036,15 @@
   </si>
   <si>
     <t>Невозможно</t>
+  </si>
+  <si>
+    <t>Переход на экран раздела "Our Mission'</t>
+  </si>
+  <si>
+    <t>"Our Mission"</t>
+  </si>
+  <si>
+    <t>Отображение и открытие раздела "Our  Mission'</t>
   </si>
 </sst>
 </file>
@@ -1576,31 +1579,22 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1647,9 +1641,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1688,6 +1679,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2002,10 +2005,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D2" s="29"/>
     </row>
@@ -2288,10 +2291,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D29" s="10"/>
     </row>
@@ -2301,7 +2304,7 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D30" s="10"/>
     </row>
@@ -2311,7 +2314,7 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D31" s="10"/>
     </row>
@@ -2321,7 +2324,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D32" s="10"/>
     </row>
@@ -2331,7 +2334,7 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D33" s="10"/>
     </row>
@@ -2341,7 +2344,7 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D34" s="10"/>
     </row>
@@ -2351,7 +2354,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D35" s="10"/>
     </row>
@@ -2361,7 +2364,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D36" s="10"/>
     </row>
@@ -2371,7 +2374,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D37" s="10"/>
     </row>
@@ -2381,7 +2384,7 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D38" s="10"/>
     </row>
@@ -2390,10 +2393,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D39" s="10"/>
     </row>
@@ -2507,13 +2510,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="79" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
@@ -2525,7 +2528,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -2538,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>37</v>
@@ -2547,50 +2550,50 @@
         <v>38</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72">
+      <c r="A2" s="68">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>171</v>
-      </c>
       <c r="G2" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>213</v>
+        <v>174</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>211</v>
       </c>
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="72">
+      <c r="A3" s="68">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="51" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2599,8 +2602,8 @@
       <c r="D3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>179</v>
+      <c r="E3" s="76" t="s">
+        <v>177</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>43</v>
@@ -2608,785 +2611,785 @@
       <c r="G3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="J3" s="45"/>
+      <c r="H3" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="73">
+      <c r="A4" s="69">
         <v>3</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="19" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="47"/>
+      <c r="H4" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="73">
+      <c r="A5" s="69">
         <v>4</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="47"/>
+      <c r="H5" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="73">
+      <c r="A6" s="69">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="19" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="47"/>
+      <c r="H6" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="45"/>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="73">
+      <c r="A7" s="69">
         <v>6</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="19" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="47"/>
+      <c r="H7" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="45"/>
     </row>
     <row r="8" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74">
+      <c r="A8" s="70">
         <v>7</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="20" t="s">
         <v>49</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="I8" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="50"/>
+      <c r="H8" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="72">
+      <c r="A9" s="68">
         <v>8</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>177</v>
+        <v>215</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>175</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="I9" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="J9" s="45"/>
+      <c r="H9" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="73">
+      <c r="A10" s="69">
         <v>9</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J10" s="47"/>
+        <v>58</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="45"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="73">
+      <c r="A11" s="69">
         <v>10</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="45"/>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="69">
+        <v>11</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="77"/>
+      <c r="F12" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="73">
-        <v>11</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="G12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="45"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="69">
+        <v>12</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="19" t="s">
+      <c r="E13" s="77"/>
+      <c r="F13" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="H13" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="69">
+        <v>13</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="77"/>
+      <c r="F14" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="45"/>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="69">
+        <v>14</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="77"/>
+      <c r="F15" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J12" s="47"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="73">
-        <v>12</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="19" t="s">
+      <c r="G15" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J15" s="45"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="69">
+        <v>15</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="77"/>
+      <c r="F16" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J13" s="47"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="73">
-        <v>13</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="19" t="s">
+      <c r="H16" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J16" s="45"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="69">
+        <v>16</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="77"/>
+      <c r="F17" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="70">
+        <v>17</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="78"/>
+      <c r="F18" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="73">
-        <v>14</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J15" s="47"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="73">
-        <v>15</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="H18" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J18" s="47"/>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="68">
+        <v>18</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="69">
+        <v>19</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="77"/>
+      <c r="F20" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="69">
+        <v>20</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="77"/>
+      <c r="F21" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" s="45"/>
+    </row>
+    <row r="22" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="70">
+        <v>21</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="78"/>
+      <c r="F22" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" s="47"/>
+    </row>
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="68">
+        <v>22</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="73">
-        <v>16</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I17" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J17" s="47"/>
-    </row>
-    <row r="18" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74">
-        <v>17</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="I18" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="J18" s="50"/>
-    </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="72">
-        <v>18</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="18" t="s">
+      <c r="E23" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="J19" s="45"/>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="73">
-        <v>19</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="73">
-        <v>20</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J21" s="47"/>
-    </row>
-    <row r="22" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="74">
-        <v>21</v>
-      </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="I22" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="J22" s="50"/>
-    </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="72">
-        <v>22</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="G23" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="69">
+        <v>23</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="18" t="s">
+      <c r="E24" s="77"/>
+      <c r="F24" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="I23" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="J23" s="45"/>
-    </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="73">
-        <v>23</v>
-      </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="19" t="s">
+      <c r="G24" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="H24" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" s="45"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="69">
+        <v>24</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I24" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J24" s="47"/>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="73">
-        <v>24</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="77"/>
+      <c r="F25" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="19" t="s">
+      <c r="H25" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" s="45"/>
+    </row>
+    <row r="26" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" s="69">
+        <v>25</v>
+      </c>
+      <c r="B26" s="52"/>
+      <c r="C26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I25" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J25" s="47"/>
-    </row>
-    <row r="26" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="73">
-        <v>25</v>
-      </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="E26" s="77"/>
+      <c r="F26" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="19" t="s">
+      <c r="H26" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" s="45"/>
+    </row>
+    <row r="27" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="69">
+        <v>26</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="E27" s="77"/>
+      <c r="F27" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="73">
-        <v>26</v>
-      </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="G27" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="19" t="s">
+      <c r="H27" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" s="45"/>
+    </row>
+    <row r="28" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A28" s="69">
+        <v>27</v>
+      </c>
+      <c r="B28" s="52"/>
+      <c r="C28" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="E28" s="77"/>
+      <c r="F28" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I27" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J27" s="47"/>
-    </row>
-    <row r="28" spans="1:10" ht="225" x14ac:dyDescent="0.25">
-      <c r="A28" s="73">
-        <v>27</v>
-      </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="G28" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="19" t="s">
+      <c r="H28" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="69">
+        <v>28</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="77"/>
+      <c r="F29" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="H29" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" s="45"/>
+    </row>
+    <row r="30" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="69">
+        <v>29</v>
+      </c>
+      <c r="B30" s="52"/>
+      <c r="C30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="77"/>
+      <c r="F30" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H28" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I28" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J28" s="47"/>
-    </row>
-    <row r="29" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="73">
-        <v>28</v>
-      </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="H30" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J30" s="45"/>
+    </row>
+    <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="69">
+        <v>30</v>
+      </c>
+      <c r="B31" s="52"/>
+      <c r="C31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="77"/>
+      <c r="F31" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="70">
+        <v>31</v>
+      </c>
+      <c r="B32" s="53"/>
+      <c r="C32" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I29" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J29" s="47"/>
-    </row>
-    <row r="30" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="73">
-        <v>29</v>
-      </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="19" t="s">
+      <c r="E32" s="78"/>
+      <c r="F32" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I30" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J30" s="47"/>
-    </row>
-    <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="73">
-        <v>30</v>
-      </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I31" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J31" s="47"/>
-    </row>
-    <row r="32" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74">
-        <v>31</v>
-      </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="16" t="s">
+      <c r="G32" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="I32" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="J32" s="50"/>
+      <c r="H32" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="72">
+      <c r="A33" s="68">
         <v>32</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="51" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -3395,81 +3398,81 @@
       <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="40" t="s">
-        <v>181</v>
+      <c r="E33" s="76" t="s">
+        <v>179</v>
       </c>
       <c r="F33" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J33" s="43"/>
+    </row>
+    <row r="34" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="69">
+        <v>33</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="77"/>
+      <c r="F34" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="I33" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J33" s="45"/>
-    </row>
-    <row r="34" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="73">
-        <v>33</v>
-      </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="19" t="s">
+      <c r="H34" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J34" s="45"/>
+    </row>
+    <row r="35" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="70">
+        <v>34</v>
+      </c>
+      <c r="B35" s="53"/>
+      <c r="C35" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="E35" s="78"/>
+      <c r="F35" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="H34" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I34" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J34" s="47"/>
-    </row>
-    <row r="35" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74">
-        <v>34</v>
-      </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="20" t="s">
+      <c r="G35" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H35" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="I35" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="J35" s="50"/>
+      <c r="H35" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" s="47"/>
     </row>
     <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="75">
+      <c r="A36" s="71">
         <v>35</v>
       </c>
-      <c r="B36" s="57" t="s">
-        <v>145</v>
+      <c r="B36" s="54" t="s">
+        <v>143</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>40</v>
@@ -3477,315 +3480,315 @@
       <c r="D36" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="40" t="s">
-        <v>182</v>
+      <c r="E36" s="76" t="s">
+        <v>180</v>
       </c>
       <c r="F36" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J36" s="43"/>
+    </row>
+    <row r="37" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="69">
+        <v>36</v>
+      </c>
+      <c r="B37" s="52"/>
+      <c r="C37" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="77"/>
+      <c r="F37" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J37" s="45"/>
+    </row>
+    <row r="38" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="69">
+        <v>37</v>
+      </c>
+      <c r="B38" s="52"/>
+      <c r="C38" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="77"/>
+      <c r="F38" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="I36" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J36" s="45"/>
-    </row>
-    <row r="37" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="73">
-        <v>36</v>
-      </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I37" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J37" s="47"/>
-    </row>
-    <row r="38" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="73">
-        <v>37</v>
-      </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="15" t="s">
+      <c r="G38" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I38" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J38" s="47"/>
+      <c r="H38" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J38" s="45"/>
     </row>
     <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="73">
+      <c r="A39" s="69">
         <v>38</v>
       </c>
-      <c r="B39" s="55"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="43"/>
+      <c r="E39" s="77"/>
       <c r="F39" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="H39" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I39" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J39" s="47"/>
+        <v>153</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J39" s="45"/>
     </row>
     <row r="40" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="73">
+      <c r="A40" s="69">
         <v>39</v>
       </c>
-      <c r="B40" s="55"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="E40" s="77"/>
       <c r="F40" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G40" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J40" s="45"/>
+    </row>
+    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="69">
+        <v>40</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="77"/>
+      <c r="F41" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J41" s="45"/>
+    </row>
+    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="69">
+        <v>41</v>
+      </c>
+      <c r="B42" s="52"/>
+      <c r="C42" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="77"/>
+      <c r="F42" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I42" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J42" s="45"/>
+    </row>
+    <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="69">
+        <v>42</v>
+      </c>
+      <c r="B43" s="52"/>
+      <c r="C43" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="77"/>
+      <c r="F43" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J43" s="45"/>
+    </row>
+    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="69">
+        <v>43</v>
+      </c>
+      <c r="B44" s="52"/>
+      <c r="C44" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="77"/>
+      <c r="F44" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I44" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J44" s="45"/>
+    </row>
+    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="69">
+        <v>44</v>
+      </c>
+      <c r="B45" s="52"/>
+      <c r="C45" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="77"/>
+      <c r="F45" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H40" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I40" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J40" s="47"/>
-    </row>
-    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="73">
-        <v>40</v>
-      </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="19" t="s">
+      <c r="G45" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="H41" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I41" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J41" s="47"/>
-    </row>
-    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="73">
-        <v>41</v>
-      </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H42" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I42" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J42" s="47"/>
-    </row>
-    <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="73">
-        <v>42</v>
-      </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H43" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I43" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J43" s="47"/>
-    </row>
-    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="73">
-        <v>43</v>
-      </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="H44" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I44" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J44" s="47"/>
-    </row>
-    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="73">
-        <v>44</v>
-      </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H45" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I45" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J45" s="47"/>
+      <c r="H45" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J45" s="45"/>
     </row>
     <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="73">
+      <c r="A46" s="69">
         <v>45</v>
       </c>
-      <c r="B46" s="55"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="43"/>
+      <c r="E46" s="77"/>
       <c r="F46" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I46" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="J46" s="47"/>
+        <v>137</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I46" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="J46" s="45"/>
     </row>
     <row r="47" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="74">
+      <c r="A47" s="70">
         <v>46</v>
       </c>
-      <c r="B47" s="56"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="48"/>
+      <c r="E47" s="78"/>
       <c r="F47" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H47" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="I47" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="J47" s="50"/>
+        <v>138</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="I47" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J47" s="47"/>
     </row>
     <row r="48" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="76">
+      <c r="A48" s="72">
         <v>47</v>
       </c>
-      <c r="B48" s="58" t="s">
-        <v>105</v>
+      <c r="B48" s="55" t="s">
+        <v>214</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>40</v>
@@ -3795,310 +3798,310 @@
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="I48" s="52" t="s">
-        <v>213</v>
+        <v>174</v>
+      </c>
+      <c r="I48" s="49" t="s">
+        <v>211</v>
       </c>
       <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="75">
+      <c r="A49" s="71">
         <v>48</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="I49" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="J49" s="50"/>
+    </row>
+    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="69">
+        <v>49</v>
+      </c>
+      <c r="B50" s="57"/>
+      <c r="C50" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" s="77"/>
+      <c r="F50" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="I50" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="69">
+        <v>50</v>
+      </c>
+      <c r="B51" s="57"/>
+      <c r="C51" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="77"/>
+      <c r="F51" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="I51" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="69">
+        <v>51</v>
+      </c>
+      <c r="B52" s="57"/>
+      <c r="C52" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="77"/>
+      <c r="F52" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="I52" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="69">
+        <v>52</v>
+      </c>
+      <c r="B53" s="57"/>
+      <c r="C53" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="77"/>
+      <c r="F53" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="I53" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="69">
+        <v>53</v>
+      </c>
+      <c r="B54" s="57"/>
+      <c r="C54" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" s="77"/>
+      <c r="F54" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="I54" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="69">
+        <v>54</v>
+      </c>
+      <c r="B55" s="57"/>
+      <c r="C55" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="77"/>
+      <c r="F55" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="I55" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="69">
+        <v>55</v>
+      </c>
+      <c r="B56" s="57"/>
+      <c r="C56" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="H49" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="I49" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="J49" s="53"/>
-    </row>
-    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="73">
-        <v>49</v>
-      </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E50" s="43"/>
-      <c r="F50" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="G50" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="J50" s="10"/>
-    </row>
-    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="73">
-        <v>50</v>
-      </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51" s="43"/>
-      <c r="F51" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="G51" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="H51" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I51" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="73">
-        <v>51</v>
-      </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="E52" s="43"/>
-      <c r="F52" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="H52" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I52" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="J52" s="10"/>
-    </row>
-    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="73">
-        <v>52</v>
-      </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="G53" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="H53" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I53" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="73">
-        <v>53</v>
-      </c>
-      <c r="B54" s="60"/>
-      <c r="C54" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="43"/>
-      <c r="F54" s="37" t="s">
+      <c r="E56" s="77"/>
+      <c r="F56" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="G54" s="37" t="s">
+      <c r="G56" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="H54" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I54" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="J54" s="10"/>
-    </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="73">
-        <v>54</v>
-      </c>
-      <c r="B55" s="60"/>
-      <c r="C55" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="34" t="s">
+      <c r="H56" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="I56" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="69">
+        <v>56</v>
+      </c>
+      <c r="B57" s="57"/>
+      <c r="C57" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="E55" s="43"/>
-      <c r="F55" s="37" t="s">
+      <c r="E57" s="77"/>
+      <c r="F57" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="73">
+        <v>57</v>
+      </c>
+      <c r="B58" s="59"/>
+      <c r="C58" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="79"/>
+      <c r="F58" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="H58" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="I58" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="J58" s="64"/>
+    </row>
+    <row r="59" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="74">
+        <v>58</v>
+      </c>
+      <c r="B59" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="G59" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G55" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="H55" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I55" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="J55" s="10"/>
-    </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="73">
-        <v>55</v>
-      </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E56" s="43"/>
-      <c r="F56" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="G56" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I56" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="J56" s="10"/>
-    </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="73">
-        <v>56</v>
-      </c>
-      <c r="B57" s="60"/>
-      <c r="C57" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="E57" s="43"/>
-      <c r="F57" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="G57" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="H57" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I57" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="J57" s="10"/>
-    </row>
-    <row r="58" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="77">
-        <v>57</v>
-      </c>
-      <c r="B58" s="62"/>
-      <c r="C58" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="E58" s="65"/>
-      <c r="F58" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="G58" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="H58" s="67" t="s">
-        <v>176</v>
-      </c>
-      <c r="I58" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="J58" s="68"/>
-    </row>
-    <row r="59" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="78">
-        <v>58</v>
-      </c>
-      <c r="B59" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="G59" s="51" t="s">
+      <c r="H59" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="I59" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="H59" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="I59" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="J59" s="71"/>
+      <c r="J59" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -2510,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -232,12 +232,6 @@
 </t>
   </si>
   <si>
-    <t>Вкладка News: свернуть, развернуть</t>
-  </si>
-  <si>
-    <t>Вкладка News:  развернуть новость</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Вкладка News: переход в All news</t>
   </si>
   <si>
@@ -1045,6 +1039,12 @@
   </si>
   <si>
     <t>Отображение и открытие раздела "Our  Mission'</t>
+  </si>
+  <si>
+    <t>Вкладка News:  развернуть первую новость</t>
+  </si>
+  <si>
+    <t>Вкладка News:  развернуть, свернуть</t>
   </si>
 </sst>
 </file>
@@ -2005,10 +2005,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D2" s="29"/>
     </row>
@@ -2291,10 +2291,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D29" s="10"/>
     </row>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D30" s="10"/>
     </row>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D31" s="10"/>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D32" s="10"/>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D33" s="10"/>
     </row>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D34" s="10"/>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D35" s="10"/>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D36" s="10"/>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D37" s="10"/>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D38" s="10"/>
     </row>
@@ -2393,10 +2393,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D39" s="10"/>
     </row>
@@ -2510,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>37</v>
@@ -2550,10 +2550,10 @@
         <v>38</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>2</v>
@@ -2564,28 +2564,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>169</v>
-      </c>
       <c r="G2" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J2" s="25"/>
     </row>
@@ -2603,7 +2603,7 @@
         <v>52</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>43</v>
@@ -2612,10 +2612,10 @@
         <v>42</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J3" s="43"/>
     </row>
@@ -2638,10 +2638,10 @@
         <v>47</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J4" s="45"/>
     </row>
@@ -2664,10 +2664,10 @@
         <v>47</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J5" s="45"/>
     </row>
@@ -2690,10 +2690,10 @@
         <v>48</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J6" s="45"/>
     </row>
@@ -2716,10 +2716,10 @@
         <v>48</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J7" s="45"/>
     </row>
@@ -2742,10 +2742,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J8" s="47"/>
     </row>
@@ -2760,22 +2760,22 @@
         <v>40</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J9" s="43"/>
     </row>
@@ -2798,10 +2798,10 @@
         <v>58</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J10" s="45"/>
     </row>
@@ -2824,10 +2824,10 @@
         <v>59</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J11" s="45"/>
     </row>
@@ -2840,20 +2840,20 @@
         <v>40</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="E12" s="77"/>
       <c r="F12" s="19" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -2866,20 +2866,20 @@
         <v>40</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="E13" s="77"/>
       <c r="F13" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>63</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J13" s="45"/>
     </row>
@@ -2892,20 +2892,20 @@
         <v>40</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" s="77"/>
       <c r="F14" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J14" s="45"/>
     </row>
@@ -2918,20 +2918,20 @@
         <v>40</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="77"/>
       <c r="F15" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J15" s="45"/>
     </row>
@@ -2944,20 +2944,20 @@
         <v>40</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" s="77"/>
       <c r="F16" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J16" s="45"/>
     </row>
@@ -2970,20 +2970,20 @@
         <v>40</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="77"/>
       <c r="F17" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J17" s="45"/>
     </row>
@@ -2996,20 +2996,20 @@
         <v>40</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" s="78"/>
       <c r="F18" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J18" s="47"/>
     </row>
@@ -3024,22 +3024,22 @@
         <v>40</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19" s="76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J19" s="43"/>
     </row>
@@ -3052,20 +3052,20 @@
         <v>40</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E20" s="77"/>
       <c r="F20" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J20" s="45"/>
     </row>
@@ -3078,20 +3078,20 @@
         <v>40</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="77"/>
       <c r="F21" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J21" s="45"/>
     </row>
@@ -3104,20 +3104,20 @@
         <v>40</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E22" s="78"/>
       <c r="F22" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J22" s="47"/>
     </row>
@@ -3132,22 +3132,22 @@
         <v>40</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J23" s="43"/>
     </row>
@@ -3160,20 +3160,20 @@
         <v>40</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E24" s="77"/>
       <c r="F24" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J24" s="45"/>
     </row>
@@ -3186,20 +3186,20 @@
         <v>40</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" s="77"/>
       <c r="F25" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I25" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J25" s="45"/>
     </row>
@@ -3212,20 +3212,20 @@
         <v>40</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E26" s="77"/>
       <c r="F26" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J26" s="45"/>
     </row>
@@ -3238,20 +3238,20 @@
         <v>40</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E27" s="77"/>
       <c r="F27" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I27" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J27" s="45"/>
     </row>
@@ -3264,20 +3264,20 @@
         <v>40</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E28" s="77"/>
       <c r="F28" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J28" s="45"/>
     </row>
@@ -3290,20 +3290,20 @@
         <v>40</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E29" s="77"/>
       <c r="F29" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I29" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J29" s="45"/>
     </row>
@@ -3316,20 +3316,20 @@
         <v>40</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E30" s="77"/>
       <c r="F30" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J30" s="45"/>
     </row>
@@ -3342,20 +3342,20 @@
         <v>40</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E31" s="77"/>
       <c r="F31" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I31" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J31" s="45"/>
     </row>
@@ -3368,20 +3368,20 @@
         <v>40</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E32" s="78"/>
       <c r="F32" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H32" s="46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I32" s="46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J32" s="47"/>
     </row>
@@ -3399,19 +3399,19 @@
         <v>22</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H33" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J33" s="43"/>
     </row>
@@ -3424,20 +3424,20 @@
         <v>40</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E34" s="77"/>
       <c r="F34" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I34" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J34" s="45"/>
     </row>
@@ -3450,20 +3450,20 @@
         <v>40</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E35" s="78"/>
       <c r="F35" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="H35" s="46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I35" s="46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J35" s="47"/>
     </row>
@@ -3472,7 +3472,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>40</v>
@@ -3481,19 +3481,19 @@
         <v>22</v>
       </c>
       <c r="E36" s="76" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I36" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J36" s="43"/>
     </row>
@@ -3506,20 +3506,20 @@
         <v>40</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E37" s="77"/>
       <c r="F37" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H37" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I37" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J37" s="45"/>
     </row>
@@ -3532,20 +3532,20 @@
         <v>40</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E38" s="77"/>
       <c r="F38" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I38" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J38" s="45"/>
     </row>
@@ -3562,16 +3562,16 @@
       </c>
       <c r="E39" s="77"/>
       <c r="F39" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H39" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I39" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J39" s="45"/>
     </row>
@@ -3584,20 +3584,20 @@
         <v>41</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E40" s="77"/>
       <c r="F40" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H40" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I40" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J40" s="45"/>
     </row>
@@ -3610,20 +3610,20 @@
         <v>40</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E41" s="77"/>
       <c r="F41" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H41" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I41" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J41" s="45"/>
     </row>
@@ -3636,20 +3636,20 @@
         <v>40</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E42" s="77"/>
       <c r="F42" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H42" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I42" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J42" s="45"/>
     </row>
@@ -3662,20 +3662,20 @@
         <v>40</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E43" s="77"/>
       <c r="F43" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I43" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J43" s="45"/>
     </row>
@@ -3688,20 +3688,20 @@
         <v>40</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E44" s="77"/>
       <c r="F44" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I44" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J44" s="45"/>
     </row>
@@ -3714,20 +3714,20 @@
         <v>40</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E45" s="77"/>
       <c r="F45" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J45" s="45"/>
     </row>
@@ -3744,16 +3744,16 @@
       </c>
       <c r="E46" s="77"/>
       <c r="F46" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I46" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J46" s="45"/>
     </row>
@@ -3770,16 +3770,16 @@
       </c>
       <c r="E47" s="78"/>
       <c r="F47" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H47" s="46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I47" s="46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J47" s="47"/>
     </row>
@@ -3788,7 +3788,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>40</v>
@@ -3798,16 +3798,16 @@
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I48" s="49" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J48" s="26"/>
     </row>
@@ -3816,28 +3816,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E49" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="F49" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="40" t="s">
-        <v>197</v>
-      </c>
       <c r="H49" s="41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I49" s="41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J49" s="50"/>
     </row>
@@ -3850,20 +3850,20 @@
         <v>40</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E50" s="77"/>
       <c r="F50" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G50" s="37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J50" s="10"/>
     </row>
@@ -3876,20 +3876,20 @@
         <v>40</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E51" s="77"/>
       <c r="F51" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H51" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J51" s="10"/>
     </row>
@@ -3902,20 +3902,20 @@
         <v>40</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E52" s="77"/>
       <c r="F52" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G52" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J52" s="10"/>
     </row>
@@ -3928,20 +3928,20 @@
         <v>40</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E53" s="77"/>
       <c r="F53" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J53" s="10"/>
     </row>
@@ -3954,20 +3954,20 @@
         <v>40</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E54" s="77"/>
       <c r="F54" s="37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J54" s="10"/>
     </row>
@@ -3980,20 +3980,20 @@
         <v>40</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E55" s="77"/>
       <c r="F55" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J55" s="10"/>
     </row>
@@ -4006,20 +4006,20 @@
         <v>40</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E56" s="77"/>
       <c r="F56" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H56" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J56" s="10"/>
     </row>
@@ -4032,20 +4032,20 @@
         <v>40</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E57" s="77"/>
       <c r="F57" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J57" s="10"/>
     </row>
@@ -4058,20 +4058,20 @@
         <v>40</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E58" s="79"/>
       <c r="F58" s="62" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G58" s="62" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H58" s="63" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I58" s="63" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J58" s="64"/>
     </row>
@@ -4080,26 +4080,26 @@
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C59" s="66" t="s">
         <v>40</v>
       </c>
       <c r="D59" s="66" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E59" s="48"/>
       <c r="F59" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="G59" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="G59" s="48" t="s">
+      <c r="H59" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="I59" s="49" t="s">
         <v>210</v>
-      </c>
-      <c r="H59" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="I59" s="49" t="s">
-        <v>212</v>
       </c>
       <c r="J59" s="67"/>
     </row>

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="228">
   <si>
     <t>№</t>
   </si>
@@ -324,9 +324,6 @@
     <t>Очистить фильтр.</t>
   </si>
   <si>
-    <t>Выбрать все категории в фильтре</t>
-  </si>
-  <si>
     <t>1. На экране Main нажать на иконку меню @id/main_menu_image_button
 2. Нажать на стрелку "Назад" в заголовке</t>
   </si>
@@ -349,19 +346,6 @@
     <t>1. Окно фильтра откроется
 2. Чекбоксы очищены
 3. На экране Claims нет отзывов. Отображается кнопка Refresh</t>
-  </si>
-  <si>
-    <t>1. На экране Claims нажать на иконку @id/filters_material_button
-2. Выставить все галки в чекбоксах
-3. Нажать на  @id/claim_list_filter_ok_material_button</t>
-  </si>
-  <si>
-    <t>1. Окно фильтра откроется
-2. Все чекбоксы выбраны
-3. На экране Claims отображаются все категории отзывов</t>
-  </si>
-  <si>
-    <t>Переход к новогй заявке</t>
   </si>
   <si>
     <t>Переход на экран Creatig Claims</t>
@@ -555,15 +539,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. На экране Claims нажать на иконку @id/filters_material_button
-2. Поставить галку только на категории "Ope"n остальные снять
-3. Сохранить
-4. Открыть первую заявку в списке
-5. Нажать на иконку @id/status_processing_image_button
-6. Выбрать "Cancel"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. На экране Claims нажать на иконку @id/filters_material_button
 2. Поставить галку только на категории "Open" остальные снять
 3. Сохранить
 4. Открыть первую заявку в списке
@@ -595,9 +570,6 @@
   </si>
   <si>
     <t>Взять в работу заявку (open) - Take to work</t>
-  </si>
-  <si>
-    <t>Отклонить заявку (In Progress) - Cancel</t>
   </si>
   <si>
     <t>Отказаться от заявки  (In Progress) - Throw off</t>
@@ -1045,6 +1017,82 @@
   </si>
   <si>
     <t>Вкладка News:  развернуть, свернуть</t>
+  </si>
+  <si>
+    <t>1. На экране Claims нажать на иконку @id/filters_material_button
+2. Выставить  галку в чекбоксе Open
+3. Нажать на  @id/claim_list_filter_ok_material_button</t>
+  </si>
+  <si>
+    <t>1. Окно фильтра откроется
+2.Чекбокс Open выставлен
+3. На экране Claims отображаются все отзывы со статусом Open</t>
+  </si>
+  <si>
+    <t>1. На экране Claims нажать на иконку @id/filters_material_button
+2. Выставить  галку в чекбоксе In Progress
+3. Нажать на  @id/claim_list_filter_ok_material_button</t>
+  </si>
+  <si>
+    <t>1. Окно фильтра откроется
+2.Чекбокс In Progress выставлен
+3. На экране Claims отображаются все отзывы со статусом In Progress</t>
+  </si>
+  <si>
+    <t>1. На экране Claims нажать на иконку @id/filters_material_button
+2. Выставить  галку в чекбоксе Executed
+3. Нажать на  @id/claim_list_filter_ok_material_button</t>
+  </si>
+  <si>
+    <t>1. На экране Claims нажать на иконку @id/filters_material_button
+2. Выставить  галку в чекбоксе Cancelled
+3. Нажать на  @id/claim_list_filter_ok_material_button</t>
+  </si>
+  <si>
+    <t>1. Окно фильтра откроется
+2.Чекбокс Cancelled выставлен
+3. На экране Cancelled отображаются все отзывы со статусом Cancelled</t>
+  </si>
+  <si>
+    <t>1. Окно фильтра откроется
+2.Чекбокс Executed выставлен
+3. На экране Executed отображаются все отзывы со статусом Executed</t>
+  </si>
+  <si>
+    <t>Выбрать фильтр по статусу  Open</t>
+  </si>
+  <si>
+    <t>Выбрать фильтр по статусу In Progress</t>
+  </si>
+  <si>
+    <t>Выбрать фильтр по статусуExecuted</t>
+  </si>
+  <si>
+    <t>Выбрать фильтр по статусуCancelled</t>
+  </si>
+  <si>
+    <t>Переход к созданию новой заявки</t>
+  </si>
+  <si>
+    <t>Открыть заявку</t>
+  </si>
+  <si>
+    <t>1. На экране Claims нажать на иконку @id/filters_material_button</t>
+  </si>
+  <si>
+    <t>Заявка открыта. Все поля заявки присутствуют</t>
+  </si>
+  <si>
+    <t>Отклонить заявку (Open) - Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. На экране Claims нажать на иконку @id/filters_material_button
+2. Поставить галку только на категории "Open" остальные снять
+3. Сохранить
+4. Открыть первую заявку в списке
+5. Нажать на иконку @id/status_processing_image_button
+6. Выбрать "Cancel"
+</t>
   </si>
 </sst>
 </file>
@@ -1087,12 +1135,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="29">
@@ -1485,7 +1539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1662,24 +1716,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1691,6 +1733,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2005,10 +2056,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D2" s="29"/>
     </row>
@@ -2291,10 +2342,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D29" s="10"/>
     </row>
@@ -2304,7 +2355,7 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D30" s="10"/>
     </row>
@@ -2314,7 +2365,7 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D31" s="10"/>
     </row>
@@ -2324,7 +2375,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D32" s="10"/>
     </row>
@@ -2334,7 +2385,7 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D33" s="10"/>
     </row>
@@ -2344,7 +2395,7 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D34" s="10"/>
     </row>
@@ -2354,7 +2405,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D35" s="10"/>
     </row>
@@ -2364,7 +2415,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D36" s="10"/>
     </row>
@@ -2374,7 +2425,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D37" s="10"/>
     </row>
@@ -2384,7 +2435,7 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D38" s="10"/>
     </row>
@@ -2393,10 +2444,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D39" s="10"/>
     </row>
@@ -2508,15 +2559,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="70" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
@@ -2541,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>37</v>
@@ -2550,10 +2601,10 @@
         <v>38</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>2</v>
@@ -2564,33 +2615,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="68">
+      <c r="A3" s="76">
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
@@ -2602,8 +2653,8 @@
       <c r="D3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="76" t="s">
-        <v>175</v>
+      <c r="E3" s="72" t="s">
+        <v>169</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>43</v>
@@ -2612,10 +2663,10 @@
         <v>42</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J3" s="43"/>
     </row>
@@ -2630,7 +2681,7 @@
       <c r="D4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="77"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="19" t="s">
         <v>44</v>
       </c>
@@ -2638,10 +2689,10 @@
         <v>47</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J4" s="45"/>
     </row>
@@ -2656,7 +2707,7 @@
       <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="77"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
@@ -2664,10 +2715,10 @@
         <v>47</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J5" s="45"/>
     </row>
@@ -2682,7 +2733,7 @@
       <c r="D6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="77"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="19" t="s">
         <v>46</v>
       </c>
@@ -2690,10 +2741,10 @@
         <v>48</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J6" s="45"/>
     </row>
@@ -2708,7 +2759,7 @@
       <c r="D7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="77"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="19" t="s">
         <v>46</v>
       </c>
@@ -2716,15 +2767,15 @@
         <v>48</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J7" s="45"/>
     </row>
     <row r="8" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70">
+      <c r="A8" s="78">
         <v>7</v>
       </c>
       <c r="B8" s="53"/>
@@ -2734,7 +2785,7 @@
       <c r="D8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="78"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="20" t="s">
         <v>49</v>
       </c>
@@ -2742,15 +2793,15 @@
         <v>50</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="68">
+      <c r="A9" s="76">
         <v>8</v>
       </c>
       <c r="B9" s="51" t="s">
@@ -2760,27 +2811,27 @@
         <v>40</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>173</v>
+        <v>207</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>167</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="69">
+      <c r="A10" s="77">
         <v>9</v>
       </c>
       <c r="B10" s="52"/>
@@ -2790,7 +2841,7 @@
       <c r="D10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="77"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="15" t="s">
         <v>60</v>
       </c>
@@ -2798,15 +2849,15 @@
         <v>58</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J10" s="45"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="69">
+      <c r="A11" s="77">
         <v>10</v>
       </c>
       <c r="B11" s="52"/>
@@ -2816,7 +2867,7 @@
       <c r="D11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="77"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="15" t="s">
         <v>61</v>
       </c>
@@ -2824,15 +2875,15 @@
         <v>59</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="69">
+      <c r="A12" s="77">
         <v>11</v>
       </c>
       <c r="B12" s="52"/>
@@ -2840,9 +2891,9 @@
         <v>40</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="77"/>
+        <v>209</v>
+      </c>
+      <c r="E12" s="73"/>
       <c r="F12" s="19" t="s">
         <v>62</v>
       </c>
@@ -2850,15 +2901,15 @@
         <v>69</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="69">
+      <c r="A13" s="77">
         <v>12</v>
       </c>
       <c r="B13" s="52"/>
@@ -2866,9 +2917,9 @@
         <v>40</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="77"/>
+        <v>208</v>
+      </c>
+      <c r="E13" s="73"/>
       <c r="F13" s="19" t="s">
         <v>88</v>
       </c>
@@ -2876,15 +2927,15 @@
         <v>63</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
+      <c r="A14" s="77">
         <v>13</v>
       </c>
       <c r="B14" s="52"/>
@@ -2894,7 +2945,7 @@
       <c r="D14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="77"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="19" t="s">
         <v>83</v>
       </c>
@@ -2902,15 +2953,15 @@
         <v>73</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="69">
+      <c r="A15" s="77">
         <v>14</v>
       </c>
       <c r="B15" s="52"/>
@@ -2920,7 +2971,7 @@
       <c r="D15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="77"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="19" t="s">
         <v>70</v>
       </c>
@@ -2928,15 +2979,15 @@
         <v>71</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="69">
+      <c r="A16" s="77">
         <v>15</v>
       </c>
       <c r="B16" s="52"/>
@@ -2946,7 +2997,7 @@
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="77"/>
+      <c r="E16" s="73"/>
       <c r="F16" s="19" t="s">
         <v>84</v>
       </c>
@@ -2954,15 +3005,15 @@
         <v>89</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="69">
+      <c r="A17" s="77">
         <v>16</v>
       </c>
       <c r="B17" s="52"/>
@@ -2972,7 +3023,7 @@
       <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="77"/>
+      <c r="E17" s="73"/>
       <c r="F17" s="19" t="s">
         <v>87</v>
       </c>
@@ -2980,15 +3031,15 @@
         <v>72</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70">
+      <c r="A18" s="78">
         <v>17</v>
       </c>
       <c r="B18" s="53"/>
@@ -2998,7 +3049,7 @@
       <c r="D18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="78"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="20" t="s">
         <v>85</v>
       </c>
@@ -3006,15 +3057,15 @@
         <v>74</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="68">
+      <c r="A19" s="76">
         <v>18</v>
       </c>
       <c r="B19" s="51" t="s">
@@ -3026,25 +3077,25 @@
       <c r="D19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="76" t="s">
-        <v>173</v>
+      <c r="E19" s="72" t="s">
+        <v>167</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>79</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
+      <c r="A20" s="77">
         <v>19</v>
       </c>
       <c r="B20" s="52"/>
@@ -3054,7 +3105,7 @@
       <c r="D20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="77"/>
+      <c r="E20" s="73"/>
       <c r="F20" s="19" t="s">
         <v>86</v>
       </c>
@@ -3062,15 +3113,15 @@
         <v>80</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J20" s="45"/>
     </row>
     <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="69">
+      <c r="A21" s="77">
         <v>20</v>
       </c>
       <c r="B21" s="52"/>
@@ -3080,23 +3131,23 @@
       <c r="D21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="77"/>
+      <c r="E21" s="73"/>
       <c r="F21" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>82</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J21" s="45"/>
     </row>
     <row r="22" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70">
+      <c r="A22" s="78">
         <v>21</v>
       </c>
       <c r="B22" s="53"/>
@@ -3106,18 +3157,18 @@
       <c r="D22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="78"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>81</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J22" s="47"/>
     </row>
@@ -3134,24 +3185,24 @@
       <c r="D23" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="76" t="s">
-        <v>176</v>
+      <c r="E23" s="72" t="s">
+        <v>170</v>
       </c>
       <c r="F23" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>96</v>
-      </c>
       <c r="H23" s="42" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J23" s="43"/>
     </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="69">
         <v>23</v>
       </c>
@@ -3160,25 +3211,25 @@
         <v>40</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="77"/>
+        <v>218</v>
+      </c>
+      <c r="E24" s="73"/>
       <c r="F24" s="19" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J24" s="45"/>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="69">
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="68">
         <v>24</v>
       </c>
       <c r="B25" s="52"/>
@@ -3186,24 +3237,24 @@
         <v>40</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="77"/>
+        <v>219</v>
+      </c>
+      <c r="E25" s="73"/>
       <c r="F25" s="19" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="I25" s="44" t="s">
-        <v>209</v>
+        <v>213</v>
+      </c>
+      <c r="H25" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25" s="71" t="s">
+        <v>203</v>
       </c>
       <c r="J25" s="45"/>
     </row>
-    <row r="26" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="69">
         <v>25</v>
       </c>
@@ -3212,25 +3263,25 @@
         <v>40</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="77"/>
+        <v>220</v>
+      </c>
+      <c r="E26" s="73"/>
       <c r="F26" s="19" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>209</v>
+        <v>217</v>
+      </c>
+      <c r="H26" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" s="71" t="s">
+        <v>203</v>
       </c>
       <c r="J26" s="45"/>
     </row>
-    <row r="27" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="69">
+    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="68">
         <v>26</v>
       </c>
       <c r="B27" s="52"/>
@@ -3238,25 +3289,25 @@
         <v>40</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="77"/>
+        <v>221</v>
+      </c>
+      <c r="E27" s="73"/>
       <c r="F27" s="19" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="I27" s="44" t="s">
-        <v>209</v>
+        <v>216</v>
+      </c>
+      <c r="H27" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="71" t="s">
+        <v>203</v>
       </c>
       <c r="J27" s="45"/>
     </row>
-    <row r="28" spans="1:10" ht="225" x14ac:dyDescent="0.25">
-      <c r="A28" s="69">
+    <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="77">
         <v>27</v>
       </c>
       <c r="B28" s="52"/>
@@ -3264,25 +3315,25 @@
         <v>40</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="77"/>
+        <v>222</v>
+      </c>
+      <c r="E28" s="73"/>
       <c r="F28" s="19" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J28" s="45"/>
     </row>
-    <row r="29" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="69">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="76">
         <v>28</v>
       </c>
       <c r="B29" s="52"/>
@@ -3290,24 +3341,20 @@
         <v>40</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="77"/>
+        <v>223</v>
+      </c>
+      <c r="E29" s="73"/>
       <c r="F29" s="19" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="I29" s="44" t="s">
-        <v>209</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="45"/>
     </row>
-    <row r="30" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="69">
         <v>29</v>
       </c>
@@ -3316,25 +3363,25 @@
         <v>40</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="77"/>
+        <v>98</v>
+      </c>
+      <c r="E30" s="73"/>
       <c r="F30" s="19" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J30" s="45"/>
     </row>
-    <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="69">
+    <row r="31" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A31" s="68">
         <v>30</v>
       </c>
       <c r="B31" s="52"/>
@@ -3342,80 +3389,76 @@
         <v>40</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="77"/>
+        <v>101</v>
+      </c>
+      <c r="E31" s="73"/>
       <c r="F31" s="19" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I31" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J31" s="45"/>
     </row>
-    <row r="32" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="70">
+    <row r="32" spans="1:10" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="69">
         <v>31</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="H32" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="I32" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="J32" s="47"/>
-    </row>
-    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B32" s="52"/>
+      <c r="C32" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="73"/>
+      <c r="F32" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32" s="45"/>
+    </row>
+    <row r="33" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="68">
         <v>32</v>
       </c>
-      <c r="B33" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>172</v>
+      <c r="B33" s="52"/>
+      <c r="C33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="73"/>
+      <c r="F33" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>166</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="J33" s="43"/>
-    </row>
-    <row r="34" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="J33" s="45"/>
+    </row>
+    <row r="34" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="69">
         <v>33</v>
       </c>
@@ -3424,106 +3467,106 @@
         <v>40</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="77"/>
+        <v>226</v>
+      </c>
+      <c r="E34" s="73"/>
       <c r="F34" s="19" t="s">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I34" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J34" s="45"/>
     </row>
-    <row r="35" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="70">
+    <row r="35" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A35" s="68">
         <v>34</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="78"/>
-      <c r="F35" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="I35" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="J35" s="47"/>
-    </row>
-    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="71">
+      <c r="B35" s="52"/>
+      <c r="C35" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="73"/>
+      <c r="F35" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="69">
         <v>35</v>
       </c>
-      <c r="B36" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="14" t="s">
+      <c r="B36" s="53"/>
+      <c r="C36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="74"/>
+      <c r="F36" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J36" s="47"/>
+    </row>
+    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="68">
+        <v>36</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="J36" s="43"/>
-    </row>
-    <row r="37" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="69">
-        <v>36</v>
-      </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H37" s="44" t="s">
-        <v>172</v>
+      <c r="E37" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>166</v>
       </c>
       <c r="I37" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="J37" s="45"/>
-    </row>
-    <row r="38" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="J37" s="43"/>
+    </row>
+    <row r="38" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="69">
         <v>37</v>
       </c>
@@ -3532,77 +3575,81 @@
         <v>40</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="77"/>
+        <v>124</v>
+      </c>
+      <c r="E38" s="73"/>
       <c r="F38" s="19" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I38" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J38" s="45"/>
     </row>
-    <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="69">
+    <row r="39" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="68">
         <v>38</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="I39" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="J39" s="45"/>
-    </row>
-    <row r="40" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B39" s="53"/>
+      <c r="C39" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="74"/>
+      <c r="F39" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J39" s="47"/>
+    </row>
+    <row r="40" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="69">
         <v>39</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="H40" s="44" t="s">
+      <c r="B40" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="72" t="s">
         <v>172</v>
       </c>
+      <c r="F40" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>166</v>
+      </c>
       <c r="I40" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="J40" s="45"/>
-    </row>
-    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="69">
+        <v>203</v>
+      </c>
+      <c r="J40" s="43"/>
+    </row>
+    <row r="41" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="68">
         <v>40</v>
       </c>
       <c r="B41" s="52"/>
@@ -3610,24 +3657,24 @@
         <v>40</v>
       </c>
       <c r="D41" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="73"/>
+      <c r="F41" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="77"/>
-      <c r="F41" s="19" t="s">
-        <v>159</v>
-      </c>
       <c r="G41" s="19" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="H41" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I41" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J41" s="45"/>
     </row>
-    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="69">
         <v>41</v>
       </c>
@@ -3636,25 +3683,25 @@
         <v>40</v>
       </c>
       <c r="D42" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="73"/>
+      <c r="F42" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="77"/>
-      <c r="F42" s="19" t="s">
-        <v>158</v>
-      </c>
       <c r="G42" s="19" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="H42" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I42" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J42" s="45"/>
     </row>
     <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="69">
+      <c r="A43" s="68">
         <v>42</v>
       </c>
       <c r="B43" s="52"/>
@@ -3662,51 +3709,51 @@
         <v>40</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" s="77"/>
+        <v>26</v>
+      </c>
+      <c r="E43" s="73"/>
       <c r="F43" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I43" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J43" s="45"/>
     </row>
-    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="69">
         <v>43</v>
       </c>
       <c r="B44" s="52"/>
       <c r="C44" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="77"/>
+        <v>146</v>
+      </c>
+      <c r="E44" s="73"/>
       <c r="F44" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I44" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J44" s="45"/>
     </row>
     <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="69">
+      <c r="A45" s="68">
         <v>44</v>
       </c>
       <c r="B45" s="52"/>
@@ -3714,24 +3761,24 @@
         <v>40</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="77"/>
+        <v>131</v>
+      </c>
+      <c r="E45" s="73"/>
       <c r="F45" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J45" s="45"/>
     </row>
-    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="69">
         <v>45</v>
       </c>
@@ -3740,212 +3787,212 @@
         <v>40</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="77"/>
+        <v>132</v>
+      </c>
+      <c r="E46" s="73"/>
       <c r="F46" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I46" s="44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J46" s="45"/>
     </row>
-    <row r="47" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="70">
+    <row r="47" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="68">
         <v>46</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="78"/>
-      <c r="F47" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H47" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="I47" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="J47" s="47"/>
-    </row>
-    <row r="48" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="72">
+      <c r="B47" s="52"/>
+      <c r="C47" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="73"/>
+      <c r="F47" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="J47" s="45"/>
+    </row>
+    <row r="48" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="69">
         <v>47</v>
       </c>
-      <c r="B48" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="I48" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="71">
+      <c r="B48" s="52"/>
+      <c r="C48" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="73"/>
+      <c r="F48" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="I48" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="J48" s="45"/>
+    </row>
+    <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="68">
         <v>48</v>
       </c>
-      <c r="B49" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="E49" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="F49" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="G49" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="I49" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="J49" s="50"/>
-    </row>
-    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B49" s="52"/>
+      <c r="C49" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="73"/>
+      <c r="F49" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="I49" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="J49" s="45"/>
+    </row>
+    <row r="50" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="69">
         <v>49</v>
       </c>
-      <c r="B50" s="57"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="77"/>
-      <c r="F50" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="G50" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="J50" s="10"/>
-    </row>
-    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="69">
+      <c r="D50" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="73"/>
+      <c r="F50" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H50" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="I50" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="J50" s="45"/>
+    </row>
+    <row r="51" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="68">
         <v>50</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E51" s="77"/>
-      <c r="F51" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="G51" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="H51" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I51" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="53"/>
+      <c r="C51" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="74"/>
+      <c r="F51" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="I51" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J51" s="47"/>
+    </row>
+    <row r="52" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="69">
         <v>51</v>
       </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E52" s="77"/>
-      <c r="F52" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="H52" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I52" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="J52" s="10"/>
+      <c r="B52" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="32"/>
+      <c r="F52" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="69">
+      <c r="A53" s="68">
         <v>52</v>
       </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="E53" s="77"/>
-      <c r="F53" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="G53" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="H53" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I53" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="I53" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="J53" s="50"/>
+    </row>
+    <row r="54" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="69">
         <v>53</v>
       </c>
@@ -3954,25 +4001,25 @@
         <v>40</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E54" s="77"/>
+        <v>173</v>
+      </c>
+      <c r="E54" s="73"/>
       <c r="F54" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="G54" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I54" s="38" t="s">
-        <v>210</v>
-      </c>
       <c r="J54" s="10"/>
     </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="69">
+    <row r="55" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="68">
         <v>54</v>
       </c>
       <c r="B55" s="57"/>
@@ -3980,24 +4027,24 @@
         <v>40</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="E55" s="77"/>
+        <v>175</v>
+      </c>
+      <c r="E55" s="73"/>
       <c r="F55" s="37" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="69">
         <v>55</v>
       </c>
@@ -4006,25 +4053,25 @@
         <v>40</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="E56" s="77"/>
+        <v>176</v>
+      </c>
+      <c r="E56" s="73"/>
       <c r="F56" s="37" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="H56" s="38" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J56" s="10"/>
     </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="69">
+    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="68">
         <v>56</v>
       </c>
       <c r="B57" s="57"/>
@@ -4032,86 +4079,190 @@
         <v>40</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="77"/>
+        <v>178</v>
+      </c>
+      <c r="E57" s="73"/>
       <c r="F57" s="37" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J57" s="10"/>
     </row>
-    <row r="58" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="73">
+    <row r="58" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="69">
         <v>57</v>
       </c>
-      <c r="B58" s="59"/>
-      <c r="C58" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="E58" s="79"/>
-      <c r="F58" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="G58" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="H58" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="I58" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="J58" s="64"/>
-    </row>
-    <row r="59" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="74">
+      <c r="B58" s="57"/>
+      <c r="C58" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58" s="73"/>
+      <c r="F58" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I58" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="68">
         <v>58</v>
       </c>
-      <c r="B59" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="G59" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="H59" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="I59" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="J59" s="67"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" s="73"/>
+      <c r="F59" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G59" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I59" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="69">
+        <v>59</v>
+      </c>
+      <c r="B60" s="57"/>
+      <c r="C60" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" s="73"/>
+      <c r="F60" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G60" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I60" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="68">
+        <v>60</v>
+      </c>
+      <c r="B61" s="57"/>
+      <c r="C61" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="73"/>
+      <c r="F61" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G61" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="69">
+        <v>61</v>
+      </c>
+      <c r="B62" s="59"/>
+      <c r="C62" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="75"/>
+      <c r="F62" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="G62" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="H62" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="I62" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="J62" s="64"/>
+    </row>
+    <row r="63" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="68">
+        <v>62</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="H63" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="I63" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="J63" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E36:E47"/>
-    <mergeCell ref="E49:E58"/>
+    <mergeCell ref="E40:E51"/>
+    <mergeCell ref="E53:E62"/>
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E23:E32"/>
-    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E23:E36"/>
+    <mergeCell ref="E37:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="229">
   <si>
     <t>№</t>
   </si>
@@ -1093,6 +1093,9 @@
 5. Нажать на иконку @id/status_processing_image_button
 6. Выбрать "Cancel"
 </t>
+  </si>
+  <si>
+    <t>Flacky</t>
   </si>
 </sst>
 </file>
@@ -1722,6 +1725,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1733,15 +1745,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2561,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,7 +2644,7 @@
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="76">
+      <c r="A3" s="72">
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
@@ -2653,7 +2656,7 @@
       <c r="D3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="75" t="s">
         <v>169</v>
       </c>
       <c r="F3" s="18" t="s">
@@ -2681,7 +2684,7 @@
       <c r="D4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="19" t="s">
         <v>44</v>
       </c>
@@ -2707,7 +2710,7 @@
       <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
@@ -2733,7 +2736,7 @@
       <c r="D6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="73"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="19" t="s">
         <v>46</v>
       </c>
@@ -2759,7 +2762,7 @@
       <c r="D7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="73"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="19" t="s">
         <v>46</v>
       </c>
@@ -2775,7 +2778,7 @@
       <c r="J7" s="45"/>
     </row>
     <row r="8" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="78">
+      <c r="A8" s="74">
         <v>7</v>
       </c>
       <c r="B8" s="53"/>
@@ -2785,7 +2788,7 @@
       <c r="D8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="74"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="20" t="s">
         <v>49</v>
       </c>
@@ -2801,7 +2804,7 @@
       <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="76">
+      <c r="A9" s="72">
         <v>8</v>
       </c>
       <c r="B9" s="51" t="s">
@@ -2813,7 +2816,7 @@
       <c r="D9" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="75" t="s">
         <v>167</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -2831,7 +2834,7 @@
       <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="77">
+      <c r="A10" s="73">
         <v>9</v>
       </c>
       <c r="B10" s="52"/>
@@ -2841,7 +2844,7 @@
       <c r="D10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="73"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="15" t="s">
         <v>60</v>
       </c>
@@ -2857,7 +2860,7 @@
       <c r="J10" s="45"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="77">
+      <c r="A11" s="73">
         <v>10</v>
       </c>
       <c r="B11" s="52"/>
@@ -2867,7 +2870,7 @@
       <c r="D11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="73"/>
+      <c r="E11" s="76"/>
       <c r="F11" s="15" t="s">
         <v>61</v>
       </c>
@@ -2883,7 +2886,7 @@
       <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="77">
+      <c r="A12" s="73">
         <v>11</v>
       </c>
       <c r="B12" s="52"/>
@@ -2893,7 +2896,7 @@
       <c r="D12" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="73"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="19" t="s">
         <v>62</v>
       </c>
@@ -2909,7 +2912,7 @@
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="77">
+      <c r="A13" s="73">
         <v>12</v>
       </c>
       <c r="B13" s="52"/>
@@ -2919,7 +2922,7 @@
       <c r="D13" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E13" s="73"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="19" t="s">
         <v>88</v>
       </c>
@@ -2935,7 +2938,7 @@
       <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="77">
+      <c r="A14" s="73">
         <v>13</v>
       </c>
       <c r="B14" s="52"/>
@@ -2945,7 +2948,7 @@
       <c r="D14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="19" t="s">
         <v>83</v>
       </c>
@@ -2961,7 +2964,7 @@
       <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="77">
+      <c r="A15" s="73">
         <v>14</v>
       </c>
       <c r="B15" s="52"/>
@@ -2971,7 +2974,7 @@
       <c r="D15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="73"/>
+      <c r="E15" s="76"/>
       <c r="F15" s="19" t="s">
         <v>70</v>
       </c>
@@ -2987,7 +2990,7 @@
       <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="77">
+      <c r="A16" s="73">
         <v>15</v>
       </c>
       <c r="B16" s="52"/>
@@ -2997,7 +3000,7 @@
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="73"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="19" t="s">
         <v>84</v>
       </c>
@@ -3013,7 +3016,7 @@
       <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="77">
+      <c r="A17" s="73">
         <v>16</v>
       </c>
       <c r="B17" s="52"/>
@@ -3023,7 +3026,7 @@
       <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="73"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="19" t="s">
         <v>87</v>
       </c>
@@ -3039,7 +3042,7 @@
       <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78">
+      <c r="A18" s="74">
         <v>17</v>
       </c>
       <c r="B18" s="53"/>
@@ -3049,7 +3052,7 @@
       <c r="D18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="74"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="20" t="s">
         <v>85</v>
       </c>
@@ -3065,7 +3068,7 @@
       <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="76">
+      <c r="A19" s="72">
         <v>18</v>
       </c>
       <c r="B19" s="51" t="s">
@@ -3077,7 +3080,7 @@
       <c r="D19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="75" t="s">
         <v>167</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -3095,7 +3098,7 @@
       <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="77">
+      <c r="A20" s="73">
         <v>19</v>
       </c>
       <c r="B20" s="52"/>
@@ -3105,7 +3108,7 @@
       <c r="D20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="73"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="19" t="s">
         <v>86</v>
       </c>
@@ -3121,7 +3124,7 @@
       <c r="J20" s="45"/>
     </row>
     <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="77">
+      <c r="A21" s="73">
         <v>20</v>
       </c>
       <c r="B21" s="52"/>
@@ -3131,7 +3134,7 @@
       <c r="D21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="73"/>
+      <c r="E21" s="76"/>
       <c r="F21" s="19" t="s">
         <v>92</v>
       </c>
@@ -3147,7 +3150,7 @@
       <c r="J21" s="45"/>
     </row>
     <row r="22" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78">
+      <c r="A22" s="74">
         <v>21</v>
       </c>
       <c r="B22" s="53"/>
@@ -3157,7 +3160,7 @@
       <c r="D22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="74"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="20" t="s">
         <v>91</v>
       </c>
@@ -3172,8 +3175,8 @@
       </c>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="68">
+    <row r="23" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="74">
         <v>22</v>
       </c>
       <c r="B23" s="51" t="s">
@@ -3185,7 +3188,7 @@
       <c r="D23" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="75" t="s">
         <v>170</v>
       </c>
       <c r="F23" s="18" t="s">
@@ -3203,7 +3206,7 @@
       <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="69">
+      <c r="A24" s="74">
         <v>23</v>
       </c>
       <c r="B24" s="52"/>
@@ -3213,7 +3216,7 @@
       <c r="D24" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E24" s="73"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="19" t="s">
         <v>210</v>
       </c>
@@ -3228,8 +3231,8 @@
       </c>
       <c r="J24" s="45"/>
     </row>
-    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="68">
+    <row r="25" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="74">
         <v>24</v>
       </c>
       <c r="B25" s="52"/>
@@ -3239,7 +3242,7 @@
       <c r="D25" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="73"/>
+      <c r="E25" s="76"/>
       <c r="F25" s="19" t="s">
         <v>212</v>
       </c>
@@ -3255,7 +3258,7 @@
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="69">
+      <c r="A26" s="74">
         <v>25</v>
       </c>
       <c r="B26" s="52"/>
@@ -3265,7 +3268,7 @@
       <c r="D26" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E26" s="73"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="19" t="s">
         <v>214</v>
       </c>
@@ -3280,8 +3283,8 @@
       </c>
       <c r="J26" s="45"/>
     </row>
-    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="68">
+    <row r="27" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="74">
         <v>26</v>
       </c>
       <c r="B27" s="52"/>
@@ -3291,7 +3294,7 @@
       <c r="D27" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="73"/>
+      <c r="E27" s="76"/>
       <c r="F27" s="19" t="s">
         <v>215</v>
       </c>
@@ -3307,7 +3310,7 @@
       <c r="J27" s="45"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="77">
+      <c r="A28" s="73">
         <v>27</v>
       </c>
       <c r="B28" s="52"/>
@@ -3317,7 +3320,7 @@
       <c r="D28" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="73"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="19" t="s">
         <v>97</v>
       </c>
@@ -3333,7 +3336,7 @@
       <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="76">
+      <c r="A29" s="72">
         <v>28</v>
       </c>
       <c r="B29" s="52"/>
@@ -3343,7 +3346,7 @@
       <c r="D29" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E29" s="73"/>
+      <c r="E29" s="76"/>
       <c r="F29" s="19" t="s">
         <v>224</v>
       </c>
@@ -3365,7 +3368,7 @@
       <c r="D30" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="73"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="19" t="s">
         <v>99</v>
       </c>
@@ -3391,7 +3394,7 @@
       <c r="D31" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="73"/>
+      <c r="E31" s="76"/>
       <c r="F31" s="19" t="s">
         <v>102</v>
       </c>
@@ -3417,7 +3420,7 @@
       <c r="D32" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="73"/>
+      <c r="E32" s="76"/>
       <c r="F32" s="19" t="s">
         <v>105</v>
       </c>
@@ -3432,8 +3435,8 @@
       </c>
       <c r="J32" s="45"/>
     </row>
-    <row r="33" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="68">
+    <row r="33" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="72">
         <v>32</v>
       </c>
       <c r="B33" s="52"/>
@@ -3443,7 +3446,7 @@
       <c r="D33" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="73"/>
+      <c r="E33" s="76"/>
       <c r="F33" s="19" t="s">
         <v>109</v>
       </c>
@@ -3451,7 +3454,7 @@
         <v>107</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="I33" s="44" t="s">
         <v>203</v>
@@ -3459,7 +3462,7 @@
       <c r="J33" s="45"/>
     </row>
     <row r="34" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="69">
+      <c r="A34" s="72">
         <v>33</v>
       </c>
       <c r="B34" s="52"/>
@@ -3469,7 +3472,7 @@
       <c r="D34" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="E34" s="73"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="19" t="s">
         <v>227</v>
       </c>
@@ -3477,15 +3480,15 @@
         <v>108</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="I34" s="44" t="s">
         <v>203</v>
       </c>
       <c r="J34" s="45"/>
     </row>
-    <row r="35" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A35" s="68">
+    <row r="35" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="72">
         <v>34</v>
       </c>
       <c r="B35" s="52"/>
@@ -3495,7 +3498,7 @@
       <c r="D35" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="73"/>
+      <c r="E35" s="76"/>
       <c r="F35" s="19" t="s">
         <v>111</v>
       </c>
@@ -3511,7 +3514,7 @@
       <c r="J35" s="45"/>
     </row>
     <row r="36" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="69">
+      <c r="A36" s="72">
         <v>35</v>
       </c>
       <c r="B36" s="53"/>
@@ -3521,7 +3524,7 @@
       <c r="D36" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="74"/>
+      <c r="E36" s="77"/>
       <c r="F36" s="20" t="s">
         <v>110</v>
       </c>
@@ -3549,7 +3552,7 @@
       <c r="D37" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="75" t="s">
         <v>171</v>
       </c>
       <c r="F37" s="18" t="s">
@@ -3577,7 +3580,7 @@
       <c r="D38" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="73"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="19" t="s">
         <v>120</v>
       </c>
@@ -3603,7 +3606,7 @@
       <c r="D39" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="74"/>
+      <c r="E39" s="77"/>
       <c r="F39" s="20" t="s">
         <v>121</v>
       </c>
@@ -3631,7 +3634,7 @@
       <c r="D40" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="75" t="s">
         <v>172</v>
       </c>
       <c r="F40" s="18" t="s">
@@ -3659,7 +3662,7 @@
       <c r="D41" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="73"/>
+      <c r="E41" s="76"/>
       <c r="F41" s="19" t="s">
         <v>137</v>
       </c>
@@ -3685,7 +3688,7 @@
       <c r="D42" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="73"/>
+      <c r="E42" s="76"/>
       <c r="F42" s="19" t="s">
         <v>138</v>
       </c>
@@ -3711,7 +3714,7 @@
       <c r="D43" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="73"/>
+      <c r="E43" s="76"/>
       <c r="F43" s="19" t="s">
         <v>155</v>
       </c>
@@ -3737,7 +3740,7 @@
       <c r="D44" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="73"/>
+      <c r="E44" s="76"/>
       <c r="F44" s="19" t="s">
         <v>154</v>
       </c>
@@ -3763,7 +3766,7 @@
       <c r="D45" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="73"/>
+      <c r="E45" s="76"/>
       <c r="F45" s="19" t="s">
         <v>153</v>
       </c>
@@ -3789,7 +3792,7 @@
       <c r="D46" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="73"/>
+      <c r="E46" s="76"/>
       <c r="F46" s="19" t="s">
         <v>152</v>
       </c>
@@ -3815,7 +3818,7 @@
       <c r="D47" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="73"/>
+      <c r="E47" s="76"/>
       <c r="F47" s="19" t="s">
         <v>151</v>
       </c>
@@ -3841,7 +3844,7 @@
       <c r="D48" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="73"/>
+      <c r="E48" s="76"/>
       <c r="F48" s="19" t="s">
         <v>150</v>
       </c>
@@ -3867,7 +3870,7 @@
       <c r="D49" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="73"/>
+      <c r="E49" s="76"/>
       <c r="F49" s="19" t="s">
         <v>149</v>
       </c>
@@ -3893,7 +3896,7 @@
       <c r="D50" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="73"/>
+      <c r="E50" s="76"/>
       <c r="F50" s="19" t="s">
         <v>148</v>
       </c>
@@ -3919,7 +3922,7 @@
       <c r="D51" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="74"/>
+      <c r="E51" s="77"/>
       <c r="F51" s="20" t="s">
         <v>156</v>
       </c>
@@ -3975,7 +3978,7 @@
       <c r="D53" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E53" s="72" t="s">
+      <c r="E53" s="75" t="s">
         <v>187</v>
       </c>
       <c r="F53" s="40" t="s">
@@ -4003,7 +4006,7 @@
       <c r="D54" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="E54" s="73"/>
+      <c r="E54" s="76"/>
       <c r="F54" s="37" t="s">
         <v>191</v>
       </c>
@@ -4029,7 +4032,7 @@
       <c r="D55" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="E55" s="73"/>
+      <c r="E55" s="76"/>
       <c r="F55" s="37" t="s">
         <v>192</v>
       </c>
@@ -4055,7 +4058,7 @@
       <c r="D56" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="73"/>
+      <c r="E56" s="76"/>
       <c r="F56" s="37" t="s">
         <v>194</v>
       </c>
@@ -4081,7 +4084,7 @@
       <c r="D57" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="E57" s="73"/>
+      <c r="E57" s="76"/>
       <c r="F57" s="37" t="s">
         <v>196</v>
       </c>
@@ -4107,7 +4110,7 @@
       <c r="D58" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="E58" s="73"/>
+      <c r="E58" s="76"/>
       <c r="F58" s="37" t="s">
         <v>198</v>
       </c>
@@ -4133,7 +4136,7 @@
       <c r="D59" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="E59" s="73"/>
+      <c r="E59" s="76"/>
       <c r="F59" s="37" t="s">
         <v>200</v>
       </c>
@@ -4159,7 +4162,7 @@
       <c r="D60" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="E60" s="73"/>
+      <c r="E60" s="76"/>
       <c r="F60" s="37" t="s">
         <v>200</v>
       </c>
@@ -4185,7 +4188,7 @@
       <c r="D61" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="E61" s="73"/>
+      <c r="E61" s="76"/>
       <c r="F61" s="37" t="s">
         <v>200</v>
       </c>
@@ -4211,7 +4214,7 @@
       <c r="D62" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="E62" s="75"/>
+      <c r="E62" s="78"/>
       <c r="F62" s="62" t="s">
         <v>200</v>
       </c>

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="232">
   <si>
     <t>№</t>
   </si>
@@ -1096,6 +1096,25 @@
   </si>
   <si>
     <t>Flacky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание  заявки </t>
+  </si>
+  <si>
+    <t>1. На экране Claims нажать на иконку @/add_new_claim_material_button
+2. Запонлинить поле Title
+3. Запонлинить поле Executor
+4.  Заолнить  поля: Date, Time
+5. Заполнить поле Description
+6. Нажать save</t>
+  </si>
+  <si>
+    <t>1. Откроется экран создания заявки
+2. Поле заполнено     
+3. Поле заполнено     
+4. Поле заполнено     
+5. Поле заполнено     
+6. Заявка создана</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1733,6 +1752,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2562,10 +2584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,7 +2678,7 @@
       <c r="D3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F3" s="18" t="s">
@@ -2684,7 +2706,7 @@
       <c r="D4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="19" t="s">
         <v>44</v>
       </c>
@@ -2710,7 +2732,7 @@
       <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
@@ -2736,7 +2758,7 @@
       <c r="D6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="76"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="19" t="s">
         <v>46</v>
       </c>
@@ -2762,7 +2784,7 @@
       <c r="D7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="76"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="19" t="s">
         <v>46</v>
       </c>
@@ -2788,7 +2810,7 @@
       <c r="D8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="77"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="20" t="s">
         <v>49</v>
       </c>
@@ -2816,7 +2838,7 @@
       <c r="D9" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -2844,7 +2866,7 @@
       <c r="D10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="76"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="15" t="s">
         <v>60</v>
       </c>
@@ -2870,7 +2892,7 @@
       <c r="D11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="76"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="15" t="s">
         <v>61</v>
       </c>
@@ -2896,7 +2918,7 @@
       <c r="D12" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="76"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="19" t="s">
         <v>62</v>
       </c>
@@ -2922,7 +2944,7 @@
       <c r="D13" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E13" s="76"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="19" t="s">
         <v>88</v>
       </c>
@@ -2948,7 +2970,7 @@
       <c r="D14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="76"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="19" t="s">
         <v>83</v>
       </c>
@@ -2974,7 +2996,7 @@
       <c r="D15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="76"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="19" t="s">
         <v>70</v>
       </c>
@@ -3000,7 +3022,7 @@
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="76"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="19" t="s">
         <v>84</v>
       </c>
@@ -3026,7 +3048,7 @@
       <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="76"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="19" t="s">
         <v>87</v>
       </c>
@@ -3052,7 +3074,7 @@
       <c r="D18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="77"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="20" t="s">
         <v>85</v>
       </c>
@@ -3080,7 +3102,7 @@
       <c r="D19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -3108,7 +3130,7 @@
       <c r="D20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="76"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="19" t="s">
         <v>86</v>
       </c>
@@ -3134,7 +3156,7 @@
       <c r="D21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="76"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="19" t="s">
         <v>92</v>
       </c>
@@ -3160,7 +3182,7 @@
       <c r="D22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="77"/>
+      <c r="E22" s="78"/>
       <c r="F22" s="20" t="s">
         <v>91</v>
       </c>
@@ -3188,7 +3210,7 @@
       <c r="D23" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="75" t="s">
+      <c r="E23" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F23" s="18" t="s">
@@ -3216,7 +3238,7 @@
       <c r="D24" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E24" s="76"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="19" t="s">
         <v>210</v>
       </c>
@@ -3242,7 +3264,7 @@
       <c r="D25" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="76"/>
+      <c r="E25" s="77"/>
       <c r="F25" s="19" t="s">
         <v>212</v>
       </c>
@@ -3268,7 +3290,7 @@
       <c r="D26" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E26" s="76"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="19" t="s">
         <v>214</v>
       </c>
@@ -3294,7 +3316,7 @@
       <c r="D27" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="76"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="19" t="s">
         <v>215</v>
       </c>
@@ -3320,7 +3342,7 @@
       <c r="D28" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="76"/>
+      <c r="E28" s="77"/>
       <c r="F28" s="19" t="s">
         <v>97</v>
       </c>
@@ -3335,7 +3357,7 @@
       </c>
       <c r="J28" s="45"/>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="72">
         <v>28</v>
       </c>
@@ -3346,7 +3368,7 @@
       <c r="D29" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E29" s="76"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="19" t="s">
         <v>224</v>
       </c>
@@ -3357,8 +3379,8 @@
       <c r="I29" s="71"/>
       <c r="J29" s="45"/>
     </row>
-    <row r="30" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="69">
+    <row r="30" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="72">
         <v>29</v>
       </c>
       <c r="B30" s="52"/>
@@ -3366,25 +3388,25 @@
         <v>40</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="76"/>
+        <v>229</v>
+      </c>
+      <c r="E30" s="77"/>
       <c r="F30" s="19" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="I30" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="I30" s="75" t="s">
         <v>203</v>
       </c>
       <c r="J30" s="45"/>
     </row>
-    <row r="31" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A31" s="68">
+    <row r="31" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="72">
         <v>30</v>
       </c>
       <c r="B31" s="52"/>
@@ -3392,14 +3414,14 @@
         <v>40</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="76"/>
+        <v>98</v>
+      </c>
+      <c r="E31" s="77"/>
       <c r="F31" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H31" s="44" t="s">
         <v>166</v>
@@ -3409,8 +3431,8 @@
       </c>
       <c r="J31" s="45"/>
     </row>
-    <row r="32" spans="1:10" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="69">
+    <row r="32" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="72">
         <v>31</v>
       </c>
       <c r="B32" s="52"/>
@@ -3418,14 +3440,14 @@
         <v>40</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="76"/>
+        <v>101</v>
+      </c>
+      <c r="E32" s="77"/>
       <c r="F32" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H32" s="44" t="s">
         <v>166</v>
@@ -3435,8 +3457,8 @@
       </c>
       <c r="J32" s="45"/>
     </row>
-    <row r="33" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="72">
+    <row r="33" spans="1:10" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="68">
         <v>32</v>
       </c>
       <c r="B33" s="52"/>
@@ -3444,17 +3466,17 @@
         <v>40</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="76"/>
+        <v>104</v>
+      </c>
+      <c r="E33" s="77"/>
       <c r="F33" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="I33" s="44" t="s">
         <v>203</v>
@@ -3470,14 +3492,14 @@
         <v>40</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="E34" s="76"/>
+        <v>112</v>
+      </c>
+      <c r="E34" s="77"/>
       <c r="F34" s="19" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H34" s="44" t="s">
         <v>228</v>
@@ -3487,7 +3509,7 @@
       </c>
       <c r="J34" s="45"/>
     </row>
-    <row r="35" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="72">
         <v>34</v>
       </c>
@@ -3496,17 +3518,17 @@
         <v>40</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="76"/>
+        <v>226</v>
+      </c>
+      <c r="E35" s="77"/>
       <c r="F35" s="19" t="s">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="I35" s="44" t="s">
         <v>203</v>
@@ -3517,168 +3539,168 @@
       <c r="A36" s="72">
         <v>35</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="16" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="77"/>
+      <c r="F36" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="J36" s="45"/>
+    </row>
+    <row r="37" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="72">
+        <v>36</v>
+      </c>
+      <c r="B37" s="53"/>
+      <c r="C37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="77"/>
-      <c r="F36" s="20" t="s">
+      <c r="E37" s="78"/>
+      <c r="F37" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G37" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H36" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="I36" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="J36" s="47"/>
-    </row>
-    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="68">
-        <v>36</v>
-      </c>
-      <c r="B37" s="51" t="s">
+      <c r="H37" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J37" s="47"/>
+    </row>
+    <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="68">
+        <v>37</v>
+      </c>
+      <c r="B38" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="14" t="s">
+      <c r="C38" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E38" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F38" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G38" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="I37" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J37" s="43"/>
-    </row>
-    <row r="38" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="69">
-        <v>37</v>
-      </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="15" t="s">
+      <c r="H38" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="J38" s="43"/>
+    </row>
+    <row r="39" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="69">
+        <v>38</v>
+      </c>
+      <c r="B39" s="52"/>
+      <c r="C39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="76"/>
-      <c r="F38" s="19" t="s">
+      <c r="E39" s="77"/>
+      <c r="F39" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G39" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H38" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="I38" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J38" s="45"/>
-    </row>
-    <row r="39" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="68">
-        <v>38</v>
-      </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="16" t="s">
+      <c r="H39" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="J39" s="45"/>
+    </row>
+    <row r="40" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="68">
+        <v>39</v>
+      </c>
+      <c r="B40" s="53"/>
+      <c r="C40" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="20" t="s">
+      <c r="E40" s="78"/>
+      <c r="F40" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G40" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H39" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="I39" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="J39" s="47"/>
-    </row>
-    <row r="40" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="69">
-        <v>39</v>
-      </c>
-      <c r="B40" s="54" t="s">
+      <c r="H40" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J40" s="47"/>
+    </row>
+    <row r="41" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="69">
+        <v>40</v>
+      </c>
+      <c r="B41" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="14" t="s">
+      <c r="C41" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="75" t="s">
+      <c r="E41" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F41" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G41" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H40" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="I40" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J40" s="43"/>
-    </row>
-    <row r="41" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="68">
-        <v>40</v>
-      </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="76"/>
-      <c r="F41" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="42" t="s">
         <v>166</v>
       </c>
       <c r="I41" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="J41" s="45"/>
-    </row>
-    <row r="42" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="69">
+      <c r="J41" s="43"/>
+    </row>
+    <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="68">
         <v>41</v>
       </c>
       <c r="B42" s="52"/>
@@ -3686,14 +3708,14 @@
         <v>40</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="76"/>
+        <v>125</v>
+      </c>
+      <c r="E42" s="77"/>
       <c r="F42" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H42" s="44" t="s">
         <v>166</v>
@@ -3703,8 +3725,8 @@
       </c>
       <c r="J42" s="45"/>
     </row>
-    <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="68">
+    <row r="43" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="69">
         <v>42</v>
       </c>
       <c r="B43" s="52"/>
@@ -3712,14 +3734,14 @@
         <v>40</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="76"/>
+        <v>126</v>
+      </c>
+      <c r="E43" s="77"/>
       <c r="F43" s="19" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H43" s="44" t="s">
         <v>166</v>
@@ -3729,23 +3751,23 @@
       </c>
       <c r="J43" s="45"/>
     </row>
-    <row r="44" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="69">
+    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="68">
         <v>43</v>
       </c>
       <c r="B44" s="52"/>
       <c r="C44" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="76"/>
+        <v>26</v>
+      </c>
+      <c r="E44" s="77"/>
       <c r="F44" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H44" s="44" t="s">
         <v>166</v>
@@ -3755,23 +3777,23 @@
       </c>
       <c r="J44" s="45"/>
     </row>
-    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="68">
+    <row r="45" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="69">
         <v>44</v>
       </c>
       <c r="B45" s="52"/>
       <c r="C45" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="76"/>
+        <v>146</v>
+      </c>
+      <c r="E45" s="77"/>
       <c r="F45" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H45" s="44" t="s">
         <v>166</v>
@@ -3781,8 +3803,8 @@
       </c>
       <c r="J45" s="45"/>
     </row>
-    <row r="46" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="69">
+    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="68">
         <v>45</v>
       </c>
       <c r="B46" s="52"/>
@@ -3790,14 +3812,14 @@
         <v>40</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" s="76"/>
+        <v>131</v>
+      </c>
+      <c r="E46" s="77"/>
       <c r="F46" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H46" s="44" t="s">
         <v>166</v>
@@ -3807,8 +3829,8 @@
       </c>
       <c r="J46" s="45"/>
     </row>
-    <row r="47" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="68">
+    <row r="47" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="69">
         <v>46</v>
       </c>
       <c r="B47" s="52"/>
@@ -3816,14 +3838,14 @@
         <v>40</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E47" s="76"/>
+        <v>132</v>
+      </c>
+      <c r="E47" s="77"/>
       <c r="F47" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H47" s="44" t="s">
         <v>166</v>
@@ -3833,8 +3855,8 @@
       </c>
       <c r="J47" s="45"/>
     </row>
-    <row r="48" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="69">
+    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="68">
         <v>47</v>
       </c>
       <c r="B48" s="52"/>
@@ -3842,14 +3864,14 @@
         <v>40</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" s="76"/>
+        <v>143</v>
+      </c>
+      <c r="E48" s="77"/>
       <c r="F48" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H48" s="44" t="s">
         <v>166</v>
@@ -3859,8 +3881,8 @@
       </c>
       <c r="J48" s="45"/>
     </row>
-    <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="68">
+    <row r="49" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="69">
         <v>48</v>
       </c>
       <c r="B49" s="52"/>
@@ -3868,14 +3890,14 @@
         <v>40</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="76"/>
+        <v>133</v>
+      </c>
+      <c r="E49" s="77"/>
       <c r="F49" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H49" s="44" t="s">
         <v>166</v>
@@ -3885,8 +3907,8 @@
       </c>
       <c r="J49" s="45"/>
     </row>
-    <row r="50" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="69">
+    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="68">
         <v>49</v>
       </c>
       <c r="B50" s="52"/>
@@ -3894,135 +3916,135 @@
         <v>40</v>
       </c>
       <c r="D50" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="77"/>
+      <c r="F50" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="I50" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="J50" s="45"/>
+    </row>
+    <row r="51" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="69">
+        <v>50</v>
+      </c>
+      <c r="B51" s="52"/>
+      <c r="C51" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="76"/>
-      <c r="F50" s="19" t="s">
+      <c r="E51" s="77"/>
+      <c r="F51" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G51" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H50" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="I50" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J50" s="45"/>
-    </row>
-    <row r="51" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="68">
-        <v>50</v>
-      </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="16" t="s">
+      <c r="H51" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="I51" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="J51" s="45"/>
+    </row>
+    <row r="52" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="68">
+        <v>51</v>
+      </c>
+      <c r="B52" s="53"/>
+      <c r="C52" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="77"/>
-      <c r="F51" s="20" t="s">
+      <c r="E52" s="78"/>
+      <c r="F52" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G52" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="H51" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="I51" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="J51" s="47"/>
-    </row>
-    <row r="52" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="69">
-        <v>51</v>
-      </c>
-      <c r="B52" s="55" t="s">
+      <c r="H52" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J52" s="47"/>
+    </row>
+    <row r="53" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="69">
+        <v>52</v>
+      </c>
+      <c r="B53" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="21" t="s">
+      <c r="C53" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="32"/>
-      <c r="F52" s="20" t="s">
+      <c r="E53" s="32"/>
+      <c r="F53" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G53" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="H52" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="I52" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="68">
-        <v>52</v>
-      </c>
-      <c r="B53" s="56" t="s">
+      <c r="H53" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="I53" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="68">
+        <v>53</v>
+      </c>
+      <c r="B54" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="39" t="s">
+      <c r="C54" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E53" s="75" t="s">
+      <c r="E54" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="F53" s="40" t="s">
+      <c r="F54" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="G53" s="40" t="s">
+      <c r="G54" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="H53" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="I53" s="41" t="s">
+      <c r="H54" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="J53" s="50"/>
-    </row>
-    <row r="54" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="69">
-        <v>53</v>
-      </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="E54" s="76"/>
-      <c r="F54" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="G54" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="I54" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="J54" s="10"/>
-    </row>
-    <row r="55" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="68">
+      <c r="J54" s="50"/>
+    </row>
+    <row r="55" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="69">
         <v>54</v>
       </c>
       <c r="B55" s="57"/>
@@ -4030,14 +4052,14 @@
         <v>40</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" s="76"/>
+        <v>173</v>
+      </c>
+      <c r="E55" s="77"/>
       <c r="F55" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H55" s="38" t="s">
         <v>166</v>
@@ -4047,8 +4069,8 @@
       </c>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="69">
+    <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="68">
         <v>55</v>
       </c>
       <c r="B56" s="57"/>
@@ -4056,14 +4078,14 @@
         <v>40</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="E56" s="76"/>
+        <v>175</v>
+      </c>
+      <c r="E56" s="77"/>
       <c r="F56" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H56" s="38" t="s">
         <v>166</v>
@@ -4073,8 +4095,8 @@
       </c>
       <c r="J56" s="10"/>
     </row>
-    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="68">
+    <row r="57" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="69">
         <v>56</v>
       </c>
       <c r="B57" s="57"/>
@@ -4082,14 +4104,14 @@
         <v>40</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="E57" s="76"/>
+        <v>176</v>
+      </c>
+      <c r="E57" s="77"/>
       <c r="F57" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H57" s="38" t="s">
         <v>166</v>
@@ -4099,8 +4121,8 @@
       </c>
       <c r="J57" s="10"/>
     </row>
-    <row r="58" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="69">
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="68">
         <v>57</v>
       </c>
       <c r="B58" s="57"/>
@@ -4108,14 +4130,14 @@
         <v>40</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E58" s="76"/>
+        <v>178</v>
+      </c>
+      <c r="E58" s="77"/>
       <c r="F58" s="37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H58" s="38" t="s">
         <v>166</v>
@@ -4125,8 +4147,8 @@
       </c>
       <c r="J58" s="10"/>
     </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="68">
+    <row r="59" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="69">
         <v>58</v>
       </c>
       <c r="B59" s="57"/>
@@ -4134,14 +4156,14 @@
         <v>40</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="E59" s="76"/>
+        <v>177</v>
+      </c>
+      <c r="E59" s="77"/>
       <c r="F59" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G59" s="37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H59" s="38" t="s">
         <v>166</v>
@@ -4151,8 +4173,8 @@
       </c>
       <c r="J59" s="10"/>
     </row>
-    <row r="60" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="69">
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="68">
         <v>59</v>
       </c>
       <c r="B60" s="57"/>
@@ -4160,9 +4182,9 @@
         <v>40</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E60" s="76"/>
+        <v>180</v>
+      </c>
+      <c r="E60" s="77"/>
       <c r="F60" s="37" t="s">
         <v>200</v>
       </c>
@@ -4177,8 +4199,8 @@
       </c>
       <c r="J60" s="10"/>
     </row>
-    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="68">
+    <row r="61" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="69">
         <v>60</v>
       </c>
       <c r="B61" s="57"/>
@@ -4186,9 +4208,9 @@
         <v>40</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E61" s="76"/>
+        <v>181</v>
+      </c>
+      <c r="E61" s="77"/>
       <c r="F61" s="37" t="s">
         <v>200</v>
       </c>
@@ -4203,69 +4225,95 @@
       </c>
       <c r="J61" s="10"/>
     </row>
-    <row r="62" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="69">
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="68">
         <v>61</v>
       </c>
-      <c r="B62" s="59"/>
-      <c r="C62" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="61" t="s">
+      <c r="B62" s="57"/>
+      <c r="C62" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" s="77"/>
+      <c r="F62" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G62" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I62" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="69">
+        <v>62</v>
+      </c>
+      <c r="B63" s="59"/>
+      <c r="C63" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="E62" s="78"/>
-      <c r="F62" s="62" t="s">
+      <c r="E63" s="79"/>
+      <c r="F63" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="G62" s="62" t="s">
+      <c r="G63" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="H62" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="I62" s="63" t="s">
+      <c r="H63" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="I63" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="J62" s="64"/>
-    </row>
-    <row r="63" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="68">
-        <v>62</v>
-      </c>
-      <c r="B63" s="65" t="s">
+      <c r="J63" s="64"/>
+    </row>
+    <row r="64" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="68">
+        <v>63</v>
+      </c>
+      <c r="B64" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="C63" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="66" t="s">
+      <c r="C64" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48" t="s">
+      <c r="E64" s="48"/>
+      <c r="F64" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="G63" s="48" t="s">
+      <c r="G64" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="H63" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="I63" s="49" t="s">
+      <c r="H64" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="I64" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="J63" s="67"/>
+      <c r="J64" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E40:E51"/>
-    <mergeCell ref="E53:E62"/>
+    <mergeCell ref="E41:E52"/>
+    <mergeCell ref="E54:E63"/>
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E23:E36"/>
-    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E23:E37"/>
+    <mergeCell ref="E38:E40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="238">
   <si>
     <t>№</t>
   </si>
@@ -681,18 +681,6 @@
 2. Список объявлений фильтруется по возрастанию даты     </t>
   </si>
   <si>
-    <t>1. Откроется окно настроек фильтра
-2. Выбран фильтр "Зарплата"
-3. Выбраны даты периода
-4. Новости отфильтрованы согласно настройкам.</t>
-  </si>
-  <si>
-    <t>1. На экране News нажать на иконку @id/filter_news_material_button
-2. Выбрать в фильтре Category "зарплата"
-3. Выбрать даты периода: 01.01.2021- 01.01.2022
-4. Нажать кнопку @id/filter_button</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. На экране News нажать на иконку @id/edit_news_material_button
 </t>
   </si>
@@ -703,27 +691,10 @@
     <t>1. Переход на экран Control Panel</t>
   </si>
   <si>
-    <t>Фильтр: по дате и по типу</t>
-  </si>
-  <si>
     <t>Фильтр Active</t>
   </si>
   <si>
     <t>Фильтр Not Active</t>
-  </si>
-  <si>
-    <t>1. Откроется окно настроек фильтра
-2. Выбран фильтр "Зарплата"
-3. Выбраны даты периода
-4. Чекбокс проставлен
-5. Отображаются объявления со статусом Active</t>
-  </si>
-  <si>
-    <t>1. Откроется окно настроек фильтра
-2. Выбран фильтр "Зарплата"
-3. Выбраны даты периода
-4. Чекбокс проставлен
-5. Отображаются объявления со статусом Not Active</t>
   </si>
   <si>
     <t xml:space="preserve">1. Отображается окно с запросмо на удаление.
@@ -752,20 +723,6 @@
     <t xml:space="preserve">1. На экране Control Panel нажать на иконку @id/sort_news_material_button
 2. Нажать на иконку еще раз
 </t>
-  </si>
-  <si>
-    <t>1. На экране Control Panel нажать на иконку @id/filter_news_material_button
-2. Выбрать в фильтре Category "зарплата"
-3. Выбрать даты периода: 01.01.2021- 01.01.2022
-4. Поставить чекбокс Active
-5. Нажать кнопку @id/filter_button</t>
-  </si>
-  <si>
-    <t>1. На экране Control Panel нажать на иконку @id/filter_news_material_button
-2. Выбрать в фильтре Category "зарплата"
-3. Выбрать даты периода: 01.01.2021- 01.01.2022
-4. Поставить чекбокс Not Active
-5. Нажать кнопку @id/filter_button</t>
   </si>
   <si>
     <t>1. Откроется экран редактирвоания объявления
@@ -1115,6 +1072,61 @@
 4. Поле заполнено     
 5. Поле заполнено     
 6. Заявка создана</t>
+  </si>
+  <si>
+    <t>Заявка создается. Но ее не видно в списке.</t>
+  </si>
+  <si>
+    <t>Фильтр: по дате</t>
+  </si>
+  <si>
+    <t>1. На экране News нажать на иконку @id/filter_news_material_button
+2. Выбрать даты периода: 01.05.2023- 01.05.2023
+4. Нажать кнопку @id/filter_button</t>
+  </si>
+  <si>
+    <t>1. Откроется окно настроек фильтра
+2. Выбраны даты периода
+3. Новости отфильтрованы согласно настройкам.</t>
+  </si>
+  <si>
+    <t>1. Откроется окно настроек фильтра
+2. Чекбокс проставлен
+3. Отображаются объявления со статусом Active</t>
+  </si>
+  <si>
+    <t>1. Откроется окно настроек фильтра
+2. Чекбокс проставлен
+3. Отображаются объявления со статусом Not Active</t>
+  </si>
+  <si>
+    <t>1. На экране Control Panel нажать на иконку @id/filter_news_material_button
+2. Поставить чекбокс Active, убрать Not Active
+3. Нажать кнопку @id/filter_button</t>
+  </si>
+  <si>
+    <t>1. На экране Control Panel нажать на иконку @id/filter_news_material_button
+2. Поставить чекбокс Not Active, убрать  Active
+3. Нажать кнопку @id/filter_button</t>
+  </si>
+  <si>
+    <t>1. На экране Control Panel нажать на иконку @id/filter_news_material_button
+2. убрать Not Active, убрать  Active
+3. Нажать кнопку @id/filter_button</t>
+  </si>
+  <si>
+    <t>1. Откроется окно настроек фильтра
+2. Чекбокс проставлен
+3. Список пустой</t>
+  </si>
+  <si>
+    <t>Фильтры Not Active и Active сняты</t>
+  </si>
+  <si>
+    <t>Не пройден</t>
+  </si>
+  <si>
+    <t>1. На экране выбрать первое объявлеие и нажать на иконку @id/view_news_item_image_view</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1557,11 +1569,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1756,6 +1779,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1766,6 +1795,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2081,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D2" s="29"/>
     </row>
@@ -2367,10 +2399,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D29" s="10"/>
     </row>
@@ -2380,7 +2412,7 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D30" s="10"/>
     </row>
@@ -2390,7 +2422,7 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D31" s="10"/>
     </row>
@@ -2400,7 +2432,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D32" s="10"/>
     </row>
@@ -2410,7 +2442,7 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D33" s="10"/>
     </row>
@@ -2420,7 +2452,7 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D34" s="10"/>
     </row>
@@ -2430,7 +2462,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="9" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D35" s="10"/>
     </row>
@@ -2440,7 +2472,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D36" s="10"/>
     </row>
@@ -2450,7 +2482,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D37" s="10"/>
     </row>
@@ -2460,7 +2492,7 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="9" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D38" s="10"/>
     </row>
@@ -2469,10 +2501,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D39" s="10"/>
     </row>
@@ -2584,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A64"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>37</v>
@@ -2626,10 +2658,10 @@
         <v>38</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>2</v>
@@ -2640,28 +2672,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J2" s="25"/>
     </row>
@@ -2678,8 +2710,8 @@
       <c r="D3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="76" t="s">
-        <v>169</v>
+      <c r="E3" s="78" t="s">
+        <v>162</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>43</v>
@@ -2688,10 +2720,10 @@
         <v>42</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J3" s="43"/>
     </row>
@@ -2706,7 +2738,7 @@
       <c r="D4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="77"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="19" t="s">
         <v>44</v>
       </c>
@@ -2714,10 +2746,10 @@
         <v>47</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J4" s="45"/>
     </row>
@@ -2732,7 +2764,7 @@
       <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="77"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
@@ -2740,10 +2772,10 @@
         <v>47</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J5" s="45"/>
     </row>
@@ -2758,7 +2790,7 @@
       <c r="D6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="77"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="19" t="s">
         <v>46</v>
       </c>
@@ -2766,10 +2798,10 @@
         <v>48</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J6" s="45"/>
     </row>
@@ -2784,7 +2816,7 @@
       <c r="D7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="77"/>
+      <c r="E7" s="79"/>
       <c r="F7" s="19" t="s">
         <v>46</v>
       </c>
@@ -2792,10 +2824,10 @@
         <v>48</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J7" s="45"/>
     </row>
@@ -2810,7 +2842,7 @@
       <c r="D8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="78"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="20" t="s">
         <v>49</v>
       </c>
@@ -2818,10 +2850,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J8" s="47"/>
     </row>
@@ -2836,22 +2868,22 @@
         <v>40</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>167</v>
+        <v>200</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>160</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J9" s="43"/>
     </row>
@@ -2866,7 +2898,7 @@
       <c r="D10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="77"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="15" t="s">
         <v>60</v>
       </c>
@@ -2874,10 +2906,10 @@
         <v>58</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J10" s="45"/>
     </row>
@@ -2892,7 +2924,7 @@
       <c r="D11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="77"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="15" t="s">
         <v>61</v>
       </c>
@@ -2900,10 +2932,10 @@
         <v>59</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J11" s="45"/>
     </row>
@@ -2916,9 +2948,9 @@
         <v>40</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="77"/>
+        <v>202</v>
+      </c>
+      <c r="E12" s="79"/>
       <c r="F12" s="19" t="s">
         <v>62</v>
       </c>
@@ -2926,10 +2958,10 @@
         <v>69</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -2942,9 +2974,9 @@
         <v>40</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="77"/>
+        <v>201</v>
+      </c>
+      <c r="E13" s="79"/>
       <c r="F13" s="19" t="s">
         <v>88</v>
       </c>
@@ -2952,10 +2984,10 @@
         <v>63</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J13" s="45"/>
     </row>
@@ -2970,7 +3002,7 @@
       <c r="D14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="77"/>
+      <c r="E14" s="79"/>
       <c r="F14" s="19" t="s">
         <v>83</v>
       </c>
@@ -2978,10 +3010,10 @@
         <v>73</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J14" s="45"/>
     </row>
@@ -2996,7 +3028,7 @@
       <c r="D15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="77"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="19" t="s">
         <v>70</v>
       </c>
@@ -3004,10 +3036,10 @@
         <v>71</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J15" s="45"/>
     </row>
@@ -3022,7 +3054,7 @@
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="77"/>
+      <c r="E16" s="79"/>
       <c r="F16" s="19" t="s">
         <v>84</v>
       </c>
@@ -3030,10 +3062,10 @@
         <v>89</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J16" s="45"/>
     </row>
@@ -3048,7 +3080,7 @@
       <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="77"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="19" t="s">
         <v>87</v>
       </c>
@@ -3056,10 +3088,10 @@
         <v>72</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J17" s="45"/>
     </row>
@@ -3074,7 +3106,7 @@
       <c r="D18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="78"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="20" t="s">
         <v>85</v>
       </c>
@@ -3082,10 +3114,10 @@
         <v>74</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J18" s="47"/>
     </row>
@@ -3102,8 +3134,8 @@
       <c r="D19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="76" t="s">
-        <v>167</v>
+      <c r="E19" s="78" t="s">
+        <v>160</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>93</v>
@@ -3112,10 +3144,10 @@
         <v>79</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J19" s="43"/>
     </row>
@@ -3130,7 +3162,7 @@
       <c r="D20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="77"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="19" t="s">
         <v>86</v>
       </c>
@@ -3138,10 +3170,10 @@
         <v>80</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J20" s="45"/>
     </row>
@@ -3156,7 +3188,7 @@
       <c r="D21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="77"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="19" t="s">
         <v>92</v>
       </c>
@@ -3164,10 +3196,10 @@
         <v>82</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J21" s="45"/>
     </row>
@@ -3182,7 +3214,7 @@
       <c r="D22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="78"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="20" t="s">
         <v>91</v>
       </c>
@@ -3190,10 +3222,10 @@
         <v>81</v>
       </c>
       <c r="H22" s="46" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J22" s="47"/>
     </row>
@@ -3210,8 +3242,8 @@
       <c r="D23" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="76" t="s">
-        <v>170</v>
+      <c r="E23" s="78" t="s">
+        <v>163</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>94</v>
@@ -3220,10 +3252,10 @@
         <v>95</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J23" s="43"/>
     </row>
@@ -3236,20 +3268,20 @@
         <v>40</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="E24" s="77"/>
+        <v>211</v>
+      </c>
+      <c r="E24" s="79"/>
       <c r="F24" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J24" s="45"/>
     </row>
@@ -3262,20 +3294,20 @@
         <v>40</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E25" s="77"/>
+        <v>212</v>
+      </c>
+      <c r="E25" s="79"/>
       <c r="F25" s="19" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H25" s="71" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I25" s="71" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J25" s="45"/>
     </row>
@@ -3288,20 +3320,20 @@
         <v>40</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" s="77"/>
+        <v>213</v>
+      </c>
+      <c r="E26" s="79"/>
       <c r="F26" s="19" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H26" s="71" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I26" s="71" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J26" s="45"/>
     </row>
@@ -3314,20 +3346,20 @@
         <v>40</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="77"/>
+        <v>214</v>
+      </c>
+      <c r="E27" s="79"/>
       <c r="F27" s="19" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H27" s="71" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I27" s="71" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J27" s="45"/>
     </row>
@@ -3340,9 +3372,9 @@
         <v>40</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" s="77"/>
+        <v>215</v>
+      </c>
+      <c r="E28" s="79"/>
       <c r="F28" s="19" t="s">
         <v>97</v>
       </c>
@@ -3350,10 +3382,10 @@
         <v>96</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J28" s="45"/>
     </row>
@@ -3366,14 +3398,14 @@
         <v>40</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E29" s="77"/>
+        <v>216</v>
+      </c>
+      <c r="E29" s="79"/>
       <c r="F29" s="19" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
@@ -3388,20 +3420,20 @@
         <v>40</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="E30" s="77"/>
+        <v>222</v>
+      </c>
+      <c r="E30" s="79"/>
       <c r="F30" s="19" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H30" s="75" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="I30" s="75" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J30" s="45"/>
     </row>
@@ -3416,7 +3448,7 @@
       <c r="D31" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="77"/>
+      <c r="E31" s="79"/>
       <c r="F31" s="19" t="s">
         <v>99</v>
       </c>
@@ -3424,10 +3456,10 @@
         <v>100</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I31" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J31" s="45"/>
     </row>
@@ -3442,7 +3474,7 @@
       <c r="D32" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="77"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="19" t="s">
         <v>102</v>
       </c>
@@ -3450,15 +3482,15 @@
         <v>103</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I32" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J32" s="45"/>
     </row>
     <row r="33" spans="1:10" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="68">
+      <c r="A33" s="72">
         <v>32</v>
       </c>
       <c r="B33" s="52"/>
@@ -3468,7 +3500,7 @@
       <c r="D33" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="77"/>
+      <c r="E33" s="79"/>
       <c r="F33" s="19" t="s">
         <v>105</v>
       </c>
@@ -3476,10 +3508,10 @@
         <v>106</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J33" s="45"/>
     </row>
@@ -3494,7 +3526,7 @@
       <c r="D34" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="77"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="19" t="s">
         <v>109</v>
       </c>
@@ -3502,10 +3534,10 @@
         <v>107</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I34" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J34" s="45"/>
     </row>
@@ -3518,20 +3550,20 @@
         <v>40</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="E35" s="77"/>
+        <v>219</v>
+      </c>
+      <c r="E35" s="79"/>
       <c r="F35" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>108</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I35" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J35" s="45"/>
     </row>
@@ -3546,7 +3578,7 @@
       <c r="D36" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="77"/>
+      <c r="E36" s="79"/>
       <c r="F36" s="19" t="s">
         <v>111</v>
       </c>
@@ -3554,10 +3586,10 @@
         <v>116</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I36" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J36" s="45"/>
     </row>
@@ -3572,7 +3604,7 @@
       <c r="D37" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="78"/>
+      <c r="E37" s="80"/>
       <c r="F37" s="20" t="s">
         <v>110</v>
       </c>
@@ -3580,15 +3612,15 @@
         <v>115</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I37" s="46" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J37" s="47"/>
     </row>
-    <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="68">
+    <row r="38" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="72">
         <v>37</v>
       </c>
       <c r="B38" s="51" t="s">
@@ -3600,8 +3632,8 @@
       <c r="D38" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="76" t="s">
-        <v>171</v>
+      <c r="E38" s="78" t="s">
+        <v>164</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>117</v>
@@ -3610,15 +3642,15 @@
         <v>118</v>
       </c>
       <c r="H38" s="42" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I38" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J38" s="43"/>
     </row>
-    <row r="39" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="69">
+    <row r="39" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="72">
         <v>38</v>
       </c>
       <c r="B39" s="52"/>
@@ -3626,25 +3658,25 @@
         <v>40</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" s="77"/>
+        <v>226</v>
+      </c>
+      <c r="E39" s="79"/>
       <c r="F39" s="19" t="s">
-        <v>120</v>
+        <v>227</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="H39" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I39" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J39" s="45"/>
     </row>
     <row r="40" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="68">
+      <c r="A40" s="72">
         <v>39</v>
       </c>
       <c r="B40" s="53"/>
@@ -3652,81 +3684,81 @@
         <v>40</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="78"/>
+        <v>120</v>
+      </c>
+      <c r="E40" s="80"/>
       <c r="F40" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="20" t="s">
-        <v>123</v>
-      </c>
       <c r="H40" s="46" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I40" s="46" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J40" s="47"/>
     </row>
-    <row r="41" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="69">
-        <v>40</v>
-      </c>
-      <c r="B41" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="14" t="s">
+    <row r="41" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="68">
+        <v>40</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="82"/>
+      <c r="F41" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="J41" s="47"/>
+    </row>
+    <row r="42" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="72">
+        <v>41</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="G41" s="18" t="s">
+      <c r="E42" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H41" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J41" s="43"/>
-    </row>
-    <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="68">
-        <v>41</v>
-      </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="77"/>
-      <c r="F42" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="44" t="s">
-        <v>166</v>
+      <c r="H42" s="42" t="s">
+        <v>159</v>
       </c>
       <c r="I42" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J42" s="45"/>
-    </row>
-    <row r="43" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="69">
+        <v>196</v>
+      </c>
+      <c r="J42" s="43"/>
+    </row>
+    <row r="43" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="72">
         <v>42</v>
       </c>
       <c r="B43" s="52"/>
@@ -3734,25 +3766,25 @@
         <v>40</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="77"/>
+        <v>122</v>
+      </c>
+      <c r="E43" s="79"/>
       <c r="F43" s="19" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I43" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J43" s="45"/>
     </row>
-    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="68">
+    <row r="44" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="72">
         <v>43</v>
       </c>
       <c r="B44" s="52"/>
@@ -3760,77 +3792,77 @@
         <v>40</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="77"/>
+        <v>123</v>
+      </c>
+      <c r="E44" s="79"/>
       <c r="F44" s="19" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I44" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J44" s="45"/>
     </row>
-    <row r="45" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="69">
+    <row r="45" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="72">
         <v>44</v>
       </c>
       <c r="B45" s="52"/>
       <c r="C45" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="77"/>
+        <v>235</v>
+      </c>
+      <c r="E45" s="79"/>
       <c r="F45" s="19" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H45" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="I45" s="44" t="s">
-        <v>203</v>
+        <v>234</v>
+      </c>
+      <c r="H45" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="I45" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="J45" s="45"/>
     </row>
-    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="68">
         <v>45</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="77"/>
-      <c r="F46" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="I46" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="J46" s="45"/>
-    </row>
-    <row r="47" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="69">
+      <c r="B46" s="53"/>
+      <c r="C46" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="79"/>
+      <c r="F46" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="I46" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="J46" s="47"/>
+    </row>
+    <row r="47" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="68">
         <v>46</v>
       </c>
       <c r="B47" s="52"/>
@@ -3838,24 +3870,24 @@
         <v>40</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="77"/>
+        <v>27</v>
+      </c>
+      <c r="E47" s="79"/>
       <c r="F47" s="19" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H47" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="I47" s="44" t="s">
-        <v>203</v>
+        <v>124</v>
+      </c>
+      <c r="H47" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="J47" s="45"/>
     </row>
-    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="68">
         <v>47</v>
       </c>
@@ -3864,50 +3896,50 @@
         <v>40</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E48" s="77"/>
+        <v>26</v>
+      </c>
+      <c r="E48" s="79"/>
       <c r="F48" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H48" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I48" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J48" s="45"/>
     </row>
-    <row r="49" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="69">
+    <row r="49" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="68">
         <v>48</v>
       </c>
       <c r="B49" s="52"/>
       <c r="C49" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="77"/>
+        <v>139</v>
+      </c>
+      <c r="E49" s="79"/>
       <c r="F49" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G49" s="19" t="s">
         <v>140</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I49" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J49" s="45"/>
     </row>
-    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="68">
         <v>49</v>
       </c>
@@ -3916,25 +3948,25 @@
         <v>40</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="77"/>
+        <v>126</v>
+      </c>
+      <c r="E50" s="79"/>
       <c r="F50" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H50" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I50" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J50" s="45"/>
     </row>
-    <row r="51" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="69">
+    <row r="51" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="68">
         <v>50</v>
       </c>
       <c r="B51" s="52"/>
@@ -3942,161 +3974,161 @@
         <v>40</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="77"/>
+        <v>127</v>
+      </c>
+      <c r="E51" s="79"/>
       <c r="F51" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I51" s="44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J51" s="45"/>
     </row>
-    <row r="52" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="68">
         <v>51</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="78"/>
-      <c r="F52" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="H52" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="I52" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="J52" s="47"/>
-    </row>
-    <row r="53" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="69">
+      <c r="B52" s="52"/>
+      <c r="C52" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="79"/>
+      <c r="F52" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I52" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="J52" s="45"/>
+    </row>
+    <row r="53" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="68">
         <v>52</v>
       </c>
-      <c r="B53" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="I53" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="52"/>
+      <c r="C53" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="79"/>
+      <c r="F53" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I53" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="J53" s="45"/>
+    </row>
+    <row r="54" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="68">
         <v>53</v>
       </c>
-      <c r="B54" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="E54" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="G54" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="H54" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="I54" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="J54" s="50"/>
-    </row>
-    <row r="55" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="69">
+      <c r="B54" s="52"/>
+      <c r="C54" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="79"/>
+      <c r="F54" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I54" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" s="45"/>
+    </row>
+    <row r="55" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="68">
         <v>54</v>
       </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" s="77"/>
-      <c r="F55" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="G55" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="H55" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="I55" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="J55" s="10"/>
-    </row>
-    <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B55" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="32"/>
+      <c r="F55" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="I55" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="J55" s="26"/>
+    </row>
+    <row r="56" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="68">
         <v>55</v>
       </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="77"/>
-      <c r="F56" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="G56" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="I56" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="J56" s="10"/>
-    </row>
-    <row r="57" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="69">
+      <c r="B56" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I56" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J56" s="50"/>
+    </row>
+    <row r="57" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="68">
         <v>56</v>
       </c>
       <c r="B57" s="57"/>
@@ -4104,24 +4136,24 @@
         <v>40</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" s="77"/>
+        <v>166</v>
+      </c>
+      <c r="E57" s="79"/>
       <c r="F57" s="37" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J57" s="10"/>
     </row>
-    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="68">
         <v>57</v>
       </c>
@@ -4130,25 +4162,25 @@
         <v>40</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="E58" s="77"/>
+        <v>168</v>
+      </c>
+      <c r="E58" s="79"/>
       <c r="F58" s="37" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G58" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="I58" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="H58" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="I58" s="38" t="s">
-        <v>204</v>
-      </c>
       <c r="J58" s="10"/>
     </row>
-    <row r="59" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="69">
+    <row r="59" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="68">
         <v>58</v>
       </c>
       <c r="B59" s="57"/>
@@ -4156,24 +4188,24 @@
         <v>40</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E59" s="77"/>
+        <v>169</v>
+      </c>
+      <c r="E59" s="79"/>
       <c r="F59" s="37" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="G59" s="37" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="H59" s="38" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J59" s="10"/>
     </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="68">
         <v>59</v>
       </c>
@@ -4182,25 +4214,25 @@
         <v>40</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="E60" s="77"/>
+        <v>171</v>
+      </c>
+      <c r="E60" s="79"/>
       <c r="F60" s="37" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="H60" s="38" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J60" s="10"/>
     </row>
-    <row r="61" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="69">
+    <row r="61" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="68">
         <v>60</v>
       </c>
       <c r="B61" s="57"/>
@@ -4208,24 +4240,24 @@
         <v>40</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E61" s="77"/>
+        <v>170</v>
+      </c>
+      <c r="E61" s="79"/>
       <c r="F61" s="37" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J61" s="10"/>
     </row>
-    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="68">
         <v>61</v>
       </c>
@@ -4234,81 +4266,136 @@
         <v>40</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E62" s="77"/>
+        <v>173</v>
+      </c>
+      <c r="E62" s="79"/>
       <c r="F62" s="37" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G62" s="37" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="69">
+      <c r="A63" s="68">
         <v>62</v>
       </c>
-      <c r="B63" s="59"/>
-      <c r="C63" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="61" t="s">
-        <v>183</v>
+      <c r="B63" s="57"/>
+      <c r="C63" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>174</v>
       </c>
       <c r="E63" s="79"/>
-      <c r="F63" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="G63" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="H63" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="I63" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="J63" s="64"/>
-    </row>
-    <row r="64" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="G63" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="68">
         <v>63</v>
       </c>
-      <c r="B64" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="66" t="s">
-        <v>185</v>
-      </c>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="G64" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="H64" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="I64" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="J64" s="67"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E64" s="79"/>
+      <c r="F64" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="G64" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="I64" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="68">
+        <v>64</v>
+      </c>
+      <c r="B65" s="59"/>
+      <c r="C65" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="81"/>
+      <c r="F65" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="G65" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="H65" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="I65" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="J65" s="64"/>
+    </row>
+    <row r="66" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="68">
+        <v>65</v>
+      </c>
+      <c r="B66" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="G66" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="H66" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="I66" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="J66" s="67"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E41:E52"/>
-    <mergeCell ref="E54:E63"/>
+    <mergeCell ref="E42:E54"/>
+    <mergeCell ref="E56:E65"/>
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E22"/>

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -1785,19 +1785,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2618,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,7 +2710,7 @@
       <c r="D3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="79" t="s">
         <v>162</v>
       </c>
       <c r="F3" s="18" t="s">
@@ -2738,7 +2738,7 @@
       <c r="D4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="79"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="19" t="s">
         <v>44</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="79"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
@@ -2790,7 +2790,7 @@
       <c r="D6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="79"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="19" t="s">
         <v>46</v>
       </c>
@@ -2816,7 +2816,7 @@
       <c r="D7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="79"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="19" t="s">
         <v>46</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="D8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="80"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="20" t="s">
         <v>49</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="D9" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="79" t="s">
         <v>160</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -2898,7 +2898,7 @@
       <c r="D10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="79"/>
+      <c r="E10" s="80"/>
       <c r="F10" s="15" t="s">
         <v>60</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="D11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="79"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="15" t="s">
         <v>61</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="D12" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="79"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="19" t="s">
         <v>62</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="D13" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E13" s="79"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="19" t="s">
         <v>88</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="D14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="79"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="19" t="s">
         <v>83</v>
       </c>
@@ -3028,7 +3028,7 @@
       <c r="D15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="79"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="19" t="s">
         <v>70</v>
       </c>
@@ -3054,7 +3054,7 @@
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="79"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="19" t="s">
         <v>84</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="79"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="19" t="s">
         <v>87</v>
       </c>
@@ -3106,7 +3106,7 @@
       <c r="D18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="80"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="20" t="s">
         <v>85</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="D19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="79" t="s">
         <v>160</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -3162,7 +3162,7 @@
       <c r="D20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="79"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="19" t="s">
         <v>86</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="D21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="79"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="19" t="s">
         <v>92</v>
       </c>
@@ -3214,7 +3214,7 @@
       <c r="D22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="80"/>
+      <c r="E22" s="82"/>
       <c r="F22" s="20" t="s">
         <v>91</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="D23" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="78" t="s">
+      <c r="E23" s="79" t="s">
         <v>163</v>
       </c>
       <c r="F23" s="18" t="s">
@@ -3270,7 +3270,7 @@
       <c r="D24" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="E24" s="79"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="19" t="s">
         <v>203</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="D25" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="79"/>
+      <c r="E25" s="80"/>
       <c r="F25" s="19" t="s">
         <v>205</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="D26" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="79"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="19" t="s">
         <v>207</v>
       </c>
@@ -3348,7 +3348,7 @@
       <c r="D27" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="79"/>
+      <c r="E27" s="80"/>
       <c r="F27" s="19" t="s">
         <v>208</v>
       </c>
@@ -3374,7 +3374,7 @@
       <c r="D28" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="E28" s="79"/>
+      <c r="E28" s="80"/>
       <c r="F28" s="19" t="s">
         <v>97</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="D29" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E29" s="79"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="19" t="s">
         <v>217</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="D30" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E30" s="79"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="19" t="s">
         <v>223</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="D31" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="79"/>
+      <c r="E31" s="80"/>
       <c r="F31" s="19" t="s">
         <v>99</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="D32" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="79"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="19" t="s">
         <v>102</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="D33" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="79"/>
+      <c r="E33" s="80"/>
       <c r="F33" s="19" t="s">
         <v>105</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="D34" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="79"/>
+      <c r="E34" s="80"/>
       <c r="F34" s="19" t="s">
         <v>109</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="D35" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E35" s="79"/>
+      <c r="E35" s="80"/>
       <c r="F35" s="19" t="s">
         <v>220</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="D36" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="79"/>
+      <c r="E36" s="80"/>
       <c r="F36" s="19" t="s">
         <v>111</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="D37" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="80"/>
+      <c r="E37" s="82"/>
       <c r="F37" s="20" t="s">
         <v>110</v>
       </c>
@@ -3632,7 +3632,7 @@
       <c r="D38" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="78" t="s">
+      <c r="E38" s="79" t="s">
         <v>164</v>
       </c>
       <c r="F38" s="18" t="s">
@@ -3660,7 +3660,7 @@
       <c r="D39" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="E39" s="79"/>
+      <c r="E39" s="80"/>
       <c r="F39" s="19" t="s">
         <v>227</v>
       </c>
@@ -3686,7 +3686,7 @@
       <c r="D40" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="80"/>
+      <c r="E40" s="82"/>
       <c r="F40" s="20" t="s">
         <v>119</v>
       </c>
@@ -3702,7 +3702,7 @@
       <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="68">
+      <c r="A41" s="72">
         <v>40</v>
       </c>
       <c r="B41" s="53"/>
@@ -3712,7 +3712,7 @@
       <c r="D41" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="82"/>
+      <c r="E41" s="78"/>
       <c r="F41" s="20" t="s">
         <v>237</v>
       </c>
@@ -3740,7 +3740,7 @@
       <c r="D42" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E42" s="79" t="s">
         <v>165</v>
       </c>
       <c r="F42" s="18" t="s">
@@ -3768,7 +3768,7 @@
       <c r="D43" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="79"/>
+      <c r="E43" s="80"/>
       <c r="F43" s="19" t="s">
         <v>231</v>
       </c>
@@ -3794,7 +3794,7 @@
       <c r="D44" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="79"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="19" t="s">
         <v>232</v>
       </c>
@@ -3820,7 +3820,7 @@
       <c r="D45" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="E45" s="79"/>
+      <c r="E45" s="80"/>
       <c r="F45" s="19" t="s">
         <v>233</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="J45" s="45"/>
     </row>
     <row r="46" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="68">
+      <c r="A46" s="72">
         <v>45</v>
       </c>
       <c r="B46" s="53"/>
@@ -3846,7 +3846,7 @@
       <c r="D46" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="79"/>
+      <c r="E46" s="80"/>
       <c r="F46" s="20" t="s">
         <v>149</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="J46" s="47"/>
     </row>
     <row r="47" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="68">
+      <c r="A47" s="72">
         <v>46</v>
       </c>
       <c r="B47" s="52"/>
@@ -3872,7 +3872,7 @@
       <c r="D47" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="79"/>
+      <c r="E47" s="80"/>
       <c r="F47" s="19" t="s">
         <v>141</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="D48" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="79"/>
+      <c r="E48" s="80"/>
       <c r="F48" s="19" t="s">
         <v>148</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="D49" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="79"/>
+      <c r="E49" s="80"/>
       <c r="F49" s="19" t="s">
         <v>147</v>
       </c>
@@ -3950,7 +3950,7 @@
       <c r="D50" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="79"/>
+      <c r="E50" s="80"/>
       <c r="F50" s="19" t="s">
         <v>146</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="D51" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="79"/>
+      <c r="E51" s="80"/>
       <c r="F51" s="19" t="s">
         <v>145</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="D52" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E52" s="79"/>
+      <c r="E52" s="80"/>
       <c r="F52" s="19" t="s">
         <v>144</v>
       </c>
@@ -4028,7 +4028,7 @@
       <c r="D53" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E53" s="79"/>
+      <c r="E53" s="80"/>
       <c r="F53" s="19" t="s">
         <v>143</v>
       </c>
@@ -4054,7 +4054,7 @@
       <c r="D54" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E54" s="79"/>
+      <c r="E54" s="80"/>
       <c r="F54" s="19" t="s">
         <v>142</v>
       </c>
@@ -4110,7 +4110,7 @@
       <c r="D56" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="78" t="s">
+      <c r="E56" s="79" t="s">
         <v>180</v>
       </c>
       <c r="F56" s="40" t="s">
@@ -4138,7 +4138,7 @@
       <c r="D57" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="E57" s="79"/>
+      <c r="E57" s="80"/>
       <c r="F57" s="37" t="s">
         <v>184</v>
       </c>
@@ -4164,7 +4164,7 @@
       <c r="D58" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="E58" s="79"/>
+      <c r="E58" s="80"/>
       <c r="F58" s="37" t="s">
         <v>185</v>
       </c>
@@ -4190,7 +4190,7 @@
       <c r="D59" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="E59" s="79"/>
+      <c r="E59" s="80"/>
       <c r="F59" s="37" t="s">
         <v>187</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="D60" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="79"/>
+      <c r="E60" s="80"/>
       <c r="F60" s="37" t="s">
         <v>189</v>
       </c>
@@ -4242,7 +4242,7 @@
       <c r="D61" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="E61" s="79"/>
+      <c r="E61" s="80"/>
       <c r="F61" s="37" t="s">
         <v>191</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="D62" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="E62" s="79"/>
+      <c r="E62" s="80"/>
       <c r="F62" s="37" t="s">
         <v>193</v>
       </c>
@@ -4294,7 +4294,7 @@
       <c r="D63" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="E63" s="79"/>
+      <c r="E63" s="80"/>
       <c r="F63" s="37" t="s">
         <v>193</v>
       </c>
@@ -4320,7 +4320,7 @@
       <c r="D64" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="E64" s="79"/>
+      <c r="E64" s="80"/>
       <c r="F64" s="37" t="s">
         <v>193</v>
       </c>

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -2618,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="242">
   <si>
     <t>№</t>
   </si>
@@ -716,10 +716,6 @@
     <t>Отредактировать объявление. Изменит статус.</t>
   </si>
   <si>
-    <t>News edit-
-Control Panel</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. На экране Control Panel нажать на иконку @id/sort_news_material_button
 2. Нажать на иконку еще раз
 </t>
@@ -792,10 +788,6 @@
     <t>1. На экране Control Panel выбрать первое объявлеие и нажать на иконку id/edit_news_item_image_view
 2. Изменить Заголовок в объявлении
 3.  Нажать кнопку save</t>
-  </si>
-  <si>
-    <t>1. На экране Control Panel выбрать первое объявлеие и нажать на иконку @id/add_news_image_view
-3. Нажать кнопку Save</t>
   </si>
   <si>
     <t>1. На экране Control Panel выбрать первое объявлеие и нажать на иконку @id/add_news_image_view
@@ -1127,6 +1119,25 @@
   </si>
   <si>
     <t>1. На экране выбрать первое объявлеие и нажать на иконку @id/view_news_item_image_view</t>
+  </si>
+  <si>
+    <t>Control Panel</t>
+  </si>
+  <si>
+    <t>News Create, edit</t>
+  </si>
+  <si>
+    <t>Приложение стартовано. Пользователь успешно авторизован. Открыт раздел News - Control Panel-Edit News</t>
+  </si>
+  <si>
+    <t>1. На экране Control Panel выбрать первое объявлеие и нажать на иконку @id/add_news_image_view
+2. Нажать кнопку Save</t>
+  </si>
+  <si>
+    <t>невозможно</t>
+  </si>
+  <si>
+    <t>Проверка всплывающих сообщений не работает.</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1182,8 +1193,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1379,19 +1396,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color theme="4" tint="-0.499984740745262"/>
@@ -1400,19 +1404,6 @@
         <color theme="4" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
         <color theme="4" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1580,11 +1571,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1639,20 +1693,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1665,9 +1713,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1701,64 +1746,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1767,38 +1809,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2109,16 +2199,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -2398,11 +2488,11 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>167</v>
+      <c r="B29" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>165</v>
       </c>
       <c r="D29" s="10"/>
     </row>
@@ -2412,7 +2502,7 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D30" s="10"/>
     </row>
@@ -2422,7 +2512,7 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D31" s="10"/>
     </row>
@@ -2432,7 +2522,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D32" s="10"/>
     </row>
@@ -2442,7 +2532,7 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D33" s="10"/>
     </row>
@@ -2452,7 +2542,7 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D34" s="10"/>
     </row>
@@ -2462,7 +2552,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D35" s="10"/>
     </row>
@@ -2472,7 +2562,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D36" s="10"/>
     </row>
@@ -2482,7 +2572,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D37" s="10"/>
     </row>
@@ -2492,7 +2582,7 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D38" s="10"/>
     </row>
@@ -2500,11 +2590,11 @@
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>178</v>
+      <c r="B39" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="D39" s="10"/>
     </row>
@@ -2618,13 +2708,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
@@ -2636,7 +2726,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -2649,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>37</v>
@@ -2657,51 +2747,51 @@
       <c r="G1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>155</v>
+      <c r="H1" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>153</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68">
+      <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>154</v>
-      </c>
       <c r="G2" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" s="25"/>
+        <v>155</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="72">
+      <c r="A3" s="68">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2710,8 +2800,8 @@
       <c r="D3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="79" t="s">
-        <v>162</v>
+      <c r="E3" s="77" t="s">
+        <v>160</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>43</v>
@@ -2719,413 +2809,421 @@
       <c r="G3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="J3" s="43"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="69">
+      <c r="H3" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="65">
         <v>3</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="80"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="19" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J4" s="45"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="69">
+      <c r="H4" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="65">
         <v>4</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="80"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J5" s="45"/>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="69">
+      <c r="H5" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="65">
         <v>5</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="80"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="19" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J6" s="45"/>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
+      <c r="H6" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="65">
         <v>6</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="80"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="19" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J7" s="45"/>
+      <c r="H7" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74">
+      <c r="A8" s="70">
         <v>7</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="82"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="20" t="s">
         <v>49</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="J8" s="47"/>
+      <c r="H8" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="72">
+      <c r="A9" s="68">
         <v>8</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>160</v>
+        <v>198</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>158</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="J9" s="43"/>
+      <c r="H9" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="73">
+      <c r="A10" s="69">
         <v>9</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="80"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="15" t="s">
         <v>60</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J10" s="45"/>
+      <c r="H10" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="73">
+      <c r="A11" s="69">
         <v>10</v>
       </c>
-      <c r="B11" s="52"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="80"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="15" t="s">
         <v>61</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J11" s="45"/>
+      <c r="H11" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="73">
+      <c r="A12" s="69">
         <v>11</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="80"/>
+        <v>200</v>
+      </c>
+      <c r="E12" s="78"/>
       <c r="F12" s="19" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J12" s="45"/>
+      <c r="H12" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="73">
+      <c r="A13" s="69">
         <v>12</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="80"/>
+        <v>199</v>
+      </c>
+      <c r="E13" s="78"/>
       <c r="F13" s="19" t="s">
         <v>88</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J13" s="45"/>
+      <c r="H13" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="73">
+      <c r="A14" s="69">
         <v>13</v>
       </c>
-      <c r="B14" s="52"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="80"/>
+      <c r="E14" s="78"/>
       <c r="F14" s="19" t="s">
         <v>83</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J14" s="45"/>
+      <c r="H14" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="73">
+      <c r="A15" s="69">
         <v>14</v>
       </c>
-      <c r="B15" s="52"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="80"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="19" t="s">
         <v>70</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J15" s="45"/>
+      <c r="H15" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="73">
+      <c r="A16" s="69">
         <v>15</v>
       </c>
-      <c r="B16" s="52"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="80"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="19" t="s">
         <v>84</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J16" s="45"/>
+      <c r="H16" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="73">
+      <c r="A17" s="69">
         <v>16</v>
       </c>
-      <c r="B17" s="52"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="80"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="19" t="s">
         <v>87</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J17" s="45"/>
+      <c r="H17" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74">
+      <c r="A18" s="70">
         <v>17</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="82"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="20" t="s">
         <v>85</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="I18" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="J18" s="47"/>
+      <c r="H18" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="72">
+      <c r="A19" s="68">
         <v>18</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -3134,8 +3232,8 @@
       <c r="D19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="79" t="s">
-        <v>160</v>
+      <c r="E19" s="77" t="s">
+        <v>158</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>93</v>
@@ -3143,97 +3241,97 @@
       <c r="G19" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="J19" s="43"/>
+      <c r="H19" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="73">
+      <c r="A20" s="69">
         <v>19</v>
       </c>
-      <c r="B20" s="52"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="80"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="19" t="s">
         <v>86</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J20" s="45"/>
+      <c r="H20" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" s="42"/>
     </row>
     <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="73">
+      <c r="A21" s="69">
         <v>20</v>
       </c>
-      <c r="B21" s="52"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="80"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="19" t="s">
         <v>92</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I21" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J21" s="45"/>
+      <c r="H21" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" s="42"/>
     </row>
     <row r="22" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="74">
+      <c r="A22" s="70">
         <v>21</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="82"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="20" t="s">
         <v>91</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="J22" s="47"/>
+      <c r="H22" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74">
+      <c r="A23" s="70">
         <v>22</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="48" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -3242,8 +3340,8 @@
       <c r="D23" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="79" t="s">
-        <v>163</v>
+      <c r="E23" s="77" t="s">
+        <v>161</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>94</v>
@@ -3251,379 +3349,379 @@
       <c r="G23" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="J23" s="43"/>
+      <c r="H23" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="74">
+      <c r="A24" s="70">
         <v>23</v>
       </c>
-      <c r="B24" s="52"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="78"/>
+      <c r="F24" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" s="42"/>
+    </row>
+    <row r="25" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="70">
+        <v>24</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="78"/>
+      <c r="F25" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" s="42"/>
+    </row>
+    <row r="26" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="70">
+        <v>25</v>
+      </c>
+      <c r="B26" s="49"/>
+      <c r="C26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J24" s="45"/>
-    </row>
-    <row r="25" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="74">
-        <v>24</v>
-      </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="E26" s="78"/>
+      <c r="F26" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" s="42"/>
+    </row>
+    <row r="27" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="70">
+        <v>26</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="80"/>
-      <c r="F25" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="G25" s="19" t="s">
+      <c r="E27" s="78"/>
+      <c r="F27" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="H25" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="I25" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="J25" s="45"/>
-    </row>
-    <row r="26" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74">
-        <v>25</v>
-      </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="G27" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27" s="42"/>
+    </row>
+    <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="69">
+        <v>27</v>
+      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="J26" s="45"/>
-    </row>
-    <row r="27" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="74">
-        <v>26</v>
-      </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E27" s="80"/>
-      <c r="F27" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="H27" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="I27" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="J27" s="45"/>
-    </row>
-    <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="73">
-        <v>27</v>
-      </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="E28" s="80"/>
+      <c r="E28" s="78"/>
       <c r="F28" s="19" t="s">
         <v>97</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H28" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I28" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J28" s="45"/>
+      <c r="H28" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="72">
+      <c r="A29" s="68">
         <v>28</v>
       </c>
-      <c r="B29" s="52"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="78"/>
+      <c r="F29" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="E29" s="80"/>
-      <c r="F29" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="45"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="72">
+      <c r="A30" s="68">
         <v>29</v>
       </c>
-      <c r="B30" s="52"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="78"/>
+      <c r="F30" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="E30" s="80"/>
-      <c r="F30" s="19" t="s">
+      <c r="H30" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="H30" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="I30" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="J30" s="45"/>
+      <c r="I30" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72">
+      <c r="A31" s="68">
         <v>30</v>
       </c>
-      <c r="B31" s="52"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="80"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="19" t="s">
         <v>99</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I31" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J31" s="45"/>
+      <c r="H31" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J31" s="42"/>
     </row>
     <row r="32" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72">
+      <c r="A32" s="68">
         <v>31</v>
       </c>
-      <c r="B32" s="52"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="80"/>
+      <c r="E32" s="78"/>
       <c r="F32" s="19" t="s">
         <v>102</v>
       </c>
       <c r="G32" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="H32" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I32" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J32" s="45"/>
+      <c r="H32" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32" s="42"/>
     </row>
     <row r="33" spans="1:10" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="72">
+      <c r="A33" s="68">
         <v>32</v>
       </c>
-      <c r="B33" s="52"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="80"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="19" t="s">
         <v>105</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J33" s="45"/>
+      <c r="H33" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J33" s="42"/>
     </row>
     <row r="34" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="72">
+      <c r="A34" s="68">
         <v>33</v>
       </c>
-      <c r="B34" s="52"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="80"/>
+      <c r="E34" s="78"/>
       <c r="F34" s="19" t="s">
         <v>109</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="I34" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J34" s="45"/>
+      <c r="H34" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="72">
+      <c r="A35" s="68">
         <v>34</v>
       </c>
-      <c r="B35" s="52"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E35" s="80"/>
+        <v>217</v>
+      </c>
+      <c r="E35" s="78"/>
       <c r="F35" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="I35" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J35" s="45"/>
+      <c r="H35" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="72">
+      <c r="A36" s="68">
         <v>35</v>
       </c>
-      <c r="B36" s="52"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="80"/>
+      <c r="E36" s="78"/>
       <c r="F36" s="19" t="s">
         <v>111</v>
       </c>
       <c r="G36" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="H36" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J36" s="45"/>
+      <c r="H36" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72">
+      <c r="A37" s="68">
         <v>36</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="82"/>
+      <c r="E37" s="80"/>
       <c r="F37" s="20" t="s">
         <v>110</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H37" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="I37" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="J37" s="47"/>
+      <c r="H37" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" s="44"/>
     </row>
     <row r="38" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="72">
+      <c r="A38" s="68">
         <v>37</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="48" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -3632,8 +3730,8 @@
       <c r="D38" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="79" t="s">
-        <v>164</v>
+      <c r="E38" s="77" t="s">
+        <v>162</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>117</v>
@@ -3641,98 +3739,98 @@
       <c r="G38" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H38" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="I38" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J38" s="43"/>
+      <c r="H38" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J38" s="40"/>
     </row>
     <row r="39" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="72">
+      <c r="A39" s="68">
         <v>38</v>
       </c>
-      <c r="B39" s="52"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="78"/>
+      <c r="F39" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="E39" s="80"/>
-      <c r="F39" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I39" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J39" s="45"/>
+      <c r="H39" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J39" s="42"/>
     </row>
     <row r="40" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="72">
+      <c r="A40" s="68">
         <v>39</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="82"/>
+      <c r="E40" s="80"/>
       <c r="F40" s="20" t="s">
         <v>119</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="I40" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="J40" s="47"/>
+      <c r="H40" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="J40" s="44"/>
     </row>
     <row r="41" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72">
-        <v>40</v>
-      </c>
-      <c r="B41" s="53"/>
+      <c r="A41" s="68">
+        <v>40</v>
+      </c>
+      <c r="B41" s="50"/>
       <c r="C41" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="78"/>
+      <c r="E41" s="73"/>
       <c r="F41" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="I41" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="J41" s="47"/>
-    </row>
-    <row r="42" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="72">
+      <c r="H41" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="I41" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="J41" s="44"/>
+    </row>
+    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="82">
         <v>41</v>
       </c>
-      <c r="B42" s="54" t="s">
-        <v>130</v>
+      <c r="B42" s="83" t="s">
+        <v>236</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>40</v>
@@ -3740,341 +3838,347 @@
       <c r="D42" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="79" t="s">
-        <v>165</v>
+      <c r="E42" s="77" t="s">
+        <v>163</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H42" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="I42" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J42" s="43"/>
-    </row>
-    <row r="43" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="72">
+      <c r="H42" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="J42" s="40"/>
+    </row>
+    <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="84">
         <v>42</v>
       </c>
-      <c r="B43" s="52"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="80"/>
+      <c r="E43" s="78"/>
       <c r="F43" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I43" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J43" s="45"/>
-    </row>
-    <row r="44" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="72">
+        <v>227</v>
+      </c>
+      <c r="H43" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="J43" s="42"/>
+    </row>
+    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="84">
         <v>43</v>
       </c>
-      <c r="B44" s="52"/>
+      <c r="B44" s="85"/>
       <c r="C44" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="80"/>
+      <c r="E44" s="78"/>
       <c r="F44" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H44" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="I44" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="J44" s="42"/>
+    </row>
+    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
+        <v>44</v>
+      </c>
+      <c r="B45" s="85"/>
+      <c r="C45" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="78"/>
+      <c r="F45" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="G44" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J44" s="45"/>
-    </row>
-    <row r="45" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="72">
-        <v>44</v>
-      </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="E45" s="80"/>
-      <c r="F45" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="G45" s="19" t="s">
+      <c r="H45" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="H45" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="I45" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="J45" s="45"/>
-    </row>
-    <row r="46" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="72">
+      <c r="I45" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="J45" s="42"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="84">
         <v>45</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="16" t="s">
+      <c r="B46" s="85"/>
+      <c r="C46" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="80"/>
-      <c r="F46" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G46" s="20" t="s">
+      <c r="E46" s="78"/>
+      <c r="F46" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H46" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="I46" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="J46" s="47"/>
+      <c r="H46" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="I46" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72">
+      <c r="A47" s="86">
         <v>46</v>
       </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="15" t="s">
+      <c r="B47" s="87"/>
+      <c r="C47" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E47" s="80"/>
-      <c r="F47" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" s="19" t="s">
+      <c r="F47" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="20" t="s">
         <v>124</v>
       </c>
       <c r="H47" s="76" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I47" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="J47" s="45"/>
+        <v>194</v>
+      </c>
+      <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="68">
+      <c r="A48" s="86">
         <v>47</v>
       </c>
-      <c r="B48" s="52"/>
-      <c r="C48" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="15" t="s">
+      <c r="B48" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="80"/>
-      <c r="F48" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H48" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I48" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J48" s="45"/>
-    </row>
-    <row r="49" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="68">
+      <c r="E48" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="I48" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="J48" s="40"/>
+    </row>
+    <row r="49" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="94">
         <v>48</v>
       </c>
-      <c r="B49" s="52"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="78"/>
+      <c r="F49" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="80"/>
-      <c r="F49" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="H49" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I49" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J49" s="45"/>
-    </row>
-    <row r="50" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="68">
+      <c r="H49" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="J49" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="92">
         <v>49</v>
       </c>
-      <c r="B50" s="52"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="80"/>
+      <c r="E50" s="78"/>
       <c r="F50" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I50" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J50" s="45"/>
-    </row>
-    <row r="51" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="68">
+        <v>131</v>
+      </c>
+      <c r="H50" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="I50" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="J50" s="42"/>
+    </row>
+    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="92">
         <v>50</v>
       </c>
-      <c r="B51" s="52"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="80"/>
+      <c r="E51" s="78"/>
       <c r="F51" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G51" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="I51" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="J51" s="42"/>
+    </row>
+    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="92">
+        <v>51</v>
+      </c>
+      <c r="B52" s="85"/>
+      <c r="C52" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="H51" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I51" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J51" s="45"/>
-    </row>
-    <row r="52" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="68">
-        <v>51</v>
-      </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="15" t="s">
+      <c r="E52" s="78"/>
+      <c r="F52" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E52" s="80"/>
-      <c r="F52" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H52" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I52" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J52" s="45"/>
-    </row>
-    <row r="53" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="68">
+      <c r="H52" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="I52" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="J52" s="42"/>
+    </row>
+    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="92">
         <v>52</v>
       </c>
-      <c r="B53" s="52"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E53" s="80"/>
+      <c r="E53" s="78"/>
       <c r="F53" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G53" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="I53" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="J53" s="42"/>
+    </row>
+    <row r="54" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="93">
+        <v>53</v>
+      </c>
+      <c r="B54" s="87"/>
+      <c r="C54" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="80"/>
+      <c r="F54" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H53" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I53" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J53" s="45"/>
-    </row>
-    <row r="54" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="68">
-        <v>53</v>
-      </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" s="80"/>
-      <c r="F54" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H54" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="I54" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J54" s="45"/>
+      <c r="H54" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="I54" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="J54" s="44"/>
     </row>
     <row r="55" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="68">
+      <c r="A55" s="81">
         <v>54</v>
       </c>
-      <c r="B55" s="55" t="s">
-        <v>199</v>
+      <c r="B55" s="51" t="s">
+        <v>197</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>40</v>
@@ -4082,325 +4186,326 @@
       <c r="D55" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="32"/>
-      <c r="F55" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H55" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="I55" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="J55" s="26"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="G55" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="H55" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="I55" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="J55" s="91"/>
     </row>
     <row r="56" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="68">
+      <c r="A56" s="64">
         <v>55</v>
       </c>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G56" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="I56" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="J56" s="47"/>
+    </row>
+    <row r="57" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="64">
+        <v>56</v>
+      </c>
+      <c r="B57" s="53"/>
+      <c r="C57" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" s="78"/>
+      <c r="F57" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I57" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="64">
+        <v>57</v>
+      </c>
+      <c r="B58" s="53"/>
+      <c r="C58" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" s="78"/>
+      <c r="F58" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I58" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="64">
+        <v>58</v>
+      </c>
+      <c r="B59" s="53"/>
+      <c r="C59" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="78"/>
+      <c r="F59" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I59" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="64">
+        <v>59</v>
+      </c>
+      <c r="B60" s="53"/>
+      <c r="C60" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60" s="78"/>
+      <c r="F60" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I60" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="64">
+        <v>60</v>
+      </c>
+      <c r="B61" s="53"/>
+      <c r="C61" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" s="78"/>
+      <c r="F61" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="G61" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I61" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="64">
+        <v>61</v>
+      </c>
+      <c r="B62" s="53"/>
+      <c r="C62" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="78"/>
+      <c r="F62" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I62" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="64">
+        <v>62</v>
+      </c>
+      <c r="B63" s="53"/>
+      <c r="C63" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="E56" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="H56" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="I56" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="J56" s="50"/>
-    </row>
-    <row r="57" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="68">
-        <v>56</v>
-      </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="E57" s="80"/>
-      <c r="F57" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="G57" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="H57" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="I57" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="J57" s="10"/>
-    </row>
-    <row r="58" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="68">
-        <v>57</v>
-      </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="E58" s="80"/>
-      <c r="F58" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="G58" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="H58" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="I58" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="J58" s="10"/>
-    </row>
-    <row r="59" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="68">
-        <v>58</v>
-      </c>
-      <c r="B59" s="57"/>
-      <c r="C59" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="E59" s="80"/>
-      <c r="F59" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="G59" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="H59" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="I59" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="J59" s="10"/>
-    </row>
-    <row r="60" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="68">
-        <v>59</v>
-      </c>
-      <c r="B60" s="57"/>
-      <c r="C60" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E60" s="80"/>
-      <c r="F60" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="G60" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="H60" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="I60" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="J60" s="10"/>
-    </row>
-    <row r="61" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="68">
-        <v>60</v>
-      </c>
-      <c r="B61" s="57"/>
-      <c r="C61" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="E61" s="80"/>
-      <c r="F61" s="37" t="s">
+      <c r="E63" s="78"/>
+      <c r="F63" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="G61" s="37" t="s">
+      <c r="G63" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="H61" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="I61" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="J61" s="10"/>
-    </row>
-    <row r="62" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="68">
-        <v>61</v>
-      </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="34" t="s">
+      <c r="H63" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I63" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="53"/>
+      <c r="C64" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="E62" s="80"/>
-      <c r="F62" s="37" t="s">
+      <c r="E64" s="78"/>
+      <c r="F64" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="G64" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I64" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="64">
+        <v>64</v>
+      </c>
+      <c r="B65" s="55"/>
+      <c r="C65" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" s="79"/>
+      <c r="F65" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="G65" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="H65" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="I65" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="J65" s="60"/>
+    </row>
+    <row r="66" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="64">
+        <v>65</v>
+      </c>
+      <c r="B66" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="G66" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="G62" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="H62" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="I62" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="J62" s="10"/>
-    </row>
-    <row r="63" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="68">
-        <v>62</v>
-      </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="E63" s="80"/>
-      <c r="F63" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="G63" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="H63" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="I63" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="J63" s="10"/>
-    </row>
-    <row r="64" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="68">
-        <v>63</v>
-      </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E64" s="80"/>
-      <c r="F64" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="G64" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="H64" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="I64" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="J64" s="10"/>
-    </row>
-    <row r="65" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="68">
-        <v>64</v>
-      </c>
-      <c r="B65" s="59"/>
-      <c r="C65" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="E65" s="81"/>
-      <c r="F65" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="G65" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="H65" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="I65" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="J65" s="64"/>
-    </row>
-    <row r="66" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="68">
-        <v>65</v>
-      </c>
-      <c r="B66" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="C66" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="G66" s="48" t="s">
+      <c r="H66" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="I66" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="H66" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="I66" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="J66" s="67"/>
+      <c r="J66" s="63"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="68"/>
+      <c r="A67" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E42:E54"/>
+  <mergeCells count="8">
     <mergeCell ref="E56:E65"/>
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="E23:E37"/>
     <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E42:E47"/>
+    <mergeCell ref="E48:E54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="236">
   <si>
     <t>№</t>
   </si>
@@ -704,15 +704,6 @@
     <t>1. Объявление раскроется, описание отображается.</t>
   </si>
   <si>
-    <t>Отредактировать в объявлении Title</t>
-  </si>
-  <si>
-    <t>Отредактировать в объявлении Date</t>
-  </si>
-  <si>
-    <t>Отредактировать в объявлении Description</t>
-  </si>
-  <si>
     <t>Отредактировать объявление. Изменит статус.</t>
   </si>
   <si>
@@ -722,31 +713,8 @@
   </si>
   <si>
     <t>1. Откроется экран редактирвоания объявления
-2. Заголовок изменен
-3. В объявлении изменен заголовок</t>
-  </si>
-  <si>
-    <t>1. Откроется экран редактирвоания объявления
-2. Опсание изменено
-3. В объявлении изменено описание</t>
-  </si>
-  <si>
-    <t>1. Откроется экран редактирвоания объявления
 2. Свитчер переключен
 3. В объявлении изменен статус</t>
-  </si>
-  <si>
-    <t>1. Откроется экран редактирвоания объявления
-2. Дата изменена
-3. В объявлении изменена дата</t>
-  </si>
-  <si>
-    <t>Отредактировать в объявлении Time</t>
-  </si>
-  <si>
-    <t>1. Откроется экран редактирвоания объявления
-2. Время изменена
-3. В объявлении изменено время</t>
   </si>
   <si>
     <t>1. Откроется экран создания объявления
@@ -767,26 +735,6 @@
   <si>
     <t>1. На экране Control Panel выбрать первое объявлеие и нажать на иконку id/edit_news_item_image_view
 2. Перещелкнуть свитчер Active
-3.  Нажать кнопку save</t>
-  </si>
-  <si>
-    <t>1. На экране Control Panel выбрать первое объявлеие и нажать на иконку id/edit_news_item_image_view
-2. Изменить Описаниев объявлении
-3.  Нажать кнопку save</t>
-  </si>
-  <si>
-    <t>1. На экране Control Panel выбрать первое объявлеие и нажать на иконку id/edit_news_item_image_view
-2. Изменить время  в объявлении
-3.  Нажать кнопку save</t>
-  </si>
-  <si>
-    <t>1. На экране Control Panel выбрать первое объявлеие и нажать на иконку id/edit_news_item_image_view
-2. Изменить даты  в объявлении
-3.  Нажать кнопку save</t>
-  </si>
-  <si>
-    <t>1. На экране Control Panel выбрать первое объявлеие и нажать на иконку id/edit_news_item_image_view
-2. Изменить Заголовок в объявлении
 3.  Нажать кнопку save</t>
   </si>
   <si>
@@ -1138,6 +1086,32 @@
   </si>
   <si>
     <t>Проверка всплывающих сообщений не работает.</t>
+  </si>
+  <si>
+    <t>Отредактировать в объявлении Title, Date,Time, Description</t>
+  </si>
+  <si>
+    <t>1. На экране Control Panel выбрать первое объявлеие и нажать на иконку id/edit_news_item_image_view
+2. Изменить поля
+3.  Нажать кнопку save</t>
+  </si>
+  <si>
+    <t>1. Откроется экран редактирвоания объявления
+2. Поля изменены
+3. В объявлении изменены поля Title, Date,Time, Description</t>
+  </si>
+  <si>
+    <t>Отменить редактирование</t>
+  </si>
+  <si>
+    <t>1. На экране Control Panel выбрать первое объявлеие и нажать на иконку id/edit_news_item_image_view
+2. Изменить поля
+3.  Нажать кнопку cancel и подвердить</t>
+  </si>
+  <si>
+    <t>1. Откроется экран редактирвоания объявления
+2. Поля изменены
+3. В объявлении  поля отстались неизмененными</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1572,17 +1546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="4" tint="-0.499984740745262"/>
       </left>
@@ -1638,7 +1601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1800,9 +1763,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1836,6 +1796,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1847,48 +1843,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2203,10 +2157,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D2" s="27"/>
     </row>
@@ -2489,10 +2443,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D29" s="10"/>
     </row>
@@ -2502,7 +2456,7 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="9" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D30" s="10"/>
     </row>
@@ -2512,7 +2466,7 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D31" s="10"/>
     </row>
@@ -2522,7 +2476,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D32" s="10"/>
     </row>
@@ -2532,7 +2486,7 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D33" s="10"/>
     </row>
@@ -2542,7 +2496,7 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D34" s="10"/>
     </row>
@@ -2552,7 +2506,7 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="9" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D35" s="10"/>
     </row>
@@ -2562,7 +2516,7 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="9" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D36" s="10"/>
     </row>
@@ -2572,7 +2526,7 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D37" s="10"/>
     </row>
@@ -2582,7 +2536,7 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D38" s="10"/>
     </row>
@@ -2591,10 +2545,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D39" s="10"/>
     </row>
@@ -2706,15 +2660,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
@@ -2722,7 +2676,7 @@
     <col min="6" max="6" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="39.140625" customWidth="1"/>
     <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2739,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>37</v>
@@ -2748,10 +2702,10 @@
         <v>38</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>2</v>
@@ -2762,33 +2716,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="68">
+      <c r="A3" s="67">
         <v>2</v>
       </c>
       <c r="B3" s="48" t="s">
@@ -2800,8 +2754,8 @@
       <c r="D3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="77" t="s">
-        <v>160</v>
+      <c r="E3" s="88" t="s">
+        <v>148</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>43</v>
@@ -2810,15 +2764,15 @@
         <v>42</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
+      <c r="A4" s="87">
         <v>3</v>
       </c>
       <c r="B4" s="49"/>
@@ -2828,7 +2782,7 @@
       <c r="D4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="78"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="19" t="s">
         <v>44</v>
       </c>
@@ -2836,17 +2790,17 @@
         <v>47</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="65">
+      <c r="A5" s="87">
         <v>4</v>
       </c>
       <c r="B5" s="49"/>
@@ -2856,7 +2810,7 @@
       <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="78"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
@@ -2864,17 +2818,17 @@
         <v>47</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" s="75" t="s">
-        <v>240</v>
+        <v>145</v>
+      </c>
+      <c r="I5" s="74" t="s">
+        <v>228</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="65">
+      <c r="A6" s="87">
         <v>5</v>
       </c>
       <c r="B6" s="49"/>
@@ -2884,7 +2838,7 @@
       <c r="D6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="78"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="19" t="s">
         <v>46</v>
       </c>
@@ -2892,17 +2846,17 @@
         <v>48</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" s="75" t="s">
-        <v>240</v>
+        <v>145</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>228</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="65">
+      <c r="A7" s="87">
         <v>6</v>
       </c>
       <c r="B7" s="49"/>
@@ -2912,7 +2866,7 @@
       <c r="D7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="78"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="19" t="s">
         <v>46</v>
       </c>
@@ -2920,17 +2874,17 @@
         <v>48</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" s="75" t="s">
-        <v>240</v>
+        <v>145</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>228</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70">
+      <c r="A8" s="69">
         <v>7</v>
       </c>
       <c r="B8" s="50"/>
@@ -2940,7 +2894,7 @@
       <c r="D8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="80"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="20" t="s">
         <v>49</v>
       </c>
@@ -2948,15 +2902,15 @@
         <v>50</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="68">
+      <c r="A9" s="67">
         <v>8</v>
       </c>
       <c r="B9" s="48" t="s">
@@ -2966,27 +2920,27 @@
         <v>40</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>158</v>
+        <v>186</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>146</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="69">
+      <c r="A10" s="68">
         <v>9</v>
       </c>
       <c r="B10" s="49"/>
@@ -2996,7 +2950,7 @@
       <c r="D10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="78"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="15" t="s">
         <v>60</v>
       </c>
@@ -3004,15 +2958,15 @@
         <v>58</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="69">
+      <c r="A11" s="68">
         <v>10</v>
       </c>
       <c r="B11" s="49"/>
@@ -3022,7 +2976,7 @@
       <c r="D11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="78"/>
+      <c r="E11" s="89"/>
       <c r="F11" s="15" t="s">
         <v>61</v>
       </c>
@@ -3030,15 +2984,15 @@
         <v>59</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="69">
+      <c r="A12" s="68">
         <v>11</v>
       </c>
       <c r="B12" s="49"/>
@@ -3046,9 +3000,9 @@
         <v>40</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="78"/>
+        <v>188</v>
+      </c>
+      <c r="E12" s="89"/>
       <c r="F12" s="19" t="s">
         <v>62</v>
       </c>
@@ -3056,15 +3010,15 @@
         <v>69</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="69">
+      <c r="A13" s="68">
         <v>12</v>
       </c>
       <c r="B13" s="49"/>
@@ -3072,9 +3026,9 @@
         <v>40</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E13" s="78"/>
+        <v>187</v>
+      </c>
+      <c r="E13" s="89"/>
       <c r="F13" s="19" t="s">
         <v>88</v>
       </c>
@@ -3082,15 +3036,15 @@
         <v>63</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
+      <c r="A14" s="68">
         <v>13</v>
       </c>
       <c r="B14" s="49"/>
@@ -3100,7 +3054,7 @@
       <c r="D14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="19" t="s">
         <v>83</v>
       </c>
@@ -3108,15 +3062,15 @@
         <v>73</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="69">
+      <c r="A15" s="68">
         <v>14</v>
       </c>
       <c r="B15" s="49"/>
@@ -3126,7 +3080,7 @@
       <c r="D15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="78"/>
+      <c r="E15" s="89"/>
       <c r="F15" s="19" t="s">
         <v>70</v>
       </c>
@@ -3134,15 +3088,15 @@
         <v>71</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="69">
+      <c r="A16" s="68">
         <v>15</v>
       </c>
       <c r="B16" s="49"/>
@@ -3152,7 +3106,7 @@
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="78"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="19" t="s">
         <v>84</v>
       </c>
@@ -3160,15 +3114,15 @@
         <v>89</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="69">
+      <c r="A17" s="68">
         <v>16</v>
       </c>
       <c r="B17" s="49"/>
@@ -3178,7 +3132,7 @@
       <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="78"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="19" t="s">
         <v>87</v>
       </c>
@@ -3186,15 +3140,15 @@
         <v>72</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70">
+      <c r="A18" s="69">
         <v>17</v>
       </c>
       <c r="B18" s="50"/>
@@ -3204,7 +3158,7 @@
       <c r="D18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="80"/>
+      <c r="E18" s="91"/>
       <c r="F18" s="20" t="s">
         <v>85</v>
       </c>
@@ -3212,15 +3166,15 @@
         <v>74</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="68">
+      <c r="A19" s="67">
         <v>18</v>
       </c>
       <c r="B19" s="48" t="s">
@@ -3232,8 +3186,8 @@
       <c r="D19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="77" t="s">
-        <v>158</v>
+      <c r="E19" s="88" t="s">
+        <v>146</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>93</v>
@@ -3242,15 +3196,15 @@
         <v>79</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
+      <c r="A20" s="68">
         <v>19</v>
       </c>
       <c r="B20" s="49"/>
@@ -3260,7 +3214,7 @@
       <c r="D20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="78"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="19" t="s">
         <v>86</v>
       </c>
@@ -3268,15 +3222,15 @@
         <v>80</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I20" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J20" s="42"/>
     </row>
     <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="69">
+      <c r="A21" s="68">
         <v>20</v>
       </c>
       <c r="B21" s="49"/>
@@ -3286,7 +3240,7 @@
       <c r="D21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="78"/>
+      <c r="E21" s="89"/>
       <c r="F21" s="19" t="s">
         <v>92</v>
       </c>
@@ -3294,15 +3248,15 @@
         <v>82</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I21" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J21" s="42"/>
     </row>
     <row r="22" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70">
+      <c r="A22" s="69">
         <v>21</v>
       </c>
       <c r="B22" s="50"/>
@@ -3312,7 +3266,7 @@
       <c r="D22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="80"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="20" t="s">
         <v>91</v>
       </c>
@@ -3320,15 +3274,15 @@
         <v>81</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="70">
+      <c r="A23" s="69">
         <v>22</v>
       </c>
       <c r="B23" s="48" t="s">
@@ -3340,8 +3294,8 @@
       <c r="D23" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="77" t="s">
-        <v>161</v>
+      <c r="E23" s="88" t="s">
+        <v>149</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>94</v>
@@ -3350,15 +3304,15 @@
         <v>95</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="70">
+      <c r="A24" s="69">
         <v>23</v>
       </c>
       <c r="B24" s="49"/>
@@ -3366,25 +3320,25 @@
         <v>40</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="78"/>
+        <v>197</v>
+      </c>
+      <c r="E24" s="89"/>
       <c r="F24" s="19" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I24" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="70">
+      <c r="A25" s="69">
         <v>24</v>
       </c>
       <c r="B25" s="49"/>
@@ -3392,25 +3346,25 @@
         <v>40</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" s="78"/>
+        <v>198</v>
+      </c>
+      <c r="E25" s="89"/>
       <c r="F25" s="19" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="H25" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" s="67" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="66" t="s">
+        <v>182</v>
       </c>
       <c r="J25" s="42"/>
     </row>
     <row r="26" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70">
+      <c r="A26" s="69">
         <v>25</v>
       </c>
       <c r="B26" s="49"/>
@@ -3418,25 +3372,25 @@
         <v>40</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E26" s="78"/>
+        <v>199</v>
+      </c>
+      <c r="E26" s="89"/>
       <c r="F26" s="19" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="H26" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="I26" s="67" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="H26" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="66" t="s">
+        <v>182</v>
       </c>
       <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="70">
+      <c r="A27" s="69">
         <v>26</v>
       </c>
       <c r="B27" s="49"/>
@@ -3444,25 +3398,25 @@
         <v>40</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="E27" s="78"/>
+        <v>200</v>
+      </c>
+      <c r="E27" s="89"/>
       <c r="F27" s="19" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="I27" s="67" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="H27" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="66" t="s">
+        <v>182</v>
       </c>
       <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="69">
+      <c r="A28" s="68">
         <v>27</v>
       </c>
       <c r="B28" s="49"/>
@@ -3470,9 +3424,9 @@
         <v>40</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="78"/>
+        <v>201</v>
+      </c>
+      <c r="E28" s="89"/>
       <c r="F28" s="19" t="s">
         <v>97</v>
       </c>
@@ -3480,15 +3434,15 @@
         <v>96</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I28" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="68">
+      <c r="A29" s="67">
         <v>28</v>
       </c>
       <c r="B29" s="49"/>
@@ -3496,21 +3450,21 @@
         <v>40</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E29" s="78"/>
+        <v>202</v>
+      </c>
+      <c r="E29" s="89"/>
       <c r="F29" s="19" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
+        <v>204</v>
+      </c>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68">
+      <c r="A30" s="67">
         <v>29</v>
       </c>
       <c r="B30" s="49"/>
@@ -3518,25 +3472,25 @@
         <v>40</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E30" s="78"/>
+        <v>208</v>
+      </c>
+      <c r="E30" s="89"/>
       <c r="F30" s="19" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="H30" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="I30" s="71" t="s">
-        <v>194</v>
+        <v>210</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="I30" s="70" t="s">
+        <v>182</v>
       </c>
       <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="68">
+      <c r="A31" s="67">
         <v>30</v>
       </c>
       <c r="B31" s="49"/>
@@ -3546,7 +3500,7 @@
       <c r="D31" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="78"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="19" t="s">
         <v>99</v>
       </c>
@@ -3554,15 +3508,15 @@
         <v>100</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I31" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J31" s="42"/>
     </row>
     <row r="32" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68">
+      <c r="A32" s="67">
         <v>31</v>
       </c>
       <c r="B32" s="49"/>
@@ -3572,7 +3526,7 @@
       <c r="D32" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="78"/>
+      <c r="E32" s="89"/>
       <c r="F32" s="19" t="s">
         <v>102</v>
       </c>
@@ -3580,15 +3534,15 @@
         <v>103</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J32" s="42"/>
     </row>
     <row r="33" spans="1:10" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="68">
+      <c r="A33" s="67">
         <v>32</v>
       </c>
       <c r="B33" s="49"/>
@@ -3598,7 +3552,7 @@
       <c r="D33" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="78"/>
+      <c r="E33" s="89"/>
       <c r="F33" s="19" t="s">
         <v>105</v>
       </c>
@@ -3606,15 +3560,15 @@
         <v>106</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I33" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J33" s="42"/>
     </row>
     <row r="34" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="68">
+      <c r="A34" s="67">
         <v>33</v>
       </c>
       <c r="B34" s="49"/>
@@ -3624,7 +3578,7 @@
       <c r="D34" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="78"/>
+      <c r="E34" s="89"/>
       <c r="F34" s="19" t="s">
         <v>109</v>
       </c>
@@ -3632,15 +3586,15 @@
         <v>107</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="68">
+      <c r="A35" s="67">
         <v>34</v>
       </c>
       <c r="B35" s="49"/>
@@ -3648,25 +3602,25 @@
         <v>40</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="E35" s="78"/>
+        <v>205</v>
+      </c>
+      <c r="E35" s="89"/>
       <c r="F35" s="19" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>108</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="I35" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="68">
+      <c r="A36" s="67">
         <v>35</v>
       </c>
       <c r="B36" s="49"/>
@@ -3676,7 +3630,7 @@
       <c r="D36" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="78"/>
+      <c r="E36" s="89"/>
       <c r="F36" s="19" t="s">
         <v>111</v>
       </c>
@@ -3684,15 +3638,15 @@
         <v>116</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I36" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="68">
+      <c r="A37" s="67">
         <v>36</v>
       </c>
       <c r="B37" s="50"/>
@@ -3702,7 +3656,7 @@
       <c r="D37" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="80"/>
+      <c r="E37" s="91"/>
       <c r="F37" s="20" t="s">
         <v>110</v>
       </c>
@@ -3710,15 +3664,15 @@
         <v>115</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J37" s="44"/>
     </row>
     <row r="38" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="68">
+      <c r="A38" s="67">
         <v>37</v>
       </c>
       <c r="B38" s="48" t="s">
@@ -3730,8 +3684,8 @@
       <c r="D38" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="77" t="s">
-        <v>162</v>
+      <c r="E38" s="88" t="s">
+        <v>150</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>117</v>
@@ -3740,15 +3694,15 @@
         <v>118</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I38" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J38" s="40"/>
     </row>
     <row r="39" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="68">
+      <c r="A39" s="67">
         <v>38</v>
       </c>
       <c r="B39" s="49"/>
@@ -3756,25 +3710,25 @@
         <v>40</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E39" s="78"/>
+        <v>212</v>
+      </c>
+      <c r="E39" s="89"/>
       <c r="F39" s="19" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H39" s="41" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I39" s="41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J39" s="42"/>
     </row>
     <row r="40" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="68">
+      <c r="A40" s="67">
         <v>39</v>
       </c>
       <c r="B40" s="50"/>
@@ -3784,7 +3738,7 @@
       <c r="D40" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="80"/>
+      <c r="E40" s="91"/>
       <c r="F40" s="20" t="s">
         <v>119</v>
       </c>
@@ -3792,15 +3746,15 @@
         <v>121</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J40" s="44"/>
     </row>
     <row r="41" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="68">
+      <c r="A41" s="67">
         <v>40</v>
       </c>
       <c r="B41" s="50"/>
@@ -3810,27 +3764,27 @@
       <c r="D41" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="73"/>
+      <c r="E41" s="72"/>
       <c r="F41" s="20" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="I41" s="72" t="s">
-        <v>194</v>
+      <c r="H41" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" s="71" t="s">
+        <v>182</v>
       </c>
       <c r="J41" s="44"/>
     </row>
     <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="82">
+      <c r="A42" s="76">
         <v>41</v>
       </c>
-      <c r="B42" s="83" t="s">
-        <v>236</v>
+      <c r="B42" s="77" t="s">
+        <v>224</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>40</v>
@@ -3838,159 +3792,159 @@
       <c r="D42" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="77" t="s">
-        <v>163</v>
+      <c r="E42" s="88" t="s">
+        <v>151</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H42" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="I42" s="74" t="s">
-        <v>194</v>
+      <c r="H42" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="I42" s="73" t="s">
+        <v>182</v>
       </c>
       <c r="J42" s="40"/>
     </row>
     <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="84">
+      <c r="A43" s="78">
         <v>42</v>
       </c>
-      <c r="B43" s="85"/>
+      <c r="B43" s="79"/>
       <c r="C43" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="78"/>
+      <c r="E43" s="89"/>
       <c r="F43" s="19" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="H43" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="I43" s="75" t="s">
-        <v>194</v>
+        <v>215</v>
+      </c>
+      <c r="H43" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="I43" s="74" t="s">
+        <v>182</v>
       </c>
       <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="84">
+      <c r="A44" s="78">
         <v>43</v>
       </c>
-      <c r="B44" s="85"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="78"/>
+      <c r="E44" s="89"/>
       <c r="F44" s="19" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="H44" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="I44" s="75" t="s">
-        <v>194</v>
+        <v>216</v>
+      </c>
+      <c r="H44" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" s="74" t="s">
+        <v>182</v>
       </c>
       <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="78">
         <v>44</v>
       </c>
-      <c r="B45" s="85"/>
+      <c r="B45" s="79"/>
       <c r="C45" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" s="78"/>
+        <v>221</v>
+      </c>
+      <c r="E45" s="89"/>
       <c r="F45" s="19" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="H45" s="75" t="s">
-        <v>234</v>
-      </c>
-      <c r="I45" s="75" t="s">
-        <v>194</v>
+        <v>220</v>
+      </c>
+      <c r="H45" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="I45" s="74" t="s">
+        <v>182</v>
       </c>
       <c r="J45" s="42"/>
     </row>
     <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="84">
+      <c r="A46" s="78">
         <v>45</v>
       </c>
-      <c r="B46" s="85"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="78"/>
+      <c r="E46" s="89"/>
       <c r="F46" s="19" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H46" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="I46" s="75" t="s">
-        <v>194</v>
+      <c r="H46" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" s="74" t="s">
+        <v>182</v>
       </c>
       <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="86">
+      <c r="A47" s="80">
         <v>46</v>
       </c>
-      <c r="B47" s="87"/>
+      <c r="B47" s="81"/>
       <c r="C47" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="80"/>
+      <c r="E47" s="91"/>
       <c r="F47" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H47" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="I47" s="76" t="s">
-        <v>194</v>
+      <c r="H47" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="75" t="s">
+        <v>182</v>
       </c>
       <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="86">
+      <c r="A48" s="80">
         <v>47</v>
       </c>
-      <c r="B48" s="83" t="s">
-        <v>237</v>
+      <c r="B48" s="77" t="s">
+        <v>225</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>40</v>
@@ -3998,241 +3952,241 @@
       <c r="D48" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="77" t="s">
-        <v>238</v>
+      <c r="E48" s="88" t="s">
+        <v>226</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H48" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="I48" s="74" t="s">
-        <v>194</v>
+        <v>129</v>
+      </c>
+      <c r="H48" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" s="73" t="s">
+        <v>182</v>
       </c>
       <c r="J48" s="40"/>
     </row>
     <row r="49" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="94">
+      <c r="A49" s="87">
         <v>48</v>
       </c>
-      <c r="B49" s="85"/>
+      <c r="B49" s="79"/>
       <c r="C49" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="78"/>
+        <v>130</v>
+      </c>
+      <c r="E49" s="89"/>
       <c r="F49" s="19" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H49" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="I49" s="75" t="s">
-        <v>240</v>
+        <v>131</v>
+      </c>
+      <c r="H49" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" s="74" t="s">
+        <v>228</v>
       </c>
       <c r="J49" s="42" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="92">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="80">
         <v>49</v>
       </c>
-      <c r="B50" s="85"/>
+      <c r="B50" s="79"/>
       <c r="C50" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D50" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" s="89"/>
+      <c r="F50" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H50" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="I50" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="J50" s="42"/>
+    </row>
+    <row r="51" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="80">
+        <v>50</v>
+      </c>
+      <c r="B51" s="79"/>
+      <c r="C51" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="89"/>
+      <c r="F51" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H51" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="J51" s="42"/>
+    </row>
+    <row r="52" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="80">
+        <v>51</v>
+      </c>
+      <c r="B52" s="81"/>
+      <c r="C52" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="78"/>
-      <c r="F50" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="H50" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="I50" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="J50" s="42"/>
-    </row>
-    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="92">
-        <v>50</v>
-      </c>
-      <c r="B51" s="85"/>
-      <c r="C51" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="78"/>
-      <c r="F51" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H51" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="I51" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="J51" s="42"/>
-    </row>
-    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="92">
-        <v>51</v>
-      </c>
-      <c r="B52" s="85"/>
-      <c r="C52" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" s="78"/>
-      <c r="F52" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G52" s="19" t="s">
+      <c r="E52" s="91"/>
+      <c r="F52" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="J52" s="44"/>
+    </row>
+    <row r="53" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="86">
+        <v>52</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="H52" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="I52" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="J52" s="42"/>
-    </row>
-    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="92">
-        <v>52</v>
-      </c>
-      <c r="B53" s="85"/>
-      <c r="C53" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" s="78"/>
-      <c r="F53" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H53" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="I53" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="J53" s="42"/>
-    </row>
-    <row r="54" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="93">
+      <c r="G53" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="I53" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="J53" s="85"/>
+    </row>
+    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="87">
         <v>53</v>
       </c>
-      <c r="B54" s="87"/>
-      <c r="C54" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" s="80"/>
-      <c r="F54" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H54" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="I54" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="J54" s="44"/>
-    </row>
-    <row r="55" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="81">
+      <c r="B54" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="J54" s="47"/>
+    </row>
+    <row r="55" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="87">
         <v>54</v>
       </c>
-      <c r="B55" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="G55" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="H55" s="89" t="s">
-        <v>157</v>
-      </c>
-      <c r="I55" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="J55" s="91"/>
-    </row>
-    <row r="56" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="64">
+      <c r="B55" s="53"/>
+      <c r="C55" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="89"/>
+      <c r="F55" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="87">
         <v>55</v>
       </c>
-      <c r="B56" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E56" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="G56" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="I56" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="J56" s="47"/>
-    </row>
-    <row r="57" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="64">
+      <c r="B56" s="53"/>
+      <c r="C56" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="89"/>
+      <c r="F56" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="87">
         <v>56</v>
       </c>
       <c r="B57" s="53"/>
@@ -4240,25 +4194,25 @@
         <v>40</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E57" s="78"/>
+        <v>155</v>
+      </c>
+      <c r="E57" s="89"/>
       <c r="F57" s="34" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I57" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J57" s="10"/>
     </row>
-    <row r="58" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="64">
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="87">
         <v>57</v>
       </c>
       <c r="B58" s="53"/>
@@ -4266,25 +4220,25 @@
         <v>40</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="E58" s="78"/>
+        <v>157</v>
+      </c>
+      <c r="E58" s="89"/>
       <c r="F58" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I58" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="G58" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="H58" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="I58" s="35" t="s">
-        <v>195</v>
-      </c>
       <c r="J58" s="10"/>
     </row>
-    <row r="59" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="64">
+    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="87">
         <v>58</v>
       </c>
       <c r="B59" s="53"/>
@@ -4292,25 +4246,25 @@
         <v>40</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="E59" s="78"/>
+        <v>156</v>
+      </c>
+      <c r="E59" s="89"/>
       <c r="F59" s="34" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I59" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J59" s="10"/>
     </row>
-    <row r="60" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="64">
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="87">
         <v>59</v>
       </c>
       <c r="B60" s="53"/>
@@ -4318,25 +4272,25 @@
         <v>40</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="E60" s="78"/>
+        <v>159</v>
+      </c>
+      <c r="E60" s="89"/>
       <c r="F60" s="34" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I60" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J60" s="10"/>
     </row>
-    <row r="61" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="64">
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="87">
         <v>60</v>
       </c>
       <c r="B61" s="53"/>
@@ -4344,25 +4298,25 @@
         <v>40</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" s="78"/>
+        <v>160</v>
+      </c>
+      <c r="E61" s="89"/>
       <c r="F61" s="34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I61" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J61" s="10"/>
     </row>
-    <row r="62" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="64">
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="87">
         <v>61</v>
       </c>
       <c r="B62" s="53"/>
@@ -4370,142 +4324,90 @@
         <v>40</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62" s="78"/>
+        <v>161</v>
+      </c>
+      <c r="E62" s="89"/>
       <c r="F62" s="34" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H62" s="35" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I62" s="35" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="64">
+      <c r="A63" s="87">
         <v>62</v>
       </c>
-      <c r="B63" s="53"/>
-      <c r="C63" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="E63" s="78"/>
-      <c r="F63" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="G63" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="H63" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="I63" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="J63" s="10"/>
-    </row>
-    <row r="64" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="64">
+      <c r="B63" s="55"/>
+      <c r="C63" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63" s="90"/>
+      <c r="F63" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="G63" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="H63" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="I63" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="J63" s="60"/>
+    </row>
+    <row r="64" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="87">
         <v>63</v>
       </c>
-      <c r="B64" s="53"/>
-      <c r="C64" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="E64" s="78"/>
-      <c r="F64" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="G64" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="H64" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="I64" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="J64" s="10"/>
-    </row>
-    <row r="65" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="64">
-        <v>64</v>
-      </c>
-      <c r="B65" s="55"/>
-      <c r="C65" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="E65" s="79"/>
-      <c r="F65" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="G65" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="H65" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="I65" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="J65" s="60"/>
-    </row>
-    <row r="66" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="64">
-        <v>65</v>
-      </c>
-      <c r="B66" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C66" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="G66" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="H66" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="I66" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="J66" s="63"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
+      <c r="B64" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="G64" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="H64" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="I64" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="J64" s="63"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="E56:E65"/>
+    <mergeCell ref="E54:E63"/>
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="E23:E37"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="E42:E47"/>
-    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="E48:E52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -1154,7 +1154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,6 +1173,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -1601,7 +1607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1842,6 +1848,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2662,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,7 +2780,7 @@
       </c>
       <c r="J3" s="40"/>
     </row>
-    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="87">
         <v>3</v>
       </c>
@@ -2799,7 +2808,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="87">
         <v>4</v>
       </c>
@@ -2827,7 +2836,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="87">
         <v>5</v>
       </c>
@@ -2855,7 +2864,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="87">
         <v>6</v>
       </c>
@@ -3585,7 +3594,7 @@
       <c r="G34" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="92" t="s">
         <v>207</v>
       </c>
       <c r="I34" s="41" t="s">
@@ -3611,7 +3620,7 @@
       <c r="G35" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="92" t="s">
         <v>207</v>
       </c>
       <c r="I35" s="41" t="s">

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="236">
   <si>
     <t>№</t>
   </si>
@@ -1082,9 +1082,6 @@
 2. Нажать кнопку Save</t>
   </si>
   <si>
-    <t>невозможно</t>
-  </si>
-  <si>
     <t>Проверка всплывающих сообщений не работает.</t>
   </si>
   <si>
@@ -1112,6 +1109,9 @@
     <t>1. Откроется экран редактирвоания объявления
 2. Поля изменены
 3. В объявлении  поля отстались неизмененными</t>
+  </si>
+  <si>
+    <t>Не возможно</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1164,12 +1164,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,7 +1601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1835,22 +1829,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="67">
         <v>2</v>
       </c>
@@ -2763,7 +2763,7 @@
       <c r="D3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="91" t="s">
         <v>148</v>
       </c>
       <c r="F3" s="18" t="s">
@@ -2780,8 +2780,8 @@
       </c>
       <c r="J3" s="40"/>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="87">
+    <row r="4" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="67">
         <v>3</v>
       </c>
       <c r="B4" s="49"/>
@@ -2791,7 +2791,7 @@
       <c r="D4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="89"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="19" t="s">
         <v>44</v>
       </c>
@@ -2801,15 +2801,15 @@
       <c r="H4" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="J4" s="42" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="87">
+    </row>
+    <row r="5" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="67">
         <v>4</v>
       </c>
       <c r="B5" s="49"/>
@@ -2819,7 +2819,7 @@
       <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="89"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
@@ -2829,15 +2829,15 @@
       <c r="H5" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="42" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="87">
+    </row>
+    <row r="6" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="67">
         <v>5</v>
       </c>
       <c r="B6" s="49"/>
@@ -2847,7 +2847,7 @@
       <c r="D6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="89"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="19" t="s">
         <v>46</v>
       </c>
@@ -2857,15 +2857,15 @@
       <c r="H6" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="J6" s="42" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="87">
+    </row>
+    <row r="7" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="67">
         <v>6</v>
       </c>
       <c r="B7" s="49"/>
@@ -2875,7 +2875,7 @@
       <c r="D7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="89"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="19" t="s">
         <v>46</v>
       </c>
@@ -2885,11 +2885,11 @@
       <c r="H7" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="90" t="s">
         <v>228</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2903,7 +2903,7 @@
       <c r="D8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="91"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="20" t="s">
         <v>49</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="D9" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="91" t="s">
         <v>146</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -2959,7 +2959,7 @@
       <c r="D10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="89"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="15" t="s">
         <v>60</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="D11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="89"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="15" t="s">
         <v>61</v>
       </c>
@@ -3011,7 +3011,7 @@
       <c r="D12" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="89"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="19" t="s">
         <v>62</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="D13" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="89"/>
+      <c r="E13" s="92"/>
       <c r="F13" s="19" t="s">
         <v>88</v>
       </c>
@@ -3063,7 +3063,7 @@
       <c r="D14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="89"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="19" t="s">
         <v>83</v>
       </c>
@@ -3089,7 +3089,7 @@
       <c r="D15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="89"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="19" t="s">
         <v>70</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="89"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="19" t="s">
         <v>84</v>
       </c>
@@ -3141,7 +3141,7 @@
       <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="89"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="19" t="s">
         <v>87</v>
       </c>
@@ -3167,7 +3167,7 @@
       <c r="D18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="91"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="20" t="s">
         <v>85</v>
       </c>
@@ -3195,7 +3195,7 @@
       <c r="D19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="91" t="s">
         <v>146</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -3223,7 +3223,7 @@
       <c r="D20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="89"/>
+      <c r="E20" s="92"/>
       <c r="F20" s="19" t="s">
         <v>86</v>
       </c>
@@ -3249,7 +3249,7 @@
       <c r="D21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="89"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="19" t="s">
         <v>92</v>
       </c>
@@ -3275,7 +3275,7 @@
       <c r="D22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="91"/>
+      <c r="E22" s="94"/>
       <c r="F22" s="20" t="s">
         <v>91</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="D23" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="88" t="s">
+      <c r="E23" s="91" t="s">
         <v>149</v>
       </c>
       <c r="F23" s="18" t="s">
@@ -3331,7 +3331,7 @@
       <c r="D24" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="89"/>
+      <c r="E24" s="92"/>
       <c r="F24" s="19" t="s">
         <v>189</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="D25" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="89"/>
+      <c r="E25" s="92"/>
       <c r="F25" s="19" t="s">
         <v>191</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="D26" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="89"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="19" t="s">
         <v>193</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="D27" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="89"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="19" t="s">
         <v>194</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="D28" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E28" s="89"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="19" t="s">
         <v>97</v>
       </c>
@@ -3461,7 +3461,7 @@
       <c r="D29" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E29" s="89"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="19" t="s">
         <v>203</v>
       </c>
@@ -3483,20 +3483,22 @@
       <c r="D30" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="89"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="19" t="s">
         <v>209</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="H30" s="70" t="s">
+      <c r="H30" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="I30" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="67">
@@ -3509,7 +3511,7 @@
       <c r="D31" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="89"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="19" t="s">
         <v>99</v>
       </c>
@@ -3535,7 +3537,7 @@
       <c r="D32" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="89"/>
+      <c r="E32" s="92"/>
       <c r="F32" s="19" t="s">
         <v>102</v>
       </c>
@@ -3561,7 +3563,7 @@
       <c r="D33" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="89"/>
+      <c r="E33" s="92"/>
       <c r="F33" s="19" t="s">
         <v>105</v>
       </c>
@@ -3587,14 +3589,14 @@
       <c r="D34" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="89"/>
+      <c r="E34" s="92"/>
       <c r="F34" s="19" t="s">
         <v>109</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="92" t="s">
+      <c r="H34" s="90" t="s">
         <v>207</v>
       </c>
       <c r="I34" s="41" t="s">
@@ -3613,14 +3615,14 @@
       <c r="D35" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="E35" s="89"/>
+      <c r="E35" s="92"/>
       <c r="F35" s="19" t="s">
         <v>206</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="92" t="s">
+      <c r="H35" s="90" t="s">
         <v>207</v>
       </c>
       <c r="I35" s="41" t="s">
@@ -3639,7 +3641,7 @@
       <c r="D36" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="89"/>
+      <c r="E36" s="92"/>
       <c r="F36" s="19" t="s">
         <v>111</v>
       </c>
@@ -3665,7 +3667,7 @@
       <c r="D37" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="91"/>
+      <c r="E37" s="94"/>
       <c r="F37" s="20" t="s">
         <v>110</v>
       </c>
@@ -3693,7 +3695,7 @@
       <c r="D38" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="88" t="s">
+      <c r="E38" s="91" t="s">
         <v>150</v>
       </c>
       <c r="F38" s="18" t="s">
@@ -3721,7 +3723,7 @@
       <c r="D39" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E39" s="89"/>
+      <c r="E39" s="92"/>
       <c r="F39" s="19" t="s">
         <v>213</v>
       </c>
@@ -3747,7 +3749,7 @@
       <c r="D40" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="91"/>
+      <c r="E40" s="94"/>
       <c r="F40" s="20" t="s">
         <v>119</v>
       </c>
@@ -3801,7 +3803,7 @@
       <c r="D42" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="88" t="s">
+      <c r="E42" s="91" t="s">
         <v>151</v>
       </c>
       <c r="F42" s="18" t="s">
@@ -3829,7 +3831,7 @@
       <c r="D43" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="89"/>
+      <c r="E43" s="92"/>
       <c r="F43" s="19" t="s">
         <v>217</v>
       </c>
@@ -3855,7 +3857,7 @@
       <c r="D44" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="89"/>
+      <c r="E44" s="92"/>
       <c r="F44" s="19" t="s">
         <v>218</v>
       </c>
@@ -3881,14 +3883,14 @@
       <c r="D45" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E45" s="89"/>
+      <c r="E45" s="92"/>
       <c r="F45" s="19" t="s">
         <v>219</v>
       </c>
       <c r="G45" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="H45" s="74" t="s">
+      <c r="H45" s="90" t="s">
         <v>222</v>
       </c>
       <c r="I45" s="74" t="s">
@@ -3907,7 +3909,7 @@
       <c r="D46" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="89"/>
+      <c r="E46" s="92"/>
       <c r="F46" s="19" t="s">
         <v>135</v>
       </c>
@@ -3933,7 +3935,7 @@
       <c r="D47" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="91"/>
+      <c r="E47" s="94"/>
       <c r="F47" s="20" t="s">
         <v>132</v>
       </c>
@@ -3961,7 +3963,7 @@
       <c r="D48" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="88" t="s">
+      <c r="E48" s="91" t="s">
         <v>226</v>
       </c>
       <c r="F48" s="18" t="s">
@@ -3978,8 +3980,8 @@
       </c>
       <c r="J48" s="40"/>
     </row>
-    <row r="49" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="87">
+    <row r="49" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="80">
         <v>48</v>
       </c>
       <c r="B49" s="79"/>
@@ -3989,7 +3991,7 @@
       <c r="D49" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="89"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="19" t="s">
         <v>227</v>
       </c>
@@ -3999,11 +4001,11 @@
       <c r="H49" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="I49" s="74" t="s">
+      <c r="I49" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="J49" s="90" t="s">
         <v>228</v>
-      </c>
-      <c r="J49" s="42" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4015,14 +4017,14 @@
         <v>40</v>
       </c>
       <c r="D50" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" s="92"/>
+      <c r="F50" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="E50" s="89"/>
-      <c r="F50" s="19" t="s">
+      <c r="G50" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>232</v>
       </c>
       <c r="H50" s="74" t="s">
         <v>145</v>
@@ -4041,14 +4043,14 @@
         <v>40</v>
       </c>
       <c r="D51" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" s="92"/>
+      <c r="F51" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="E51" s="89"/>
-      <c r="F51" s="19" t="s">
+      <c r="G51" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>235</v>
       </c>
       <c r="H51" s="74" t="s">
         <v>145</v>
@@ -4069,7 +4071,7 @@
       <c r="D52" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="91"/>
+      <c r="E52" s="94"/>
       <c r="F52" s="20" t="s">
         <v>133</v>
       </c>
@@ -4113,7 +4115,7 @@
       <c r="J53" s="85"/>
     </row>
     <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="87">
+      <c r="A54" s="86">
         <v>53</v>
       </c>
       <c r="B54" s="52" t="s">
@@ -4125,7 +4127,7 @@
       <c r="D54" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="88" t="s">
+      <c r="E54" s="91" t="s">
         <v>166</v>
       </c>
       <c r="F54" s="37" t="s">
@@ -4137,13 +4139,13 @@
       <c r="H54" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="I54" s="38" t="s">
+      <c r="I54" s="90" t="s">
         <v>183</v>
       </c>
       <c r="J54" s="47"/>
     </row>
     <row r="55" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="87">
+      <c r="A55" s="86">
         <v>54</v>
       </c>
       <c r="B55" s="53"/>
@@ -4153,7 +4155,7 @@
       <c r="D55" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="89"/>
+      <c r="E55" s="92"/>
       <c r="F55" s="34" t="s">
         <v>170</v>
       </c>
@@ -4163,13 +4165,13 @@
       <c r="H55" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I55" s="35" t="s">
+      <c r="I55" s="90" t="s">
         <v>183</v>
       </c>
       <c r="J55" s="10"/>
     </row>
     <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="87">
+      <c r="A56" s="86">
         <v>55</v>
       </c>
       <c r="B56" s="53"/>
@@ -4179,7 +4181,7 @@
       <c r="D56" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="E56" s="89"/>
+      <c r="E56" s="92"/>
       <c r="F56" s="34" t="s">
         <v>171</v>
       </c>
@@ -4189,13 +4191,13 @@
       <c r="H56" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I56" s="35" t="s">
+      <c r="I56" s="90" t="s">
         <v>183</v>
       </c>
       <c r="J56" s="10"/>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="87">
+      <c r="A57" s="86">
         <v>56</v>
       </c>
       <c r="B57" s="53"/>
@@ -4205,7 +4207,7 @@
       <c r="D57" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E57" s="89"/>
+      <c r="E57" s="92"/>
       <c r="F57" s="34" t="s">
         <v>173</v>
       </c>
@@ -4215,13 +4217,13 @@
       <c r="H57" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I57" s="35" t="s">
+      <c r="I57" s="90" t="s">
         <v>183</v>
       </c>
       <c r="J57" s="10"/>
     </row>
     <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="87">
+      <c r="A58" s="86">
         <v>57</v>
       </c>
       <c r="B58" s="53"/>
@@ -4231,7 +4233,7 @@
       <c r="D58" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E58" s="89"/>
+      <c r="E58" s="92"/>
       <c r="F58" s="34" t="s">
         <v>175</v>
       </c>
@@ -4241,13 +4243,13 @@
       <c r="H58" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I58" s="35" t="s">
+      <c r="I58" s="90" t="s">
         <v>183</v>
       </c>
       <c r="J58" s="10"/>
     </row>
     <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="87">
+      <c r="A59" s="86">
         <v>58</v>
       </c>
       <c r="B59" s="53"/>
@@ -4257,7 +4259,7 @@
       <c r="D59" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="89"/>
+      <c r="E59" s="92"/>
       <c r="F59" s="34" t="s">
         <v>177</v>
       </c>
@@ -4267,13 +4269,13 @@
       <c r="H59" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I59" s="35" t="s">
+      <c r="I59" s="90" t="s">
         <v>183</v>
       </c>
       <c r="J59" s="10"/>
     </row>
     <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="87">
+      <c r="A60" s="86">
         <v>59</v>
       </c>
       <c r="B60" s="53"/>
@@ -4283,7 +4285,7 @@
       <c r="D60" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="E60" s="89"/>
+      <c r="E60" s="92"/>
       <c r="F60" s="34" t="s">
         <v>179</v>
       </c>
@@ -4293,13 +4295,13 @@
       <c r="H60" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I60" s="35" t="s">
+      <c r="I60" s="90" t="s">
         <v>183</v>
       </c>
       <c r="J60" s="10"/>
     </row>
     <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="87">
+      <c r="A61" s="86">
         <v>60</v>
       </c>
       <c r="B61" s="53"/>
@@ -4309,7 +4311,7 @@
       <c r="D61" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="E61" s="89"/>
+      <c r="E61" s="92"/>
       <c r="F61" s="34" t="s">
         <v>179</v>
       </c>
@@ -4319,13 +4321,13 @@
       <c r="H61" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I61" s="35" t="s">
+      <c r="I61" s="90" t="s">
         <v>183</v>
       </c>
       <c r="J61" s="10"/>
     </row>
     <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="87">
+      <c r="A62" s="86">
         <v>61</v>
       </c>
       <c r="B62" s="53"/>
@@ -4335,7 +4337,7 @@
       <c r="D62" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="E62" s="89"/>
+      <c r="E62" s="92"/>
       <c r="F62" s="34" t="s">
         <v>179</v>
       </c>
@@ -4345,13 +4347,13 @@
       <c r="H62" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I62" s="35" t="s">
+      <c r="I62" s="90" t="s">
         <v>183</v>
       </c>
       <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="87">
+      <c r="A63" s="86">
         <v>62</v>
       </c>
       <c r="B63" s="55"/>
@@ -4361,7 +4363,7 @@
       <c r="D63" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="E63" s="90"/>
+      <c r="E63" s="93"/>
       <c r="F63" s="58" t="s">
         <v>179</v>
       </c>
@@ -4371,13 +4373,13 @@
       <c r="H63" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="I63" s="59" t="s">
+      <c r="I63" s="90" t="s">
         <v>183</v>
       </c>
       <c r="J63" s="60"/>
     </row>
     <row r="64" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="87">
+      <c r="A64" s="86">
         <v>63</v>
       </c>
       <c r="B64" s="61" t="s">
@@ -4399,7 +4401,7 @@
       <c r="H64" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="I64" s="46" t="s">
+      <c r="I64" s="90" t="s">
         <v>183</v>
       </c>
       <c r="J64" s="63"/>

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4087,7 +4087,7 @@
       <c r="J52" s="44"/>
     </row>
     <row r="53" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="86">
+      <c r="A53" s="80">
         <v>52</v>
       </c>
       <c r="B53" s="51" t="s">

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,8 +2745,8 @@
       <c r="H2" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="46" t="s">
-        <v>182</v>
+      <c r="I2" s="90" t="s">
+        <v>183</v>
       </c>
       <c r="J2" s="24"/>
     </row>

--- a/docs/check- сases.xlsx
+++ b/docs/check- сases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="236">
   <si>
     <t>№</t>
   </si>
@@ -1014,9 +1014,6 @@
 6. Заявка создана</t>
   </si>
   <si>
-    <t>Заявка создается. Но ее не видно в списке.</t>
-  </si>
-  <si>
     <t>Фильтр: по дате</t>
   </si>
   <si>
@@ -1112,6 +1109,9 @@
   </si>
   <si>
     <t>Не возможно</t>
+  </si>
+  <si>
+    <t>Периодически возникает ошибка.</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1778,67 +1778,61 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2671,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,8 +2739,8 @@
       <c r="H2" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="90" t="s">
-        <v>183</v>
+      <c r="I2" s="87" t="s">
+        <v>234</v>
       </c>
       <c r="J2" s="24"/>
     </row>
@@ -2763,7 +2757,7 @@
       <c r="D3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="89" t="s">
         <v>148</v>
       </c>
       <c r="F3" s="18" t="s">
@@ -2791,7 +2785,7 @@
       <c r="D4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="92"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="19" t="s">
         <v>44</v>
       </c>
@@ -2801,11 +2795,11 @@
       <c r="H4" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="I4" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="J4" s="90" t="s">
-        <v>228</v>
+      <c r="I4" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2819,7 +2813,7 @@
       <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="92"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="19" t="s">
         <v>45</v>
       </c>
@@ -2829,11 +2823,11 @@
       <c r="H5" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="I5" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="J5" s="90" t="s">
-        <v>228</v>
+      <c r="I5" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2847,7 +2841,7 @@
       <c r="D6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="92"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="19" t="s">
         <v>46</v>
       </c>
@@ -2857,14 +2851,14 @@
       <c r="H6" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="J6" s="90" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="67">
         <v>6</v>
       </c>
@@ -2875,7 +2869,7 @@
       <c r="D7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="92"/>
+      <c r="E7" s="90"/>
       <c r="F7" s="19" t="s">
         <v>46</v>
       </c>
@@ -2885,11 +2879,11 @@
       <c r="H7" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="J7" s="90" t="s">
-        <v>228</v>
+      <c r="I7" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="87" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2903,7 +2897,7 @@
       <c r="D8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="94"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="20" t="s">
         <v>49</v>
       </c>
@@ -2931,7 +2925,7 @@
       <c r="D9" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="89" t="s">
         <v>146</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -2959,7 +2953,7 @@
       <c r="D10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="92"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="15" t="s">
         <v>60</v>
       </c>
@@ -2985,7 +2979,7 @@
       <c r="D11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="92"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="15" t="s">
         <v>61</v>
       </c>
@@ -3011,7 +3005,7 @@
       <c r="D12" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="92"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="19" t="s">
         <v>62</v>
       </c>
@@ -3037,7 +3031,7 @@
       <c r="D13" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="92"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="19" t="s">
         <v>88</v>
       </c>
@@ -3063,7 +3057,7 @@
       <c r="D14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="92"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="19" t="s">
         <v>83</v>
       </c>
@@ -3089,7 +3083,7 @@
       <c r="D15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="92"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="19" t="s">
         <v>70</v>
       </c>
@@ -3115,7 +3109,7 @@
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="92"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="19" t="s">
         <v>84</v>
       </c>
@@ -3141,7 +3135,7 @@
       <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="92"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="19" t="s">
         <v>87</v>
       </c>
@@ -3167,7 +3161,7 @@
       <c r="D18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="94"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="20" t="s">
         <v>85</v>
       </c>
@@ -3195,7 +3189,7 @@
       <c r="D19" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="91" t="s">
+      <c r="E19" s="89" t="s">
         <v>146</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -3223,7 +3217,7 @@
       <c r="D20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="92"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="19" t="s">
         <v>86</v>
       </c>
@@ -3249,7 +3243,7 @@
       <c r="D21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="92"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="19" t="s">
         <v>92</v>
       </c>
@@ -3275,7 +3269,7 @@
       <c r="D22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="94"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="20" t="s">
         <v>91</v>
       </c>
@@ -3303,7 +3297,7 @@
       <c r="D23" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="91" t="s">
+      <c r="E23" s="89" t="s">
         <v>149</v>
       </c>
       <c r="F23" s="18" t="s">
@@ -3331,7 +3325,7 @@
       <c r="D24" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="92"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="19" t="s">
         <v>189</v>
       </c>
@@ -3357,7 +3351,7 @@
       <c r="D25" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="92"/>
+      <c r="E25" s="90"/>
       <c r="F25" s="19" t="s">
         <v>191</v>
       </c>
@@ -3383,7 +3377,7 @@
       <c r="D26" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="92"/>
+      <c r="E26" s="90"/>
       <c r="F26" s="19" t="s">
         <v>193</v>
       </c>
@@ -3409,7 +3403,7 @@
       <c r="D27" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="92"/>
+      <c r="E27" s="90"/>
       <c r="F27" s="19" t="s">
         <v>194</v>
       </c>
@@ -3435,7 +3429,7 @@
       <c r="D28" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E28" s="92"/>
+      <c r="E28" s="90"/>
       <c r="F28" s="19" t="s">
         <v>97</v>
       </c>
@@ -3461,7 +3455,7 @@
       <c r="D29" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E29" s="92"/>
+      <c r="E29" s="90"/>
       <c r="F29" s="19" t="s">
         <v>203</v>
       </c>
@@ -3483,22 +3477,20 @@
       <c r="D30" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="92"/>
+      <c r="E30" s="90"/>
       <c r="F30" s="19" t="s">
         <v>209</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="H30" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="I30" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="J30" s="90" t="s">
-        <v>211</v>
-      </c>
+      <c r="H30" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="67">
@@ -3511,7 +3503,7 @@
       <c r="D31" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="92"/>
+      <c r="E31" s="90"/>
       <c r="F31" s="19" t="s">
         <v>99</v>
       </c>
@@ -3537,7 +3529,7 @@
       <c r="D32" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="92"/>
+      <c r="E32" s="90"/>
       <c r="F32" s="19" t="s">
         <v>102</v>
       </c>
@@ -3563,7 +3555,7 @@
       <c r="D33" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="92"/>
+      <c r="E33" s="90"/>
       <c r="F33" s="19" t="s">
         <v>105</v>
       </c>
@@ -3589,20 +3581,22 @@
       <c r="D34" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="92"/>
+      <c r="E34" s="90"/>
       <c r="F34" s="19" t="s">
         <v>109</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="90" t="s">
+      <c r="H34" s="87" t="s">
         <v>207</v>
       </c>
       <c r="I34" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="J34" s="42"/>
+      <c r="J34" s="87" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="67">
@@ -3615,20 +3609,22 @@
       <c r="D35" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="E35" s="92"/>
+      <c r="E35" s="90"/>
       <c r="F35" s="19" t="s">
         <v>206</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="90" t="s">
+      <c r="H35" s="87" t="s">
         <v>207</v>
       </c>
       <c r="I35" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="J35" s="42"/>
+      <c r="J35" s="87" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="67">
@@ -3641,7 +3637,7 @@
       <c r="D36" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="92"/>
+      <c r="E36" s="90"/>
       <c r="F36" s="19" t="s">
         <v>111</v>
       </c>
@@ -3667,7 +3663,7 @@
       <c r="D37" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="94"/>
+      <c r="E37" s="92"/>
       <c r="F37" s="20" t="s">
         <v>110</v>
       </c>
@@ -3695,7 +3691,7 @@
       <c r="D38" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="91" t="s">
+      <c r="E38" s="89" t="s">
         <v>150</v>
       </c>
       <c r="F38" s="18" t="s">
@@ -3721,14 +3717,14 @@
         <v>40</v>
       </c>
       <c r="D39" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="90"/>
+      <c r="F39" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="19" t="s">
+      <c r="G39" s="19" t="s">
         <v>213</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>214</v>
       </c>
       <c r="H39" s="41" t="s">
         <v>145</v>
@@ -3749,7 +3745,7 @@
       <c r="D40" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="94"/>
+      <c r="E40" s="92"/>
       <c r="F40" s="20" t="s">
         <v>119</v>
       </c>
@@ -3775,27 +3771,27 @@
       <c r="D41" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="72"/>
+      <c r="E41" s="71"/>
       <c r="F41" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="I41" s="71" t="s">
+      <c r="H41" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" s="70" t="s">
         <v>182</v>
       </c>
       <c r="J41" s="44"/>
     </row>
     <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="76">
+      <c r="A42" s="75">
         <v>41</v>
       </c>
-      <c r="B42" s="77" t="s">
-        <v>224</v>
+      <c r="B42" s="76" t="s">
+        <v>223</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>40</v>
@@ -3803,7 +3799,7 @@
       <c r="D42" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="91" t="s">
+      <c r="E42" s="89" t="s">
         <v>151</v>
       </c>
       <c r="F42" s="18" t="s">
@@ -3812,150 +3808,150 @@
       <c r="G42" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H42" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="I42" s="73" t="s">
+      <c r="H42" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="I42" s="72" t="s">
         <v>182</v>
       </c>
       <c r="J42" s="40"/>
     </row>
     <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="78">
+      <c r="A43" s="77">
         <v>42</v>
       </c>
-      <c r="B43" s="79"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="92"/>
+      <c r="E43" s="90"/>
       <c r="F43" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="H43" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="I43" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="H43" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="I43" s="73" t="s">
         <v>182</v>
       </c>
       <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="78">
+      <c r="A44" s="77">
         <v>43</v>
       </c>
-      <c r="B44" s="79"/>
+      <c r="B44" s="78"/>
       <c r="C44" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="92"/>
+      <c r="E44" s="90"/>
       <c r="F44" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H44" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" s="42"/>
+    </row>
+    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="77">
+        <v>44</v>
+      </c>
+      <c r="B45" s="78"/>
+      <c r="C45" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="90"/>
+      <c r="F45" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="G44" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="H44" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="I44" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="J44" s="42"/>
-    </row>
-    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="78">
-        <v>44</v>
-      </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="15" t="s">
+      <c r="G45" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H45" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="E45" s="92"/>
-      <c r="F45" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="H45" s="90" t="s">
-        <v>222</v>
-      </c>
-      <c r="I45" s="74" t="s">
+      <c r="I45" s="73" t="s">
         <v>182</v>
       </c>
       <c r="J45" s="42"/>
     </row>
     <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="78">
+      <c r="A46" s="77">
         <v>45</v>
       </c>
-      <c r="B46" s="79"/>
+      <c r="B46" s="78"/>
       <c r="C46" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="92"/>
+      <c r="E46" s="90"/>
       <c r="F46" s="19" t="s">
         <v>135</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H46" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="I46" s="74" t="s">
+      <c r="H46" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" s="73" t="s">
         <v>182</v>
       </c>
       <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="80">
+      <c r="A47" s="79">
         <v>46</v>
       </c>
-      <c r="B47" s="81"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="94"/>
+      <c r="E47" s="92"/>
       <c r="F47" s="20" t="s">
         <v>132</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H47" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="I47" s="75" t="s">
+      <c r="H47" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="74" t="s">
         <v>182</v>
       </c>
       <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="80">
+      <c r="A48" s="79">
         <v>47</v>
       </c>
-      <c r="B48" s="77" t="s">
-        <v>225</v>
+      <c r="B48" s="76" t="s">
+        <v>224</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>40</v>
@@ -3963,8 +3959,8 @@
       <c r="D48" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="91" t="s">
-        <v>226</v>
+      <c r="E48" s="89" t="s">
+        <v>225</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>134</v>
@@ -3972,122 +3968,122 @@
       <c r="G48" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="H48" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="I48" s="73" t="s">
+      <c r="H48" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" s="72" t="s">
         <v>182</v>
       </c>
       <c r="J48" s="40"/>
     </row>
     <row r="49" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="80">
+      <c r="A49" s="79">
         <v>48</v>
       </c>
-      <c r="B49" s="79"/>
+      <c r="B49" s="78"/>
       <c r="C49" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="92"/>
+      <c r="E49" s="90"/>
       <c r="F49" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G49" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="H49" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="I49" s="87" t="s">
-        <v>182</v>
-      </c>
-      <c r="J49" s="90" t="s">
+      <c r="H49" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="J49" s="87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="79">
+        <v>49</v>
+      </c>
+      <c r="B50" s="78"/>
+      <c r="C50" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="80">
-        <v>49</v>
-      </c>
-      <c r="B50" s="79"/>
-      <c r="C50" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="15" t="s">
+      <c r="E50" s="90"/>
+      <c r="F50" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="E50" s="92"/>
-      <c r="F50" s="19" t="s">
+      <c r="G50" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="H50" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="I50" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="J50" s="42"/>
+    </row>
+    <row r="51" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="79">
+        <v>50</v>
+      </c>
+      <c r="B51" s="78"/>
+      <c r="C51" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H50" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="I50" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="J50" s="42"/>
-    </row>
-    <row r="51" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="80">
-        <v>50</v>
-      </c>
-      <c r="B51" s="79"/>
-      <c r="C51" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="15" t="s">
+      <c r="E51" s="90"/>
+      <c r="F51" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="E51" s="92"/>
-      <c r="F51" s="19" t="s">
+      <c r="G51" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="G51" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="H51" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="I51" s="74" t="s">
+      <c r="H51" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" s="73" t="s">
         <v>182</v>
       </c>
       <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="80">
+      <c r="A52" s="79">
         <v>51</v>
       </c>
-      <c r="B52" s="81"/>
+      <c r="B52" s="80"/>
       <c r="C52" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="94"/>
+      <c r="E52" s="92"/>
       <c r="F52" s="20" t="s">
         <v>133</v>
       </c>
       <c r="G52" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H52" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="I52" s="75" t="s">
+      <c r="H52" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" s="74" t="s">
         <v>182</v>
       </c>
       <c r="J52" s="44"/>
     </row>
     <row r="53" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="80">
+      <c r="A53" s="79">
         <v>52</v>
       </c>
       <c r="B53" s="51" t="s">
@@ -4103,19 +4099,19 @@
       <c r="F53" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G53" s="82" t="s">
+      <c r="G53" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="H53" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="I53" s="84" t="s">
-        <v>182</v>
-      </c>
-      <c r="J53" s="85"/>
+      <c r="H53" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="I53" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="J53" s="84"/>
     </row>
     <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="86">
+      <c r="A54" s="85">
         <v>53</v>
       </c>
       <c r="B54" s="52" t="s">
@@ -4127,7 +4123,7 @@
       <c r="D54" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="91" t="s">
+      <c r="E54" s="89" t="s">
         <v>166</v>
       </c>
       <c r="F54" s="37" t="s">
@@ -4139,13 +4135,13 @@
       <c r="H54" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="I54" s="90" t="s">
+      <c r="I54" s="87" t="s">
         <v>183</v>
       </c>
       <c r="J54" s="47"/>
     </row>
     <row r="55" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="86">
+      <c r="A55" s="85">
         <v>54</v>
       </c>
       <c r="B55" s="53"/>
@@ -4155,7 +4151,7 @@
       <c r="D55" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="92"/>
+      <c r="E55" s="90"/>
       <c r="F55" s="34" t="s">
         <v>170</v>
       </c>
@@ -4165,13 +4161,13 @@
       <c r="H55" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I55" s="90" t="s">
+      <c r="I55" s="87" t="s">
         <v>183</v>
       </c>
       <c r="J55" s="10"/>
     </row>
     <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="86">
+      <c r="A56" s="85">
         <v>55</v>
       </c>
       <c r="B56" s="53"/>
@@ -4181,7 +4177,7 @@
       <c r="D56" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="E56" s="92"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="34" t="s">
         <v>171</v>
       </c>
@@ -4191,13 +4187,13 @@
       <c r="H56" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I56" s="90" t="s">
+      <c r="I56" s="87" t="s">
         <v>183</v>
       </c>
       <c r="J56" s="10"/>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="86">
+      <c r="A57" s="85">
         <v>56</v>
       </c>
       <c r="B57" s="53"/>
@@ -4207,7 +4203,7 @@
       <c r="D57" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E57" s="92"/>
+      <c r="E57" s="90"/>
       <c r="F57" s="34" t="s">
         <v>173</v>
       </c>
@@ -4217,13 +4213,13 @@
       <c r="H57" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I57" s="90" t="s">
+      <c r="I57" s="87" t="s">
         <v>183</v>
       </c>
       <c r="J57" s="10"/>
     </row>
     <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="86">
+      <c r="A58" s="85">
         <v>57</v>
       </c>
       <c r="B58" s="53"/>
@@ -4233,7 +4229,7 @@
       <c r="D58" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E58" s="92"/>
+      <c r="E58" s="90"/>
       <c r="F58" s="34" t="s">
         <v>175</v>
       </c>
@@ -4243,13 +4239,13 @@
       <c r="H58" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I58" s="90" t="s">
+      <c r="I58" s="87" t="s">
         <v>183</v>
       </c>
       <c r="J58" s="10"/>
     </row>
     <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="86">
+      <c r="A59" s="85">
         <v>58</v>
       </c>
       <c r="B59" s="53"/>
@@ -4259,7 +4255,7 @@
       <c r="D59" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="92"/>
+      <c r="E59" s="90"/>
       <c r="F59" s="34" t="s">
         <v>177</v>
       </c>
@@ -4269,13 +4265,13 @@
       <c r="H59" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I59" s="90" t="s">
+      <c r="I59" s="87" t="s">
         <v>183</v>
       </c>
       <c r="J59" s="10"/>
     </row>
     <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="86">
+      <c r="A60" s="85">
         <v>59</v>
       </c>
       <c r="B60" s="53"/>
@@ -4285,7 +4281,7 @@
       <c r="D60" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="E60" s="92"/>
+      <c r="E60" s="90"/>
       <c r="F60" s="34" t="s">
         <v>179</v>
       </c>
@@ -4295,13 +4291,13 @@
       <c r="H60" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I60" s="90" t="s">
+      <c r="I60" s="87" t="s">
         <v>183</v>
       </c>
       <c r="J60" s="10"/>
     </row>
     <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="86">
+      <c r="A61" s="85">
         <v>60</v>
       </c>
       <c r="B61" s="53"/>
@@ -4311,7 +4307,7 @@
       <c r="D61" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="E61" s="92"/>
+      <c r="E61" s="90"/>
       <c r="F61" s="34" t="s">
         <v>179</v>
       </c>
@@ -4321,13 +4317,13 @@
       <c r="H61" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I61" s="90" t="s">
+      <c r="I61" s="87" t="s">
         <v>183</v>
       </c>
       <c r="J61" s="10"/>
     </row>
     <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="86">
+      <c r="A62" s="85">
         <v>61</v>
       </c>
       <c r="B62" s="53"/>
@@ -4337,7 +4333,7 @@
       <c r="D62" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="E62" s="92"/>
+      <c r="E62" s="90"/>
       <c r="F62" s="34" t="s">
         <v>179</v>
       </c>
@@ -4347,13 +4343,13 @@
       <c r="H62" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I62" s="90" t="s">
+      <c r="I62" s="87" t="s">
         <v>183</v>
       </c>
       <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="86">
+      <c r="A63" s="85">
         <v>62</v>
       </c>
       <c r="B63" s="55"/>
@@ -4363,7 +4359,7 @@
       <c r="D63" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="E63" s="93"/>
+      <c r="E63" s="91"/>
       <c r="F63" s="58" t="s">
         <v>179</v>
       </c>
@@ -4373,13 +4369,13 @@
       <c r="H63" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="I63" s="90" t="s">
+      <c r="I63" s="87" t="s">
         <v>183</v>
       </c>
       <c r="J63" s="60"/>
     </row>
     <row r="64" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="86">
+      <c r="A64" s="85">
         <v>63</v>
       </c>
       <c r="B64" s="61" t="s">
@@ -4401,7 +4397,7 @@
       <c r="H64" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="I64" s="90" t="s">
+      <c r="I64" s="87" t="s">
         <v>183</v>
       </c>
       <c r="J64" s="63"/>
